--- a/solariv.xlsx
+++ b/solariv.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Katie/Documents/winter 2020/aa 236/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{388B8393-C4B6-3548-8BA6-A8BF51E90E4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1467E016-0236-4E46-80DE-47D07D1302CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="720" windowWidth="22560" windowHeight="14220" activeTab="3" xr2:uid="{27B36DB9-51A1-AA4A-8D2C-F1920E341D65}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="22920" windowHeight="14220" xr2:uid="{27B36DB9-51A1-AA4A-8D2C-F1920E341D65}"/>
   </bookViews>
   <sheets>
     <sheet name="Single Cell" sheetId="1" r:id="rId1"/>
-    <sheet name="X" sheetId="2" r:id="rId2"/>
-    <sheet name="+Y" sheetId="3" r:id="rId3"/>
-    <sheet name="Z" sheetId="4" r:id="rId4"/>
+    <sheet name="-Y" sheetId="5" r:id="rId2"/>
+    <sheet name="X" sheetId="2" r:id="rId3"/>
+    <sheet name="+Y" sheetId="3" r:id="rId4"/>
+    <sheet name="Z" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="30">
   <si>
     <t>Voltage (V)</t>
   </si>
@@ -41,11 +42,92 @@
   <si>
     <t>Outdoor</t>
   </si>
+  <si>
+    <t>Indoor:</t>
+  </si>
+  <si>
+    <t>Outdoor:</t>
+  </si>
+  <si>
+    <t>Max Power Est.</t>
+  </si>
+  <si>
+    <t>2.7 V</t>
+  </si>
+  <si>
+    <t>57 mA</t>
+  </si>
+  <si>
+    <t>3 V</t>
+  </si>
+  <si>
+    <t>25 mA</t>
+  </si>
+  <si>
+    <t>60 mA</t>
+  </si>
+  <si>
+    <t>2.9 V</t>
+  </si>
+  <si>
+    <t>3.1 V</t>
+  </si>
+  <si>
+    <t>20 mA</t>
+  </si>
+  <si>
+    <t>65 mA</t>
+  </si>
+  <si>
+    <t>28 mA</t>
+  </si>
+  <si>
+    <t>Power (mW)</t>
+  </si>
+  <si>
+    <t>Fill Factor</t>
+  </si>
+  <si>
+    <t>Indoor (w/ filter)</t>
+  </si>
+  <si>
+    <t>Indoor (no filter)</t>
+  </si>
+  <si>
+    <t>Indoor (filter)</t>
+  </si>
+  <si>
+    <t>Max Power:</t>
+  </si>
+  <si>
+    <t>mW</t>
+  </si>
+  <si>
+    <t>Fill Factor:</t>
+  </si>
+  <si>
+    <t>Expected:</t>
+  </si>
+  <si>
+    <t>V_mpp</t>
+  </si>
+  <si>
+    <t>I_mpp</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -82,9 +164,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,7 +264,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Lamp</c:v>
+            <c:v>Lamp (no filter)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -500,6 +583,711 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D32A-1243-AFDB-523294D331D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Lamp (filter)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$E$3:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.7490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7310000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.704</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.675</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.631</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.601</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.556</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.496</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.258</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.212</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.121</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.78900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.38700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.10299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$F$3:$F$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.51</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.87</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.94</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.08</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.18</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.16</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBED-E84C-BBDB-BA1052C5A5F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Lamp (no filter)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$G$3:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.091</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.532</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.587</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.595</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.655</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.675</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.7010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.706</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7090000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.714</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.716</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.718</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.716</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.714</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$H$3:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>19.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.05</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.79</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12.35</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.36</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.31</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.6100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBED-E84C-BBDB-BA1052C5A5F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Lamp (no filter)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$I$3:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.9610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.931</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.895</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8759999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.792</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.762</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.659</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5429999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.232</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$J$3:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.95</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.61</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.97</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.37</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.54</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20.57</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20.71</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.73</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CBED-E84C-BBDB-BA1052C5A5F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -871,6 +1659,602 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>-Y Panel IV Curve</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'-Y'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Current (mA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'-Y'!$A$3:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2.548</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.214</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.681</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.607</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.508</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4730000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.454</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.421</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.377</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.155</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.077</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.59899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'-Y'!$B$3:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.69</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.77</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.82</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.87</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.06</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.91</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.46</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.9499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.2200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.7899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.82</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.83</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.84</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D55C-E447-BE45-B73B6D19350F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="83311791"/>
+        <c:axId val="81873743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="83311791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81873743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="81873743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Current (mA)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83311791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>X Panel IV Curve</a:t>
             </a:r>
           </a:p>
@@ -1300,6 +2684,608 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-44DA-BD49-8FF6-EA7A013576DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Lamp (no filter)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>X!$G$3:$G$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.17100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.653</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.121</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2480000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.347</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.395</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.423</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.431</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.427</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.4260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.4129999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.403</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.399</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.3940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.3879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.3849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.3809999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.3769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.3730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.3690000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.3639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.3580000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>X!$H$3:$H$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>71.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.07</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>30.58</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>26.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.08</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13.31</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.58</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.58</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.1300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.67</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.07</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.54</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.89</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.88</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.08</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C520-8941-BC04-416943BC9BF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Lamp (filter)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>X!$E$3:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>3.2589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2040000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1230000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1230000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9830000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.919</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.8370000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8370000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.585</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.585</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.794</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.379</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.383</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.296</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.79700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.41499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>X!$F$3:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.67</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.77</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.77</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.01</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.79</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.79</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.66</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.67</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.33</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.84</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.65</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.37</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.42</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>12.77</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.24</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.49</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C520-8941-BC04-416943BC9BF4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1556,6 +3542,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1600,7 +3617,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2413,7 +4430,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2841,6 +4858,554 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A2DD-5543-9BEF-E32AB661101A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Lamp (filter)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Z!$E$3:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>3.302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1549999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1030000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.446</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.444</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.373</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.175</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.77400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.34200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Z!$F$3:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.74</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.57</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12.06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12.42</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.47</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.51</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12.51</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12.53</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.56</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12.64</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12.94</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.06</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.08</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.13</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0089-6745-8E97-BDB26B5E9B51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Lamp (no filter)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Z!$G$3:$G$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.16300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.442</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2639999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3530000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.359</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4289999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.4550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.472</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.492</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.4849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.4809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.476</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.4710000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.4590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.448</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.4430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.4390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.4329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.4239999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.419</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Z!$H$3:$H$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>70.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42.4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.71</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.28</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.51</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.29</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.97</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.97</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.41</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.65</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.59</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.76</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.58</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.17</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.73</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0089-6745-8E97-BDB26B5E9B51}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3332,6 +5897,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5396,20 +8001,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5441,16 +8562,57 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F5EB9F-0DCF-A74A-A1D8-77631798ED7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5478,7 +8640,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5519,20 +8681,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5857,23 +9019,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1500A12-A21D-A64D-BED6-2F488BF871D9}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1">
+        <f>I17*J17</f>
+        <v>26.102650000000004</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1">
+        <v>30.7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5886,8 +9081,36 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="2">
+        <f>P1/(I3*J26)</f>
+        <v>0.64087083786214438</v>
+      </c>
+      <c r="S2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>1.82</v>
       </c>
@@ -5900,8 +9123,41 @@
       <c r="D3">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="F3">
+        <v>1.82</v>
+      </c>
+      <c r="G3">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H3">
+        <v>19.72</v>
+      </c>
+      <c r="I3">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="J3">
+        <v>2.04</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3">
+        <v>1.67</v>
+      </c>
+      <c r="T3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>1.806</v>
       </c>
@@ -5914,8 +9170,41 @@
       <c r="D4">
         <v>1.98</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>1.74</v>
+      </c>
+      <c r="F4">
+        <v>1.81</v>
+      </c>
+      <c r="G4">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H4">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="I4">
+        <v>1.931</v>
+      </c>
+      <c r="J4">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="T4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>1.7909999999999999</v>
       </c>
@@ -5928,8 +9217,26 @@
       <c r="D5">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>1.7310000000000001</v>
+      </c>
+      <c r="F5">
+        <v>1.84</v>
+      </c>
+      <c r="G5">
+        <v>0.316</v>
+      </c>
+      <c r="H5">
+        <v>19.78</v>
+      </c>
+      <c r="I5">
+        <v>1.91</v>
+      </c>
+      <c r="J5">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>1.778</v>
       </c>
@@ -5942,8 +9249,26 @@
       <c r="D6">
         <v>3.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>1.718</v>
+      </c>
+      <c r="F6">
+        <v>1.96</v>
+      </c>
+      <c r="G6">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="H6">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="I6">
+        <v>1.895</v>
+      </c>
+      <c r="J6">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>1.7649999999999999</v>
       </c>
@@ -5956,8 +9281,26 @@
       <c r="D7">
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>1.704</v>
+      </c>
+      <c r="F7">
+        <v>2.12</v>
+      </c>
+      <c r="G7">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="H7">
+        <v>19.89</v>
+      </c>
+      <c r="I7">
+        <v>1.8759999999999999</v>
+      </c>
+      <c r="J7">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>1.752</v>
       </c>
@@ -5970,8 +9313,26 @@
       <c r="D8">
         <v>6.61</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="F8">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G8">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>1.855</v>
+      </c>
+      <c r="J8">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>1.7370000000000001</v>
       </c>
@@ -5984,8 +9345,26 @@
       <c r="D9">
         <v>7.95</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>1.675</v>
+      </c>
+      <c r="F9">
+        <v>2.48</v>
+      </c>
+      <c r="G9">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="H9">
+        <v>20.02</v>
+      </c>
+      <c r="I9">
+        <v>1.8380000000000001</v>
+      </c>
+      <c r="J9">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>1.722</v>
       </c>
@@ -5998,8 +9377,26 @@
       <c r="D10">
         <v>8.18</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="F10">
+        <v>2.69</v>
+      </c>
+      <c r="G10">
+        <v>1.091</v>
+      </c>
+      <c r="H10">
+        <v>20.05</v>
+      </c>
+      <c r="I10">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="J10">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>1.706</v>
       </c>
@@ -6012,8 +9409,26 @@
       <c r="D11">
         <v>8.15</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="F11">
+        <v>3.06</v>
+      </c>
+      <c r="G11">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="H11">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="I11">
+        <v>1.792</v>
+      </c>
+      <c r="J11">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>1.6859999999999999</v>
       </c>
@@ -6026,8 +9441,26 @@
       <c r="D12">
         <v>8.11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>1.631</v>
+      </c>
+      <c r="F12">
+        <v>3.06</v>
+      </c>
+      <c r="G12">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="H12">
+        <v>19.53</v>
+      </c>
+      <c r="I12">
+        <v>1.762</v>
+      </c>
+      <c r="J12">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>1.6679999999999999</v>
       </c>
@@ -6040,8 +9473,26 @@
       <c r="D13">
         <v>8.09</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>1.601</v>
+      </c>
+      <c r="F13">
+        <v>3.46</v>
+      </c>
+      <c r="G13">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="H13">
+        <v>18.79</v>
+      </c>
+      <c r="I13">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="J13">
+        <v>9.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>1.651</v>
       </c>
@@ -6054,8 +9505,26 @@
       <c r="D14">
         <v>8.07</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>1.556</v>
+      </c>
+      <c r="F14">
+        <v>3.92</v>
+      </c>
+      <c r="G14">
+        <v>1.5189999999999999</v>
+      </c>
+      <c r="H14">
+        <v>17.02</v>
+      </c>
+      <c r="I14">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="J14">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>1.623</v>
       </c>
@@ -6068,8 +9537,26 @@
       <c r="D15">
         <v>7.98</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>1.496</v>
+      </c>
+      <c r="F15">
+        <v>4.51</v>
+      </c>
+      <c r="G15">
+        <v>1.53</v>
+      </c>
+      <c r="H15">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="I15">
+        <v>1.659</v>
+      </c>
+      <c r="J15">
+        <v>12.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>1.583</v>
       </c>
@@ -6082,69 +9569,401 @@
       <c r="D16">
         <v>8.0299999999999994</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="E16">
+        <v>1.333</v>
+      </c>
+      <c r="F16">
+        <v>5.44</v>
+      </c>
+      <c r="G16">
+        <v>1.532</v>
+      </c>
+      <c r="H16">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="I16">
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="J16">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>1.55</v>
       </c>
       <c r="B17">
         <v>9.5500000000000007</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="E17">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="F17">
+        <v>5.5</v>
+      </c>
+      <c r="G17">
+        <v>1.587</v>
+      </c>
+      <c r="H17">
+        <v>14.83</v>
+      </c>
+      <c r="I17">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="J17">
+        <v>18.190000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>1.4990000000000001</v>
       </c>
       <c r="B18">
         <v>11.54</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="E18">
+        <v>1.258</v>
+      </c>
+      <c r="F18">
+        <v>5.65</v>
+      </c>
+      <c r="G18">
+        <v>1.595</v>
+      </c>
+      <c r="H18">
+        <v>14.36</v>
+      </c>
+      <c r="I18">
+        <v>1.232</v>
+      </c>
+      <c r="J18">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>1.38</v>
       </c>
       <c r="B19">
         <v>15.05</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="E19">
+        <v>1.212</v>
+      </c>
+      <c r="F19">
+        <v>5.72</v>
+      </c>
+      <c r="G19">
+        <v>1.64</v>
+      </c>
+      <c r="H19">
+        <v>12.35</v>
+      </c>
+      <c r="I19">
+        <v>1.0980000000000001</v>
+      </c>
+      <c r="J19">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>1.272</v>
       </c>
       <c r="B20">
         <v>17.010000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="E20">
+        <v>1.121</v>
+      </c>
+      <c r="F20">
+        <v>5.87</v>
+      </c>
+      <c r="G20">
+        <v>1.655</v>
+      </c>
+      <c r="H20">
+        <v>11.36</v>
+      </c>
+      <c r="I20">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="J20">
+        <v>20.37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>0.89200000000000002</v>
       </c>
       <c r="B21">
         <v>19.309999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="E21">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="F21">
+        <v>5.87</v>
+      </c>
+      <c r="G21">
+        <v>1.675</v>
+      </c>
+      <c r="H21">
+        <v>10.02</v>
+      </c>
+      <c r="I21">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="J21">
+        <v>20.54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>0.499</v>
       </c>
       <c r="B22">
         <v>19.61</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="E22">
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="F22">
+        <v>5.94</v>
+      </c>
+      <c r="G22">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="H22">
+        <v>8.89</v>
+      </c>
+      <c r="I22">
+        <v>0.433</v>
+      </c>
+      <c r="J22">
+        <v>20.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="B23">
         <v>19.760000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="E23">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>1.6970000000000001</v>
+      </c>
+      <c r="H23">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="I23">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="J23">
+        <v>20.57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="B24">
         <v>19.79</v>
+      </c>
+      <c r="E24">
+        <v>0.878</v>
+      </c>
+      <c r="F24">
+        <v>6.08</v>
+      </c>
+      <c r="G24">
+        <v>1.7</v>
+      </c>
+      <c r="H24">
+        <v>7.4</v>
+      </c>
+      <c r="I24">
+        <v>0.18</v>
+      </c>
+      <c r="J24">
+        <v>20.71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="E25">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="F25">
+        <v>6.11</v>
+      </c>
+      <c r="G25">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="H25">
+        <v>6.98</v>
+      </c>
+      <c r="I25">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="J25">
+        <v>20.73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="E26">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="F26">
+        <v>6.15</v>
+      </c>
+      <c r="G26">
+        <v>1.706</v>
+      </c>
+      <c r="H26">
+        <v>6.31</v>
+      </c>
+      <c r="I26">
+        <v>0.05</v>
+      </c>
+      <c r="J26">
+        <v>20.77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="E27">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="F27">
+        <v>6.15</v>
+      </c>
+      <c r="G27">
+        <v>1.7090000000000001</v>
+      </c>
+      <c r="H27">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="E28">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="F28">
+        <v>6.14</v>
+      </c>
+      <c r="G28">
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="H28">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="E29">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F29">
+        <v>6.17</v>
+      </c>
+      <c r="G29">
+        <v>1.714</v>
+      </c>
+      <c r="H29">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="E30">
+        <v>0.187</v>
+      </c>
+      <c r="F30">
+        <v>6.18</v>
+      </c>
+      <c r="G30">
+        <v>1.716</v>
+      </c>
+      <c r="H30">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="E31">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="F31">
+        <v>6.17</v>
+      </c>
+      <c r="G31">
+        <v>1.7170000000000001</v>
+      </c>
+      <c r="H31">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="E32">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F32">
+        <v>6.16</v>
+      </c>
+      <c r="G32">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="H32">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8">
+      <c r="E33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F33">
+        <v>6.16</v>
+      </c>
+      <c r="G33">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="H33">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8">
+      <c r="G34">
+        <v>1.718</v>
+      </c>
+      <c r="H34">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8">
+      <c r="G35">
+        <v>1.7170000000000001</v>
+      </c>
+      <c r="H35">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="G36">
+        <v>1.716</v>
+      </c>
+      <c r="H36">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8">
+      <c r="G37">
+        <v>1.714</v>
+      </c>
+      <c r="H37">
+        <v>1.78</v>
       </c>
     </row>
   </sheetData>
@@ -6157,369 +9976,314 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227491E2-4243-FE44-ACAF-7DA0D3D74BD1}">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC01E281-677C-4248-8880-C2A0157AB7EF}">
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>3.7829999999999999</v>
+        <v>2.548</v>
       </c>
       <c r="B3">
-        <v>3.96</v>
-      </c>
-      <c r="C3">
-        <v>3.6709999999999998</v>
-      </c>
-      <c r="D3">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>3.7650000000000001</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="B4">
-        <v>3.94</v>
-      </c>
-      <c r="C4">
-        <v>3.669</v>
-      </c>
-      <c r="D4">
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>3.734</v>
+        <v>2.504</v>
       </c>
       <c r="B5">
-        <v>3.97</v>
-      </c>
-      <c r="C5">
-        <v>3.665</v>
-      </c>
-      <c r="D5">
-        <v>4.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>3.6859999999999999</v>
+        <v>2.4279999999999999</v>
       </c>
       <c r="B6">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="C6">
-        <v>3.6619999999999999</v>
-      </c>
-      <c r="D6">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>3.6640000000000001</v>
+        <v>2.3519999999999999</v>
       </c>
       <c r="B7">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="C7">
-        <v>3.66</v>
-      </c>
-      <c r="D7">
-        <v>4.4400000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>3.65</v>
+        <v>2.3010000000000002</v>
       </c>
       <c r="B8">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="C8">
-        <v>3.6549999999999998</v>
-      </c>
-      <c r="D8">
-        <v>4.84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>3.633</v>
+        <v>2.214</v>
       </c>
       <c r="B9">
-        <v>5.13</v>
-      </c>
-      <c r="C9">
-        <v>3.649</v>
-      </c>
-      <c r="D9">
-        <v>5.24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
-        <v>3.6160000000000001</v>
+        <v>2.0619999999999998</v>
       </c>
       <c r="B10">
-        <v>5.42</v>
-      </c>
-      <c r="C10">
-        <v>3.645</v>
-      </c>
-      <c r="D10">
-        <v>5.47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
-        <v>3.593</v>
+        <v>1.9530000000000001</v>
       </c>
       <c r="B11">
-        <v>6.15</v>
-      </c>
-      <c r="C11">
-        <v>3.6360000000000001</v>
-      </c>
-      <c r="D11">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
-        <v>3.5630000000000002</v>
+        <v>1.903</v>
       </c>
       <c r="B12">
-        <v>7.19</v>
-      </c>
-      <c r="C12">
-        <v>3.625</v>
-      </c>
-      <c r="D12">
-        <v>6.69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
-        <v>3.536</v>
+        <v>1.8560000000000001</v>
       </c>
       <c r="B13">
-        <v>8.09</v>
-      </c>
-      <c r="C13">
-        <v>3.62</v>
-      </c>
-      <c r="D13">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
-        <v>3.5129999999999999</v>
+        <v>1.8109999999999999</v>
       </c>
       <c r="B14">
-        <v>9.44</v>
-      </c>
-      <c r="C14">
-        <v>3.6080000000000001</v>
-      </c>
-      <c r="D14">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
-        <v>3.4849999999999999</v>
+        <v>1.754</v>
       </c>
       <c r="B15">
-        <v>11.66</v>
-      </c>
-      <c r="C15">
-        <v>3.6</v>
-      </c>
-      <c r="D15">
-        <v>8.2799999999999994</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
-        <v>3.4380000000000002</v>
+        <v>1.681</v>
       </c>
       <c r="B16">
-        <v>16.170000000000002</v>
-      </c>
-      <c r="C16">
-        <v>3.5910000000000002</v>
-      </c>
-      <c r="D16">
-        <v>8.76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
-        <v>3.3929999999999998</v>
+        <v>1.607</v>
       </c>
       <c r="B17">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="C17">
-        <v>3.5659999999999998</v>
-      </c>
-      <c r="D17">
-        <v>10.029999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
-        <v>3.343</v>
+        <v>1.5649999999999999</v>
       </c>
       <c r="B18">
-        <v>25.5</v>
-      </c>
-      <c r="C18">
-        <v>3.548</v>
-      </c>
-      <c r="D18">
-        <v>10.97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
-        <v>3.2890000000000001</v>
+        <v>1.508</v>
       </c>
       <c r="B19">
-        <v>29.88</v>
-      </c>
-      <c r="C19">
-        <v>3.476</v>
-      </c>
-      <c r="D19">
-        <v>14.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
-        <v>3.1469999999999998</v>
+        <v>1.4730000000000001</v>
       </c>
       <c r="B20">
-        <v>41.3</v>
-      </c>
-      <c r="C20">
-        <v>3.3650000000000002</v>
-      </c>
-      <c r="D20">
-        <v>18.47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
-        <v>2.4380000000000002</v>
+        <v>1.454</v>
       </c>
       <c r="B21">
-        <v>60.6</v>
-      </c>
-      <c r="C21">
-        <v>3.1120000000000001</v>
-      </c>
-      <c r="D21">
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.159</v>
+        <v>1.421</v>
       </c>
       <c r="B22">
-        <v>68.5</v>
-      </c>
-      <c r="C22">
-        <v>2.952</v>
-      </c>
-      <c r="D22">
-        <v>26.72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.158</v>
+        <v>1.377</v>
       </c>
       <c r="B23">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="C23">
-        <v>2.7170000000000001</v>
-      </c>
-      <c r="D23">
-        <v>28.64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="C24">
-        <v>2.6309999999999998</v>
-      </c>
-      <c r="D24">
-        <v>29.37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="C25">
-        <v>1.905</v>
-      </c>
-      <c r="D25">
-        <v>31.57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="C26">
-        <v>1.2909999999999999</v>
-      </c>
-      <c r="D26">
-        <v>32.020000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="C27">
-        <v>0.34</v>
-      </c>
-      <c r="D27">
-        <v>32.18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="C28">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="D28">
-        <v>32.18</v>
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1.333</v>
+      </c>
+      <c r="B24">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="B26">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>1.155</v>
+      </c>
+      <c r="B27">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="B28">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1.077</v>
+      </c>
+      <c r="B29">
+        <v>7.46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>0.999</v>
+      </c>
+      <c r="B30">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>0.873</v>
+      </c>
+      <c r="B31">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="B32">
+        <v>9.2200000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="B33">
+        <v>9.6300000000000008</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="B34">
+        <v>9.7899999999999991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="B35">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>2.4E-2</v>
+      </c>
+      <c r="B36">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>2.3E-2</v>
+      </c>
+      <c r="B37">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>2.3E-2</v>
+      </c>
+      <c r="B38">
+        <v>9.85</v>
       </c>
     </row>
   </sheetData>
@@ -6529,389 +10293,976 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F683438D-407C-7340-A346-3984ACC80838}">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227491E2-4243-FE44-ACAF-7DA0D3D74BD1}">
+  <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="F6" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
-        <v>3.843</v>
+        <v>3.7829999999999999</v>
       </c>
       <c r="B3">
-        <v>4.03</v>
+        <v>3.96</v>
       </c>
       <c r="C3">
-        <v>3.55</v>
+        <v>3.6709999999999998</v>
       </c>
       <c r="D3">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>3.84</v>
+      </c>
+      <c r="E3">
+        <v>3.2589999999999999</v>
+      </c>
+      <c r="F3">
+        <v>3.41</v>
+      </c>
+      <c r="G3">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="H3">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <f>2.7*57</f>
+        <v>153.9</v>
+      </c>
+      <c r="R3">
+        <f>Q3/(A3*B23)</f>
+        <v>0.59303204685068789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
-        <v>3.8050000000000002</v>
+        <v>3.7650000000000001</v>
       </c>
       <c r="B4">
-        <v>3.99</v>
+        <v>3.94</v>
       </c>
       <c r="C4">
-        <v>3.5470000000000002</v>
+        <v>3.669</v>
       </c>
       <c r="D4">
-        <v>3.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>3.84</v>
+      </c>
+      <c r="E4">
+        <v>3.2450000000000001</v>
+      </c>
+      <c r="F4">
+        <v>3.39</v>
+      </c>
+      <c r="G4">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H4">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
-        <v>3.74</v>
+        <v>3.734</v>
       </c>
       <c r="B5">
-        <v>4.25</v>
+        <v>3.97</v>
       </c>
       <c r="C5">
-        <v>3.54</v>
+        <v>3.665</v>
       </c>
       <c r="D5">
         <v>4.04</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>3.2440000000000002</v>
+      </c>
+      <c r="F5">
+        <v>3.39</v>
+      </c>
+      <c r="G5">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="H5">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="O5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5">
+        <f>3*25</f>
+        <v>75</v>
+      </c>
+      <c r="R5">
+        <f>Q5/(C3*D28)</f>
+        <v>0.63487882025632514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
-        <v>3.657</v>
+        <v>3.6859999999999999</v>
       </c>
       <c r="B6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C6">
+        <v>3.6619999999999999</v>
+      </c>
+      <c r="D6">
+        <v>4.25</v>
+      </c>
+      <c r="E6">
+        <v>3.2040000000000002</v>
+      </c>
+      <c r="F6">
+        <v>3.81</v>
+      </c>
+      <c r="G6">
+        <v>1.202</v>
+      </c>
+      <c r="H6">
+        <v>69.3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>3.6640000000000001</v>
+      </c>
+      <c r="B7">
         <v>4.4400000000000004</v>
       </c>
-      <c r="C6">
-        <v>3.5289999999999999</v>
-      </c>
-      <c r="D6">
-        <v>4.47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>3.6019999999999999</v>
-      </c>
-      <c r="B7">
+      <c r="C7">
+        <v>3.66</v>
+      </c>
+      <c r="D7">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="E7">
+        <v>3.2050000000000001</v>
+      </c>
+      <c r="F7">
+        <v>3.81</v>
+      </c>
+      <c r="G7">
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="H7">
+        <v>69.3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>2.6</v>
+      </c>
+      <c r="Q7">
+        <f>P7*P8</f>
+        <v>158.6</v>
+      </c>
+      <c r="R7">
+        <f>Q7/(H3*A3)</f>
+        <v>0.58965398910590094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>3.65</v>
+      </c>
+      <c r="B8">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C8">
+        <v>3.6549999999999998</v>
+      </c>
+      <c r="D8">
+        <v>4.84</v>
+      </c>
+      <c r="E8">
+        <v>3.1850000000000001</v>
+      </c>
+      <c r="F8">
+        <v>3.96</v>
+      </c>
+      <c r="G8">
+        <v>1.653</v>
+      </c>
+      <c r="H8">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="P8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>3.633</v>
+      </c>
+      <c r="B9">
+        <v>5.13</v>
+      </c>
+      <c r="C9">
+        <v>3.649</v>
+      </c>
+      <c r="D9">
+        <v>5.24</v>
+      </c>
+      <c r="E9">
+        <v>3.1850000000000001</v>
+      </c>
+      <c r="F9">
+        <v>3.96</v>
+      </c>
+      <c r="G9">
+        <v>2.0430000000000001</v>
+      </c>
+      <c r="H9">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>3.6160000000000001</v>
+      </c>
+      <c r="B10">
+        <v>5.42</v>
+      </c>
+      <c r="C10">
+        <v>3.645</v>
+      </c>
+      <c r="D10">
+        <v>5.47</v>
+      </c>
+      <c r="E10">
+        <v>3.1539999999999999</v>
+      </c>
+      <c r="F10">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="G10">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="H10">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>3.593</v>
+      </c>
+      <c r="B11">
+        <v>6.15</v>
+      </c>
+      <c r="C11">
+        <v>3.6360000000000001</v>
+      </c>
+      <c r="D11">
+        <v>5.94</v>
+      </c>
+      <c r="E11">
+        <v>3.1539999999999999</v>
+      </c>
+      <c r="F11">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="G11">
+        <v>2.802</v>
+      </c>
+      <c r="H11">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>3.5630000000000002</v>
+      </c>
+      <c r="B12">
+        <v>7.19</v>
+      </c>
+      <c r="C12">
+        <v>3.625</v>
+      </c>
+      <c r="D12">
+        <v>6.69</v>
+      </c>
+      <c r="E12">
+        <v>3.1230000000000002</v>
+      </c>
+      <c r="F12">
         <v>4.67</v>
       </c>
-      <c r="C7">
-        <v>3.5139999999999998</v>
-      </c>
-      <c r="D7">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>3.5470000000000002</v>
-      </c>
-      <c r="B8">
-        <v>4.9800000000000004</v>
-      </c>
-      <c r="C8">
-        <v>3.504</v>
-      </c>
-      <c r="D8">
-        <v>5.37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>3.492</v>
-      </c>
-      <c r="B9">
-        <v>5.43</v>
-      </c>
-      <c r="C9">
-        <v>3.4940000000000002</v>
-      </c>
-      <c r="D9">
-        <v>5.95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>3.44</v>
-      </c>
-      <c r="B10">
+      <c r="G12">
+        <v>2.9550000000000001</v>
+      </c>
+      <c r="H12">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>3.536</v>
+      </c>
+      <c r="B13">
+        <v>8.09</v>
+      </c>
+      <c r="C13">
+        <v>3.62</v>
+      </c>
+      <c r="D13">
+        <v>7.07</v>
+      </c>
+      <c r="E13">
+        <v>3.1230000000000002</v>
+      </c>
+      <c r="F13">
+        <v>4.7</v>
+      </c>
+      <c r="G13">
+        <v>3.0150000000000001</v>
+      </c>
+      <c r="H13">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>3.5129999999999999</v>
+      </c>
+      <c r="B14">
+        <v>9.44</v>
+      </c>
+      <c r="C14">
+        <v>3.6080000000000001</v>
+      </c>
+      <c r="D14">
+        <v>7.75</v>
+      </c>
+      <c r="E14">
+        <v>3.0760000000000001</v>
+      </c>
+      <c r="F14">
+        <v>5.28</v>
+      </c>
+      <c r="G14">
+        <v>3.121</v>
+      </c>
+      <c r="H14">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="B15">
+        <v>11.66</v>
+      </c>
+      <c r="C15">
+        <v>3.6</v>
+      </c>
+      <c r="D15">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="E15">
+        <v>3.0350000000000001</v>
+      </c>
+      <c r="F15">
         <v>5.77</v>
       </c>
-      <c r="C10">
-        <v>3.4809999999999999</v>
-      </c>
-      <c r="D10">
-        <v>6.62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>3.391</v>
-      </c>
-      <c r="B11">
-        <v>6.6</v>
-      </c>
-      <c r="C11">
-        <v>3.4729999999999999</v>
-      </c>
-      <c r="D11">
+      <c r="G15">
+        <v>3.16</v>
+      </c>
+      <c r="H15">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>3.4380000000000002</v>
+      </c>
+      <c r="B16">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="C16">
+        <v>3.5910000000000002</v>
+      </c>
+      <c r="D16">
+        <v>8.76</v>
+      </c>
+      <c r="E16">
+        <v>3.032</v>
+      </c>
+      <c r="F16">
+        <v>5.77</v>
+      </c>
+      <c r="G16">
+        <v>3.2480000000000002</v>
+      </c>
+      <c r="H16">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>3.3929999999999998</v>
+      </c>
+      <c r="B17">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="C17">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="D17">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="E17">
+        <v>2.9849999999999999</v>
+      </c>
+      <c r="F17">
+        <v>6.32</v>
+      </c>
+      <c r="G17">
+        <v>3.27</v>
+      </c>
+      <c r="H17">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>3.343</v>
+      </c>
+      <c r="B18">
+        <v>25.5</v>
+      </c>
+      <c r="C18">
+        <v>3.548</v>
+      </c>
+      <c r="D18">
+        <v>10.97</v>
+      </c>
+      <c r="E18">
+        <v>2.9830000000000001</v>
+      </c>
+      <c r="F18">
+        <v>6.32</v>
+      </c>
+      <c r="G18">
+        <v>3.347</v>
+      </c>
+      <c r="H18">
+        <v>33.07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>3.2890000000000001</v>
+      </c>
+      <c r="B19">
+        <v>29.88</v>
+      </c>
+      <c r="C19">
+        <v>3.476</v>
+      </c>
+      <c r="D19">
+        <v>14.4</v>
+      </c>
+      <c r="E19">
+        <v>2.919</v>
+      </c>
+      <c r="F19">
+        <v>7.01</v>
+      </c>
+      <c r="G19">
+        <v>3.3639999999999999</v>
+      </c>
+      <c r="H19">
+        <v>30.58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>3.1469999999999998</v>
+      </c>
+      <c r="B20">
+        <v>41.3</v>
+      </c>
+      <c r="C20">
+        <v>3.3650000000000002</v>
+      </c>
+      <c r="D20">
+        <v>18.47</v>
+      </c>
+      <c r="E20">
+        <v>2.8370000000000002</v>
+      </c>
+      <c r="F20">
+        <v>7.79</v>
+      </c>
+      <c r="G20">
+        <v>3.395</v>
+      </c>
+      <c r="H20">
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="B21">
+        <v>60.6</v>
+      </c>
+      <c r="C21">
+        <v>3.1120000000000001</v>
+      </c>
+      <c r="D21">
+        <v>24.3</v>
+      </c>
+      <c r="E21">
+        <v>2.8370000000000002</v>
+      </c>
+      <c r="F21">
+        <v>7.79</v>
+      </c>
+      <c r="G21">
+        <v>3.3940000000000001</v>
+      </c>
+      <c r="H21">
+        <v>25.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>0.159</v>
+      </c>
+      <c r="B22">
+        <v>68.5</v>
+      </c>
+      <c r="C22">
+        <v>2.952</v>
+      </c>
+      <c r="D22">
+        <v>26.72</v>
+      </c>
+      <c r="E22">
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="F22">
+        <v>8.66</v>
+      </c>
+      <c r="G22">
+        <v>3.41</v>
+      </c>
+      <c r="H22">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>0.158</v>
+      </c>
+      <c r="B23">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C23">
+        <v>2.7170000000000001</v>
+      </c>
+      <c r="D23">
+        <v>28.64</v>
+      </c>
+      <c r="E23">
+        <v>2.585</v>
+      </c>
+      <c r="F23">
+        <v>9.68</v>
+      </c>
+      <c r="G23">
+        <v>3.423</v>
+      </c>
+      <c r="H23">
+        <v>19.420000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="C24">
+        <v>2.6309999999999998</v>
+      </c>
+      <c r="D24">
+        <v>29.37</v>
+      </c>
+      <c r="E24">
+        <v>2.585</v>
+      </c>
+      <c r="F24">
+        <v>9.67</v>
+      </c>
+      <c r="G24">
+        <v>3.4239999999999999</v>
+      </c>
+      <c r="H24">
+        <v>18.170000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="C25">
+        <v>1.905</v>
+      </c>
+      <c r="D25">
+        <v>31.57</v>
+      </c>
+      <c r="E25">
+        <v>2.4649999999999999</v>
+      </c>
+      <c r="F25">
+        <v>10.33</v>
+      </c>
+      <c r="G25">
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="H25">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="C26">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="D26">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="E26">
+        <v>2.35</v>
+      </c>
+      <c r="F26">
+        <v>10.84</v>
+      </c>
+      <c r="G26">
+        <v>3.4329999999999998</v>
+      </c>
+      <c r="H26">
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="C27">
+        <v>0.34</v>
+      </c>
+      <c r="D27">
+        <v>32.18</v>
+      </c>
+      <c r="E27">
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="F27">
+        <v>11.65</v>
+      </c>
+      <c r="G27">
+        <v>3.4319999999999999</v>
+      </c>
+      <c r="H27">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="C28">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D28">
+        <v>32.18</v>
+      </c>
+      <c r="E28">
+        <v>1.794</v>
+      </c>
+      <c r="F28">
+        <v>12.12</v>
+      </c>
+      <c r="G28">
+        <v>3.431</v>
+      </c>
+      <c r="H28">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="E29">
+        <v>1.7889999999999999</v>
+      </c>
+      <c r="F29">
+        <v>12.12</v>
+      </c>
+      <c r="G29">
+        <v>3.427</v>
+      </c>
+      <c r="H29">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="E30">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="F30">
+        <v>12.12</v>
+      </c>
+      <c r="G30">
+        <v>3.4260000000000002</v>
+      </c>
+      <c r="H30">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="E31">
+        <v>1.379</v>
+      </c>
+      <c r="F31">
+        <v>12.27</v>
+      </c>
+      <c r="G31">
+        <v>3.4169999999999998</v>
+      </c>
+      <c r="H31">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="E32">
+        <v>1.383</v>
+      </c>
+      <c r="F32">
+        <v>12.27</v>
+      </c>
+      <c r="G32">
+        <v>3.4180000000000001</v>
+      </c>
+      <c r="H32">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8">
+      <c r="E33">
+        <v>1.296</v>
+      </c>
+      <c r="F33">
+        <v>12.31</v>
+      </c>
+      <c r="G33">
+        <v>3.4129999999999998</v>
+      </c>
+      <c r="H33">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8">
+      <c r="E34">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="F34">
+        <v>12.37</v>
+      </c>
+      <c r="G34">
+        <v>3.4079999999999999</v>
+      </c>
+      <c r="H34">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8">
+      <c r="E35">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="F35">
+        <v>12.42</v>
+      </c>
+      <c r="G35">
+        <v>3.403</v>
+      </c>
+      <c r="H35">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="E36">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="F36">
+        <v>12.77</v>
+      </c>
+      <c r="G36">
+        <v>3.399</v>
+      </c>
+      <c r="H36">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8">
+      <c r="E37">
+        <v>0.751</v>
+      </c>
+      <c r="F37">
+        <v>12.91</v>
+      </c>
+      <c r="G37">
+        <v>3.3940000000000001</v>
+      </c>
+      <c r="H37">
         <v>7.07</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>3.35</v>
-      </c>
-      <c r="B12">
-        <v>7.5</v>
-      </c>
-      <c r="C12">
-        <v>3.448</v>
-      </c>
-      <c r="D12">
-        <v>8.23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>3.319</v>
-      </c>
-      <c r="B13">
-        <v>8.07</v>
-      </c>
-      <c r="C13">
-        <v>3.419</v>
-      </c>
-      <c r="D13">
-        <v>9.4499999999999993</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>3.2879999999999998</v>
-      </c>
-      <c r="B14">
-        <v>8.82</v>
-      </c>
-      <c r="C14">
-        <v>3.391</v>
-      </c>
-      <c r="D14">
-        <v>10.48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>3.2570000000000001</v>
-      </c>
-      <c r="B15">
-        <v>10.24</v>
-      </c>
-      <c r="C15">
-        <v>3.34</v>
-      </c>
-      <c r="D15">
-        <v>12.13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>3.2290000000000001</v>
-      </c>
-      <c r="B16">
-        <v>11.83</v>
-      </c>
-      <c r="C16">
-        <v>3.2869999999999999</v>
-      </c>
-      <c r="D16">
-        <v>13.79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>3.2050000000000001</v>
-      </c>
-      <c r="B17">
-        <v>13.01</v>
-      </c>
-      <c r="C17">
-        <v>3.2240000000000002</v>
-      </c>
-      <c r="D17">
-        <v>15.38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>3.18</v>
-      </c>
-      <c r="B18">
-        <v>14.9</v>
-      </c>
-      <c r="C18">
-        <v>3.1019999999999999</v>
-      </c>
-      <c r="D18">
-        <v>17.670000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>3.1589999999999998</v>
-      </c>
-      <c r="B19">
-        <v>17.47</v>
-      </c>
-      <c r="C19">
-        <v>2.931</v>
-      </c>
-      <c r="D19">
-        <v>19.84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>3.133</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>2.7440000000000002</v>
-      </c>
-      <c r="D20">
-        <v>21.25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>3.11</v>
-      </c>
-      <c r="B21">
-        <v>22.1</v>
-      </c>
-      <c r="C21">
-        <v>2.3090000000000002</v>
-      </c>
-      <c r="D21">
-        <v>22.31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>3.0779999999999998</v>
-      </c>
-      <c r="B22">
-        <v>28.92</v>
-      </c>
-      <c r="C22">
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="D22">
-        <v>22.49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>3.048</v>
-      </c>
-      <c r="B23">
-        <v>40</v>
-      </c>
-      <c r="C23">
-        <v>1.03</v>
-      </c>
-      <c r="D23">
-        <v>26.09</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>2.8679999999999999</v>
-      </c>
-      <c r="B24">
-        <v>61.2</v>
-      </c>
-      <c r="C24">
-        <v>0.316</v>
-      </c>
-      <c r="D24">
-        <v>27.85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>1.875</v>
-      </c>
-      <c r="B25">
-        <v>74</v>
-      </c>
-      <c r="C25">
-        <v>6.2E-2</v>
-      </c>
-      <c r="D25">
-        <v>27.64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
-        <v>0.77</v>
-      </c>
-      <c r="B26">
-        <v>76.2</v>
-      </c>
-      <c r="C26">
-        <v>6.2E-2</v>
-      </c>
-      <c r="D26">
-        <v>27.44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
-        <v>0.245</v>
-      </c>
-      <c r="B27">
-        <v>76.900000000000006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>0.25700000000000001</v>
-      </c>
-      <c r="B28">
-        <v>77.400000000000006</v>
+    <row r="38" spans="5:8">
+      <c r="E38">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="F38">
+        <v>13.24</v>
+      </c>
+      <c r="G38">
+        <v>3.3879999999999999</v>
+      </c>
+      <c r="H38">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8">
+      <c r="E39">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="F39">
+        <v>13.4</v>
+      </c>
+      <c r="G39">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="H39">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8">
+      <c r="E40">
+        <v>0.2</v>
+      </c>
+      <c r="F40">
+        <v>13.49</v>
+      </c>
+      <c r="G40">
+        <v>3.3809999999999998</v>
+      </c>
+      <c r="H40">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8">
+      <c r="E41">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F41">
+        <v>13.56</v>
+      </c>
+      <c r="G41">
+        <v>3.3769999999999998</v>
+      </c>
+      <c r="H41">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8">
+      <c r="G42">
+        <v>3.3730000000000002</v>
+      </c>
+      <c r="H42">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8">
+      <c r="G43">
+        <v>3.3690000000000002</v>
+      </c>
+      <c r="H43">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8">
+      <c r="G44">
+        <v>3.3639999999999999</v>
+      </c>
+      <c r="H44">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8">
+      <c r="G45">
+        <v>3.3580000000000001</v>
+      </c>
+      <c r="H45">
+        <v>3.52</v>
       </c>
     </row>
   </sheetData>
@@ -6921,16 +11272,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E9BC25-24F3-D445-B436-0F9909050769}">
-  <dimension ref="A1:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F683438D-407C-7340-A346-3984ACC80838}">
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6940,7 +11291,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6953,8 +11304,471 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>3.843</v>
+      </c>
+      <c r="B3">
+        <v>4.03</v>
+      </c>
+      <c r="C3">
+        <v>3.55</v>
+      </c>
+      <c r="D3">
+        <v>3.72</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3">
+        <f>2.9*60</f>
+        <v>174</v>
+      </c>
+      <c r="R3">
+        <f>Q3/(A3*B28)</f>
+        <v>0.58497580419044382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>3.8050000000000002</v>
+      </c>
+      <c r="B4">
+        <v>3.99</v>
+      </c>
+      <c r="C4">
+        <v>3.5470000000000002</v>
+      </c>
+      <c r="D4">
+        <v>3.72</v>
+      </c>
+      <c r="P4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>3.74</v>
+      </c>
+      <c r="B5">
+        <v>4.25</v>
+      </c>
+      <c r="C5">
+        <v>3.54</v>
+      </c>
+      <c r="D5">
+        <v>4.04</v>
+      </c>
+      <c r="O5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5">
+        <f>3*20</f>
+        <v>60</v>
+      </c>
+      <c r="R5">
+        <f>Q5/(C3*D26)</f>
+        <v>0.61594054120642217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>3.657</v>
+      </c>
+      <c r="B6">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="C6">
+        <v>3.5289999999999999</v>
+      </c>
+      <c r="D6">
+        <v>4.47</v>
+      </c>
+      <c r="P6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>3.6019999999999999</v>
+      </c>
+      <c r="B7">
+        <v>4.67</v>
+      </c>
+      <c r="C7">
+        <v>3.5139999999999998</v>
+      </c>
+      <c r="D7">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>3.5470000000000002</v>
+      </c>
+      <c r="B8">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="C8">
+        <v>3.504</v>
+      </c>
+      <c r="D8">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>3.492</v>
+      </c>
+      <c r="B9">
+        <v>5.43</v>
+      </c>
+      <c r="C9">
+        <v>3.4940000000000002</v>
+      </c>
+      <c r="D9">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>3.44</v>
+      </c>
+      <c r="B10">
+        <v>5.77</v>
+      </c>
+      <c r="C10">
+        <v>3.4809999999999999</v>
+      </c>
+      <c r="D10">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>3.391</v>
+      </c>
+      <c r="B11">
+        <v>6.6</v>
+      </c>
+      <c r="C11">
+        <v>3.4729999999999999</v>
+      </c>
+      <c r="D11">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>3.35</v>
+      </c>
+      <c r="B12">
+        <v>7.5</v>
+      </c>
+      <c r="C12">
+        <v>3.448</v>
+      </c>
+      <c r="D12">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>3.319</v>
+      </c>
+      <c r="B13">
+        <v>8.07</v>
+      </c>
+      <c r="C13">
+        <v>3.419</v>
+      </c>
+      <c r="D13">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>3.2879999999999998</v>
+      </c>
+      <c r="B14">
+        <v>8.82</v>
+      </c>
+      <c r="C14">
+        <v>3.391</v>
+      </c>
+      <c r="D14">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>3.2570000000000001</v>
+      </c>
+      <c r="B15">
+        <v>10.24</v>
+      </c>
+      <c r="C15">
+        <v>3.34</v>
+      </c>
+      <c r="D15">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>3.2290000000000001</v>
+      </c>
+      <c r="B16">
+        <v>11.83</v>
+      </c>
+      <c r="C16">
+        <v>3.2869999999999999</v>
+      </c>
+      <c r="D16">
+        <v>13.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>3.2050000000000001</v>
+      </c>
+      <c r="B17">
+        <v>13.01</v>
+      </c>
+      <c r="C17">
+        <v>3.2240000000000002</v>
+      </c>
+      <c r="D17">
+        <v>15.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>3.18</v>
+      </c>
+      <c r="B18">
+        <v>14.9</v>
+      </c>
+      <c r="C18">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="D18">
+        <v>17.670000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>3.1589999999999998</v>
+      </c>
+      <c r="B19">
+        <v>17.47</v>
+      </c>
+      <c r="C19">
+        <v>2.931</v>
+      </c>
+      <c r="D19">
+        <v>19.84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>3.133</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>2.7440000000000002</v>
+      </c>
+      <c r="D20">
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>3.11</v>
+      </c>
+      <c r="B21">
+        <v>22.1</v>
+      </c>
+      <c r="C21">
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="D21">
+        <v>22.31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>3.0779999999999998</v>
+      </c>
+      <c r="B22">
+        <v>28.92</v>
+      </c>
+      <c r="C22">
+        <v>1.7450000000000001</v>
+      </c>
+      <c r="D22">
+        <v>22.49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>3.048</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>1.03</v>
+      </c>
+      <c r="D23">
+        <v>26.09</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>2.8679999999999999</v>
+      </c>
+      <c r="B24">
+        <v>61.2</v>
+      </c>
+      <c r="C24">
+        <v>0.316</v>
+      </c>
+      <c r="D24">
+        <v>27.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>1.875</v>
+      </c>
+      <c r="B25">
+        <v>74</v>
+      </c>
+      <c r="C25">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D25">
+        <v>27.64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>0.77</v>
+      </c>
+      <c r="B26">
+        <v>76.2</v>
+      </c>
+      <c r="C26">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D26">
+        <v>27.44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>0.245</v>
+      </c>
+      <c r="B27">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="B28">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E9BC25-24F3-D445-B436-0F9909050769}">
+  <dimension ref="A1:R43"/>
+  <sheetViews>
+    <sheetView topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="1"/>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>3.9009999999999998</v>
       </c>
@@ -6967,8 +11781,34 @@
       <c r="D3">
         <v>3.91</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>3.302</v>
+      </c>
+      <c r="F3">
+        <v>3.45</v>
+      </c>
+      <c r="G3">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="H3">
+        <v>70.3</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <f>2.7*65</f>
+        <v>175.5</v>
+      </c>
+      <c r="R3">
+        <f>Q3/(A3*B24)</f>
+        <v>0.54137743076152833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3.871</v>
       </c>
@@ -6981,8 +11821,24 @@
       <c r="D4">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>3.2890000000000001</v>
+      </c>
+      <c r="F4">
+        <v>3.44</v>
+      </c>
+      <c r="G4">
+        <v>0.442</v>
+      </c>
+      <c r="H4">
+        <v>70.5</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>3.8380000000000001</v>
       </c>
@@ -6995,8 +11851,34 @@
       <c r="D5">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>3.27</v>
+      </c>
+      <c r="F5">
+        <v>3.59</v>
+      </c>
+      <c r="G5">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="H5">
+        <v>68.2</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <f>3.1*28</f>
+        <v>86.8</v>
+      </c>
+      <c r="R5">
+        <f>Q5/(C3*D21)</f>
+        <v>0.68909616463999879</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>3.81</v>
       </c>
@@ -7009,8 +11891,24 @@
       <c r="D6">
         <v>4.42</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>3.2309999999999999</v>
+      </c>
+      <c r="F6">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="G6">
+        <v>2.081</v>
+      </c>
+      <c r="H6">
+        <v>68.2</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>3.778</v>
       </c>
@@ -7023,8 +11921,20 @@
       <c r="D7">
         <v>4.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>3.1869999999999998</v>
+      </c>
+      <c r="F7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G7">
+        <v>2.8650000000000002</v>
+      </c>
+      <c r="H7">
+        <v>62.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>3.7490000000000001</v>
       </c>
@@ -7037,8 +11947,20 @@
       <c r="D8">
         <v>5.42</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>3.1549999999999998</v>
+      </c>
+      <c r="F8">
+        <v>5.01</v>
+      </c>
+      <c r="G8">
+        <v>3.0430000000000001</v>
+      </c>
+      <c r="H8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>3.7170000000000001</v>
       </c>
@@ -7051,8 +11973,20 @@
       <c r="D9">
         <v>6.29</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>3.125</v>
+      </c>
+      <c r="F9">
+        <v>5.37</v>
+      </c>
+      <c r="G9">
+        <v>3.1920000000000002</v>
+      </c>
+      <c r="H9">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>3.6850000000000001</v>
       </c>
@@ -7065,8 +11999,20 @@
       <c r="D10">
         <v>7.97</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>3.0910000000000002</v>
+      </c>
+      <c r="F10">
+        <v>5.75</v>
+      </c>
+      <c r="G10">
+        <v>3.2029999999999998</v>
+      </c>
+      <c r="H10">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>3.6549999999999998</v>
       </c>
@@ -7079,8 +12025,20 @@
       <c r="D11">
         <v>10.41</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>3.0390000000000001</v>
+      </c>
+      <c r="F11">
+        <v>6.39</v>
+      </c>
+      <c r="G11">
+        <v>3.2639999999999998</v>
+      </c>
+      <c r="H11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>3.6219999999999999</v>
       </c>
@@ -7093,8 +12051,20 @@
       <c r="D12">
         <v>13.06</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>2.98</v>
+      </c>
+      <c r="F12">
+        <v>7.09</v>
+      </c>
+      <c r="G12">
+        <v>3.25</v>
+      </c>
+      <c r="H12">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>3.597</v>
       </c>
@@ -7107,8 +12077,20 @@
       <c r="D13">
         <v>16.440000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>2.9039999999999999</v>
+      </c>
+      <c r="F13">
+        <v>7.84</v>
+      </c>
+      <c r="G13">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="H13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>3.5569999999999999</v>
       </c>
@@ -7121,8 +12103,20 @@
       <c r="D14">
         <v>24.73</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>2.8260000000000001</v>
+      </c>
+      <c r="F14">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="G14">
+        <v>3.2949999999999999</v>
+      </c>
+      <c r="H14">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>3.516</v>
       </c>
@@ -7135,8 +12129,20 @@
       <c r="D15">
         <v>29.28</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>2.7280000000000002</v>
+      </c>
+      <c r="F15">
+        <v>9.32</v>
+      </c>
+      <c r="G15">
+        <v>3.3530000000000002</v>
+      </c>
+      <c r="H15">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>3.456</v>
       </c>
@@ -7149,8 +12155,20 @@
       <c r="D16">
         <v>32.51</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>2.5830000000000002</v>
+      </c>
+      <c r="F16">
+        <v>10.19</v>
+      </c>
+      <c r="G16">
+        <v>3.359</v>
+      </c>
+      <c r="H16">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>3.387</v>
       </c>
@@ -7163,8 +12181,20 @@
       <c r="D17">
         <v>33.49</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>2.4670000000000001</v>
+      </c>
+      <c r="F17">
+        <v>10.74</v>
+      </c>
+      <c r="G17">
+        <v>3.4049999999999998</v>
+      </c>
+      <c r="H17">
+        <v>30.97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>2.923</v>
       </c>
@@ -7177,8 +12207,20 @@
       <c r="D18">
         <v>33.619999999999997</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>2.2269999999999999</v>
+      </c>
+      <c r="F18">
+        <v>11.57</v>
+      </c>
+      <c r="G18">
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="H18">
+        <v>27.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>2.036</v>
       </c>
@@ -7191,8 +12233,20 @@
       <c r="D19">
         <v>33.659999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>2.1030000000000002</v>
+      </c>
+      <c r="F19">
+        <v>11.88</v>
+      </c>
+      <c r="G19">
+        <v>3.44</v>
+      </c>
+      <c r="H19">
+        <v>25.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2.0190000000000001</v>
       </c>
@@ -7205,8 +12259,20 @@
       <c r="D20">
         <v>33.72</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>2.008</v>
+      </c>
+      <c r="F20">
+        <v>12.06</v>
+      </c>
+      <c r="G20">
+        <v>3.4550000000000001</v>
+      </c>
+      <c r="H20">
+        <v>22.51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>1.3660000000000001</v>
       </c>
@@ -7219,29 +12285,289 @@
       <c r="D21">
         <v>33.770000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>1.8340000000000001</v>
+      </c>
+      <c r="F21">
+        <v>12.3</v>
+      </c>
+      <c r="G21">
+        <v>3.472</v>
+      </c>
+      <c r="H21">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>0.252</v>
       </c>
       <c r="B22">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>1.71</v>
+      </c>
+      <c r="F22">
+        <v>12.42</v>
+      </c>
+      <c r="G22">
+        <v>3.4870000000000001</v>
+      </c>
+      <c r="H22">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>0.249</v>
       </c>
       <c r="B23">
         <v>82.7</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>1.6259999999999999</v>
+      </c>
+      <c r="F23">
+        <v>12.47</v>
+      </c>
+      <c r="G23">
+        <v>3.4860000000000002</v>
+      </c>
+      <c r="H23">
+        <v>15.29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>0.23699999999999999</v>
       </c>
       <c r="B24">
         <v>83.1</v>
+      </c>
+      <c r="E24">
+        <v>1.446</v>
+      </c>
+      <c r="F24">
+        <v>12.51</v>
+      </c>
+      <c r="G24">
+        <v>3.4889999999999999</v>
+      </c>
+      <c r="H24">
+        <v>13.97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="E25">
+        <v>1.444</v>
+      </c>
+      <c r="F25">
+        <v>12.51</v>
+      </c>
+      <c r="G25">
+        <v>3.4950000000000001</v>
+      </c>
+      <c r="H25">
+        <v>11.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="E26">
+        <v>1.373</v>
+      </c>
+      <c r="F26">
+        <v>12.53</v>
+      </c>
+      <c r="G26">
+        <v>3.492</v>
+      </c>
+      <c r="H26">
+        <v>11.29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="E27">
+        <v>1.175</v>
+      </c>
+      <c r="F27">
+        <v>12.56</v>
+      </c>
+      <c r="G27">
+        <v>3.4910000000000001</v>
+      </c>
+      <c r="H27">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="E28">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F28">
+        <v>12.64</v>
+      </c>
+      <c r="G28">
+        <v>3.4889999999999999</v>
+      </c>
+      <c r="H28">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="E29">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="F29">
+        <v>12.75</v>
+      </c>
+      <c r="G29">
+        <v>3.4889999999999999</v>
+      </c>
+      <c r="H29">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="E30">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="F30">
+        <v>12.94</v>
+      </c>
+      <c r="G30">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="H30">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="E31">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="F31">
+        <v>13.06</v>
+      </c>
+      <c r="G31">
+        <v>3.4809999999999999</v>
+      </c>
+      <c r="H31">
+        <v>6.98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="E32">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="F32">
+        <v>13.08</v>
+      </c>
+      <c r="G32">
+        <v>3.476</v>
+      </c>
+      <c r="H32">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8">
+      <c r="E33">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F33">
+        <v>13.13</v>
+      </c>
+      <c r="G33">
+        <v>3.4710000000000001</v>
+      </c>
+      <c r="H33">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8">
+      <c r="E34">
+        <v>0.03</v>
+      </c>
+      <c r="F34">
+        <v>13.13</v>
+      </c>
+      <c r="G34">
+        <v>3.4670000000000001</v>
+      </c>
+      <c r="H34">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8">
+      <c r="G35">
+        <v>3.4620000000000002</v>
+      </c>
+      <c r="H35">
+        <v>5.59</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8">
+      <c r="G36">
+        <v>3.4590000000000001</v>
+      </c>
+      <c r="H36">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8">
+      <c r="G37">
+        <v>3.4529999999999998</v>
+      </c>
+      <c r="H37">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8">
+      <c r="G38">
+        <v>3.448</v>
+      </c>
+      <c r="H38">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8">
+      <c r="G39">
+        <v>3.4430000000000001</v>
+      </c>
+      <c r="H39">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8">
+      <c r="G40">
+        <v>3.4390000000000001</v>
+      </c>
+      <c r="H40">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8">
+      <c r="G41">
+        <v>3.4329999999999998</v>
+      </c>
+      <c r="H41">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8">
+      <c r="G42">
+        <v>3.4239999999999999</v>
+      </c>
+      <c r="H42">
+        <v>3.73</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8">
+      <c r="G43">
+        <v>3.419</v>
+      </c>
+      <c r="H43">
+        <v>3.58</v>
       </c>
     </row>
   </sheetData>

--- a/solariv.xlsx
+++ b/solariv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Katie/Documents/winter 2020/aa 236/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1467E016-0236-4E46-80DE-47D07D1302CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59697A26-8FDC-9444-8B4C-C15424E8CA94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="22920" windowHeight="14220" xr2:uid="{27B36DB9-51A1-AA4A-8D2C-F1920E341D65}"/>
+    <workbookView xWindow="1820" yWindow="460" windowWidth="23380" windowHeight="14220" xr2:uid="{27B36DB9-51A1-AA4A-8D2C-F1920E341D65}"/>
   </bookViews>
   <sheets>
     <sheet name="Single Cell" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
   <si>
     <t>Voltage (V)</t>
   </si>
@@ -120,13 +120,19 @@
   <si>
     <t>mA</t>
   </si>
+  <si>
+    <t>Halogen (150 W)</t>
+  </si>
+  <si>
+    <t>Halogen (600 W)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -167,7 +173,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1288,6 +1294,729 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-CBED-E84C-BBDB-BA1052C5A5F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Halogen Lamp (150 W)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$K$3:$K$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>1.8740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.823</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.746</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.732</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.694</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.673</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.653</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.589</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.569</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.482</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.345</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.198</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.871</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.58299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.54200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.502</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.40500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.218</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.191</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$L$3:$L$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.62</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.32</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.09</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.1199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.4700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.53</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.84</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.18</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.37</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.41</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.41</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11.42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.43</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A33-3547-BBE5-AEBD418058EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Halogen Lamp (600 W)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$M$3:$M$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2.109</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.792</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.629</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.423</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.393</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.302</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.85699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$N$3:$N$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.69</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.74</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.71</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.69</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24.36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.409999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>49.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0A33-3547-BBE5-AEBD418058EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Halogen Lamp (600 W)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$O$3:$O$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.274</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.292</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.482</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.456</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.431</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.405</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.3939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.385</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.3660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.355</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.347</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.341</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.335</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.325</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3180000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$P$3:$P$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.98</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.34</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.73</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0A33-3547-BBE5-AEBD418058EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8521,16 +9250,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9019,18 +9748,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1500A12-A21D-A64D-BED6-2F488BF871D9}">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -9048,27 +9778,41 @@
         <v>20</v>
       </c>
       <c r="J1" s="1"/>
-      <c r="O1" t="s">
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1"/>
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="P1">
+      <c r="T1">
         <f>I17*J17</f>
         <v>26.102650000000004</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>23</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>25</v>
       </c>
-      <c r="S1">
+      <c r="W1">
         <v>30.7</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="Y1">
+        <f>T1/W1</f>
+        <v>0.85024918566775265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9099,18 +9843,36 @@
       <c r="J2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="2">
-        <f>P1/(I3*J26)</f>
+      <c r="T2" s="2">
+        <f>T1/(I3*J26)</f>
         <v>0.64087083786214438</v>
       </c>
-      <c r="S2">
+      <c r="W2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>1.82</v>
       </c>
@@ -9141,23 +9903,41 @@
       <c r="J3">
         <v>2.04</v>
       </c>
-      <c r="O3" t="s">
+      <c r="K3">
+        <v>1.8740000000000001</v>
+      </c>
+      <c r="L3">
+        <v>1.95</v>
+      </c>
+      <c r="M3">
+        <v>2.109</v>
+      </c>
+      <c r="N3">
+        <v>2.21</v>
+      </c>
+      <c r="O3">
+        <v>0.121</v>
+      </c>
+      <c r="P3">
+        <v>50.8</v>
+      </c>
+      <c r="S3" t="s">
         <v>26</v>
       </c>
-      <c r="P3">
+      <c r="T3">
         <v>1.4350000000000001</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="U3" t="s">
         <v>28</v>
       </c>
-      <c r="S3">
+      <c r="W3">
         <v>1.67</v>
       </c>
-      <c r="T3" t="s">
+      <c r="X3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>1.806</v>
       </c>
@@ -9188,23 +9968,41 @@
       <c r="J4">
         <v>2.3199999999999998</v>
       </c>
-      <c r="O4" t="s">
+      <c r="K4">
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="L4">
+        <v>2.09</v>
+      </c>
+      <c r="M4">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="N4">
+        <v>2.16</v>
+      </c>
+      <c r="O4">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="P4">
+        <v>50.8</v>
+      </c>
+      <c r="S4" t="s">
         <v>27</v>
       </c>
-      <c r="P4">
+      <c r="T4">
         <v>18.190000000000001</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="U4" t="s">
         <v>29</v>
       </c>
-      <c r="S4">
+      <c r="W4">
         <v>18.399999999999999</v>
       </c>
-      <c r="T4" t="s">
+      <c r="X4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>1.7909999999999999</v>
       </c>
@@ -9235,8 +10033,26 @@
       <c r="J5">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="K5">
+        <v>1.823</v>
+      </c>
+      <c r="L5">
+        <v>2.41</v>
+      </c>
+      <c r="M5">
+        <v>1.9750000000000001</v>
+      </c>
+      <c r="N5">
+        <v>2.11</v>
+      </c>
+      <c r="O5">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="P5">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>1.778</v>
       </c>
@@ -9267,8 +10083,26 @@
       <c r="J6">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="K6">
+        <v>1.8029999999999999</v>
+      </c>
+      <c r="L6">
+        <v>2.72</v>
+      </c>
+      <c r="M6">
+        <v>1.925</v>
+      </c>
+      <c r="N6">
+        <v>2.12</v>
+      </c>
+      <c r="O6">
+        <v>0.875</v>
+      </c>
+      <c r="P6">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7">
         <v>1.7649999999999999</v>
       </c>
@@ -9299,8 +10133,26 @@
       <c r="J7">
         <v>3.56</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="K7">
+        <v>1.778</v>
+      </c>
+      <c r="L7">
+        <v>3.3</v>
+      </c>
+      <c r="M7">
+        <v>1.871</v>
+      </c>
+      <c r="N7">
+        <v>2.14</v>
+      </c>
+      <c r="O7">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="P7">
+        <v>50.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8">
         <v>1.752</v>
       </c>
@@ -9331,8 +10183,26 @@
       <c r="J8">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="K8">
+        <v>1.76</v>
+      </c>
+      <c r="L8">
+        <v>3.56</v>
+      </c>
+      <c r="M8">
+        <v>1.8340000000000001</v>
+      </c>
+      <c r="N8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O8">
+        <v>1.145</v>
+      </c>
+      <c r="P8">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9">
         <v>1.7370000000000001</v>
       </c>
@@ -9363,8 +10233,26 @@
       <c r="J9">
         <v>4.88</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="K9">
+        <v>1.746</v>
+      </c>
+      <c r="L9">
+        <v>3.8</v>
+      </c>
+      <c r="M9">
+        <v>1.792</v>
+      </c>
+      <c r="N9">
+        <v>2.25</v>
+      </c>
+      <c r="O9">
+        <v>1.274</v>
+      </c>
+      <c r="P9">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10">
         <v>1.722</v>
       </c>
@@ -9395,8 +10283,26 @@
       <c r="J10">
         <v>5.85</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="K10">
+        <v>1.732</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="N10">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O10">
+        <v>1.292</v>
+      </c>
+      <c r="P10">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11">
         <v>1.706</v>
       </c>
@@ -9427,8 +10333,26 @@
       <c r="J11">
         <v>6.95</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="K11">
+        <v>1.7150000000000001</v>
+      </c>
+      <c r="L11">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="M11">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="N11">
+        <v>2.42</v>
+      </c>
+      <c r="O11">
+        <v>1.45</v>
+      </c>
+      <c r="P11">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12">
         <v>1.6859999999999999</v>
       </c>
@@ -9459,8 +10383,26 @@
       <c r="J12">
         <v>8.41</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="K12">
+        <v>1.694</v>
+      </c>
+      <c r="L12">
+        <v>4.75</v>
+      </c>
+      <c r="M12">
+        <v>1.6719999999999999</v>
+      </c>
+      <c r="N12">
+        <v>2.66</v>
+      </c>
+      <c r="O12">
+        <v>1.4970000000000001</v>
+      </c>
+      <c r="P12">
+        <v>24.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13">
         <v>1.6679999999999999</v>
       </c>
@@ -9491,8 +10433,26 @@
       <c r="J13">
         <v>9.61</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="K13">
+        <v>1.673</v>
+      </c>
+      <c r="L13">
+        <v>5.13</v>
+      </c>
+      <c r="M13">
+        <v>1.629</v>
+      </c>
+      <c r="N13">
+        <v>3.25</v>
+      </c>
+      <c r="O13">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="P13">
+        <v>19.079999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14">
         <v>1.651</v>
       </c>
@@ -9523,8 +10483,26 @@
       <c r="J14">
         <v>11.35</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="K14">
+        <v>1.653</v>
+      </c>
+      <c r="L14">
+        <v>5.62</v>
+      </c>
+      <c r="M14">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="N14">
+        <v>3.61</v>
+      </c>
+      <c r="O14">
+        <v>1.4930000000000001</v>
+      </c>
+      <c r="P14">
+        <v>16.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15">
         <v>1.623</v>
       </c>
@@ -9555,8 +10533,26 @@
       <c r="J15">
         <v>12.97</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="K15">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="L15">
+        <v>6.32</v>
+      </c>
+      <c r="M15">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="N15">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="O15">
+        <v>1.482</v>
+      </c>
+      <c r="P15">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16">
         <v>1.583</v>
       </c>
@@ -9587,8 +10583,26 @@
       <c r="J16">
         <v>16.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>1.589</v>
+      </c>
+      <c r="L16">
+        <v>7.09</v>
+      </c>
+      <c r="M16">
+        <v>1.55</v>
+      </c>
+      <c r="N16">
+        <v>4.78</v>
+      </c>
+      <c r="O16">
+        <v>1.4850000000000001</v>
+      </c>
+      <c r="P16">
+        <v>8.98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17">
         <v>1.55</v>
       </c>
@@ -9613,8 +10627,26 @@
       <c r="J17">
         <v>18.190000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>1.569</v>
+      </c>
+      <c r="L17">
+        <v>7.44</v>
+      </c>
+      <c r="M17">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="N17">
+        <v>5.69</v>
+      </c>
+      <c r="O17">
+        <v>1.4690000000000001</v>
+      </c>
+      <c r="P17">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18">
         <v>1.4990000000000001</v>
       </c>
@@ -9639,8 +10671,26 @@
       <c r="J18">
         <v>19.7</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>1.5309999999999999</v>
+      </c>
+      <c r="L18">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="M18">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="N18">
+        <v>6.3</v>
+      </c>
+      <c r="O18">
+        <v>1.456</v>
+      </c>
+      <c r="P18">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19">
         <v>1.38</v>
       </c>
@@ -9665,8 +10715,26 @@
       <c r="J19">
         <v>20.13</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>1.482</v>
+      </c>
+      <c r="L19">
+        <v>8.89</v>
+      </c>
+      <c r="M19">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="N19">
+        <v>7.74</v>
+      </c>
+      <c r="O19">
+        <v>1.4419999999999999</v>
+      </c>
+      <c r="P19">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20">
         <v>1.272</v>
       </c>
@@ -9691,8 +10759,26 @@
       <c r="J20">
         <v>20.37</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="L20">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="M20">
+        <v>1.45</v>
+      </c>
+      <c r="N20">
+        <v>9.74</v>
+      </c>
+      <c r="O20">
+        <v>1.431</v>
+      </c>
+      <c r="P20">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21">
         <v>0.89200000000000002</v>
       </c>
@@ -9717,8 +10803,26 @@
       <c r="J21">
         <v>20.54</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>1.345</v>
+      </c>
+      <c r="L21">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="M21">
+        <v>1.423</v>
+      </c>
+      <c r="N21">
+        <v>11.71</v>
+      </c>
+      <c r="O21">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="P21">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22">
         <v>0.499</v>
       </c>
@@ -9743,8 +10847,26 @@
       <c r="J22">
         <v>20.59</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>1.2709999999999999</v>
+      </c>
+      <c r="L22">
+        <v>10.53</v>
+      </c>
+      <c r="M22">
+        <v>1.393</v>
+      </c>
+      <c r="N22">
+        <v>14.69</v>
+      </c>
+      <c r="O22">
+        <v>1.405</v>
+      </c>
+      <c r="P22">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23">
         <v>4.8000000000000001E-2</v>
       </c>
@@ -9769,8 +10891,26 @@
       <c r="J23">
         <v>20.57</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>1.198</v>
+      </c>
+      <c r="L23">
+        <v>10.84</v>
+      </c>
+      <c r="M23">
+        <v>1.3620000000000001</v>
+      </c>
+      <c r="N23">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="O23">
+        <v>1.3939999999999999</v>
+      </c>
+      <c r="P23">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24">
         <v>4.5999999999999999E-2</v>
       </c>
@@ -9795,8 +10935,26 @@
       <c r="J24">
         <v>20.71</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="L24">
+        <v>11.18</v>
+      </c>
+      <c r="M24">
+        <v>1.302</v>
+      </c>
+      <c r="N24">
+        <v>24.36</v>
+      </c>
+      <c r="O24">
+        <v>1.385</v>
+      </c>
+      <c r="P24">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="E25">
         <v>0.78900000000000003</v>
       </c>
@@ -9815,8 +10973,26 @@
       <c r="J25">
         <v>20.73</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="L25">
+        <v>11.28</v>
+      </c>
+      <c r="M25">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="N25">
+        <v>33.409999999999997</v>
+      </c>
+      <c r="O25">
+        <v>1.375</v>
+      </c>
+      <c r="P25">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="E26">
         <v>0.59799999999999998</v>
       </c>
@@ -9835,8 +11011,26 @@
       <c r="J26">
         <v>20.77</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="L26">
+        <v>11.29</v>
+      </c>
+      <c r="M26">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="N26">
+        <v>49.3</v>
+      </c>
+      <c r="O26">
+        <v>1.3660000000000001</v>
+      </c>
+      <c r="P26">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="E27">
         <v>0.55500000000000005</v>
       </c>
@@ -9849,8 +11043,26 @@
       <c r="H27">
         <v>5.81</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="L27">
+        <v>11.3</v>
+      </c>
+      <c r="M27">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="N27">
+        <v>55</v>
+      </c>
+      <c r="O27">
+        <v>1.355</v>
+      </c>
+      <c r="P27">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="E28">
         <v>0.38700000000000001</v>
       </c>
@@ -9863,8 +11075,26 @@
       <c r="H28">
         <v>5.26</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0.871</v>
+      </c>
+      <c r="L28">
+        <v>11.33</v>
+      </c>
+      <c r="M28">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="N28">
+        <v>54.9</v>
+      </c>
+      <c r="O28">
+        <v>1.347</v>
+      </c>
+      <c r="P28">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="E29">
         <v>0.28499999999999998</v>
       </c>
@@ -9877,8 +11107,20 @@
       <c r="H29">
         <v>4.6100000000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="L29">
+        <v>11.37</v>
+      </c>
+      <c r="O29">
+        <v>1.341</v>
+      </c>
+      <c r="P29">
+        <v>1.93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="E30">
         <v>0.187</v>
       </c>
@@ -9891,8 +11133,20 @@
       <c r="H30">
         <v>4.17</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="L30">
+        <v>11.4</v>
+      </c>
+      <c r="O30">
+        <v>1.335</v>
+      </c>
+      <c r="P30">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="E31">
         <v>0.10299999999999999</v>
       </c>
@@ -9905,8 +11159,20 @@
       <c r="H31">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="L31">
+        <v>11.41</v>
+      </c>
+      <c r="O31">
+        <v>1.33</v>
+      </c>
+      <c r="P31">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="E32">
         <v>3.1E-2</v>
       </c>
@@ -9919,8 +11185,20 @@
       <c r="H32">
         <v>3.12</v>
       </c>
-    </row>
-    <row r="33" spans="5:8">
+      <c r="K32">
+        <v>0.502</v>
+      </c>
+      <c r="L32">
+        <v>11.41</v>
+      </c>
+      <c r="O32">
+        <v>1.325</v>
+      </c>
+      <c r="P32">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="33" spans="5:16">
       <c r="E33">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -9933,32 +11211,62 @@
       <c r="H33">
         <v>2.76</v>
       </c>
-    </row>
-    <row r="34" spans="5:8">
+      <c r="K33">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="L33">
+        <v>11.42</v>
+      </c>
+      <c r="O33">
+        <v>1.3180000000000001</v>
+      </c>
+      <c r="P33">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="34" spans="5:16">
       <c r="G34">
         <v>1.718</v>
       </c>
       <c r="H34">
         <v>2.56</v>
       </c>
-    </row>
-    <row r="35" spans="5:8">
+      <c r="K34">
+        <v>0.218</v>
+      </c>
+      <c r="L34">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="35" spans="5:16">
       <c r="G35">
         <v>1.7170000000000001</v>
       </c>
       <c r="H35">
         <v>2.17</v>
       </c>
-    </row>
-    <row r="36" spans="5:8">
+      <c r="K35">
+        <v>0.191</v>
+      </c>
+      <c r="L35">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="36" spans="5:16">
       <c r="G36">
         <v>1.716</v>
       </c>
       <c r="H36">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="37" spans="5:8">
+      <c r="K36">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L36">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="37" spans="5:16">
       <c r="G37">
         <v>1.714</v>
       </c>
@@ -10296,7 +11604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227491E2-4243-FE44-ACAF-7DA0D3D74BD1}">
   <dimension ref="A1:R45"/>
   <sheetViews>
-    <sheetView topLeftCell="F6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>

--- a/solariv.xlsx
+++ b/solariv.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Katie/Documents/winter 2020/aa 236/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zchen\OneDrive - Leland Stanford Junior University\AA236A\solar-characterization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59697A26-8FDC-9444-8B4C-C15424E8CA94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{59697A26-8FDC-9444-8B4C-C15424E8CA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C9BCD7BF-B104-4B3B-9C13-679ADBA32CAA}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="460" windowWidth="23380" windowHeight="14220" xr2:uid="{27B36DB9-51A1-AA4A-8D2C-F1920E341D65}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{27B36DB9-51A1-AA4A-8D2C-F1920E341D65}"/>
   </bookViews>
   <sheets>
     <sheet name="Single Cell" sheetId="1" r:id="rId1"/>
-    <sheet name="-Y" sheetId="5" r:id="rId2"/>
+    <sheet name="-Y" sheetId="7" r:id="rId2"/>
     <sheet name="X" sheetId="2" r:id="rId3"/>
     <sheet name="+Y" sheetId="3" r:id="rId4"/>
     <sheet name="Z" sheetId="4" r:id="rId5"/>
@@ -24,12 +24,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
   <si>
     <t>Voltage (V)</t>
   </si>
@@ -126,27 +134,38 @@
   <si>
     <t>Halogen (600 W)</t>
   </si>
+  <si>
+    <t>Indoor (filter)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -173,10 +192,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -194,7 +213,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -256,7 +275,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2103,7 +2122,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2141,7 +2160,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1012799744"/>
@@ -2225,7 +2244,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2263,7 +2282,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1012208512"/>
@@ -2305,7 +2324,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2342,7 +2361,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2356,7 +2375,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2418,7 +2437,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2433,11 +2452,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'-Y'!$B$2</c:f>
+              <c:f>'-Y'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Current (mA)</c:v>
+                  <c:v>Indoor (w/ filter)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2703,7 +2722,262 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D55C-E447-BE45-B73B6D19350F}"/>
+              <c16:uniqueId val="{00000000-AD3D-4CAA-B05A-F7E49FB54B79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'-Y'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Indoor (filter)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'-Y'!$C$3:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.452</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.319</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2959999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.851</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.633</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.411</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.331</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.246</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'-Y'!$D$3:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.87</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.09</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.58</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.51</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD3D-4CAA-B05A-F7E49FB54B79}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2773,7 +3047,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="81873743"/>
@@ -2852,7 +3126,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2890,7 +3164,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="83311791"/>
@@ -2905,6 +3179,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2938,7 +3243,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2952,7 +3257,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3014,7 +3319,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4101,7 +4406,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4139,7 +4444,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="972957904"/>
@@ -4218,7 +4523,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4256,7 +4561,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="972583664"/>
@@ -4298,7 +4603,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4335,7 +4640,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4349,7 +4654,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4411,7 +4716,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4914,7 +5219,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4952,7 +5257,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1012997056"/>
@@ -5031,7 +5336,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5069,7 +5374,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1014642928"/>
@@ -5111,7 +5416,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5148,7 +5453,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5162,7 +5467,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5224,7 +5529,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6221,7 +6526,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6259,7 +6564,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="972498512"/>
@@ -6338,7 +6643,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6376,7 +6681,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1023635088"/>
@@ -6418,7 +6723,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6455,7 +6760,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9291,27 +9596,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>186044</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>61717</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F5EB9F-0DCF-A74A-A1D8-77631798ED7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C58C6E1-26CE-4B50-871F-E7BB1743213D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9452,7 +9759,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9750,17 +10057,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1500A12-A21D-A64D-BED6-2F488BF871D9}">
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="P7" workbookViewId="0">
       <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -9812,7 +10119,7 @@
         <v>0.85024918566775265</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -9872,7 +10179,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.82</v>
       </c>
@@ -9937,7 +10244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.806</v>
       </c>
@@ -10002,7 +10309,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.7909999999999999</v>
       </c>
@@ -10052,7 +10359,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.778</v>
       </c>
@@ -10102,7 +10409,7 @@
         <v>51.3</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.7649999999999999</v>
       </c>
@@ -10152,7 +10459,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.752</v>
       </c>
@@ -10202,7 +10509,7 @@
         <v>48.8</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1.7370000000000001</v>
       </c>
@@ -10252,7 +10559,7 @@
         <v>45.4</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1.722</v>
       </c>
@@ -10302,7 +10609,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1.706</v>
       </c>
@@ -10352,7 +10659,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.6859999999999999</v>
       </c>
@@ -10402,7 +10709,7 @@
         <v>24.42</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.6679999999999999</v>
       </c>
@@ -10452,7 +10759,7 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.651</v>
       </c>
@@ -10502,7 +10809,7 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.623</v>
       </c>
@@ -10552,7 +10859,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.583</v>
       </c>
@@ -10602,7 +10909,7 @@
         <v>8.98</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.55</v>
       </c>
@@ -10646,7 +10953,7 @@
         <v>7.86</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.4990000000000001</v>
       </c>
@@ -10690,7 +10997,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.38</v>
       </c>
@@ -10734,7 +11041,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.272</v>
       </c>
@@ -10778,7 +11085,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.89200000000000002</v>
       </c>
@@ -10822,7 +11129,7 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.499</v>
       </c>
@@ -10866,7 +11173,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4.8000000000000001E-2</v>
       </c>
@@ -10910,7 +11217,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4.5999999999999999E-2</v>
       </c>
@@ -10954,7 +11261,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E25">
         <v>0.78900000000000003</v>
       </c>
@@ -10992,7 +11299,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E26">
         <v>0.59799999999999998</v>
       </c>
@@ -11030,7 +11337,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E27">
         <v>0.55500000000000005</v>
       </c>
@@ -11062,7 +11369,7 @@
         <v>2.42</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E28">
         <v>0.38700000000000001</v>
       </c>
@@ -11094,7 +11401,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E29">
         <v>0.28499999999999998</v>
       </c>
@@ -11120,7 +11427,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E30">
         <v>0.187</v>
       </c>
@@ -11146,7 +11453,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E31">
         <v>0.10299999999999999</v>
       </c>
@@ -11172,7 +11479,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E32">
         <v>3.1E-2</v>
       </c>
@@ -11198,7 +11505,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="33" spans="5:16">
+    <row r="33" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E33">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -11224,7 +11531,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="34" spans="5:16">
+    <row r="34" spans="5:16" x14ac:dyDescent="0.35">
       <c r="G34">
         <v>1.718</v>
       </c>
@@ -11238,7 +11545,7 @@
         <v>11.42</v>
       </c>
     </row>
-    <row r="35" spans="5:16">
+    <row r="35" spans="5:16" x14ac:dyDescent="0.35">
       <c r="G35">
         <v>1.7170000000000001</v>
       </c>
@@ -11252,7 +11559,7 @@
         <v>11.43</v>
       </c>
     </row>
-    <row r="36" spans="5:16">
+    <row r="36" spans="5:16" x14ac:dyDescent="0.35">
       <c r="G36">
         <v>1.716</v>
       </c>
@@ -11266,7 +11573,7 @@
         <v>11.44</v>
       </c>
     </row>
-    <row r="37" spans="5:16">
+    <row r="37" spans="5:16" x14ac:dyDescent="0.35">
       <c r="G37">
         <v>1.714</v>
       </c>
@@ -11275,294 +11582,496 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C3:D16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:D16">
     <sortCondition descending="1" ref="C3"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC01E281-677C-4248-8880-C2A0157AB7EF}">
-  <dimension ref="A1:B38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BB7D24-8695-4787-9E53-190EF6436A1F}">
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2.548</v>
       </c>
       <c r="B3">
         <v>2.65</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>3.48</v>
+      </c>
+      <c r="D3">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2.5499999999999998</v>
       </c>
       <c r="B4">
         <v>2.66</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>3.452</v>
+      </c>
+      <c r="D4">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2.504</v>
       </c>
       <c r="B5">
         <v>2.66</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>3.4380000000000002</v>
+      </c>
+      <c r="D5">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2.4279999999999999</v>
       </c>
       <c r="B6">
         <v>2.69</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>3.419</v>
+      </c>
+      <c r="D6">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2.3519999999999999</v>
       </c>
       <c r="B7">
         <v>2.71</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>3.4009999999999998</v>
+      </c>
+      <c r="D7">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2.3010000000000002</v>
       </c>
       <c r="B8">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>3.3820000000000001</v>
+      </c>
+      <c r="D8">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2.214</v>
       </c>
       <c r="B9">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>3.3639999999999999</v>
+      </c>
+      <c r="D9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2.0619999999999998</v>
       </c>
       <c r="B10">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>3.3420000000000001</v>
+      </c>
+      <c r="D10">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1.9530000000000001</v>
       </c>
       <c r="B11">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>3.319</v>
+      </c>
+      <c r="D11">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.903</v>
       </c>
       <c r="B12">
         <v>2.73</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>3.2959999999999998</v>
+      </c>
+      <c r="D12">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.8560000000000001</v>
       </c>
       <c r="B13">
         <v>2.74</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="D13">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.8109999999999999</v>
       </c>
       <c r="B14">
         <v>2.74</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>3.2530000000000001</v>
+      </c>
+      <c r="D14">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.754</v>
       </c>
       <c r="B15">
         <v>2.74</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>3.2240000000000002</v>
+      </c>
+      <c r="D15">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.681</v>
       </c>
       <c r="B16">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>3.2029999999999998</v>
+      </c>
+      <c r="D16">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.607</v>
       </c>
       <c r="B17">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>3.1669999999999998</v>
+      </c>
+      <c r="D17">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.5649999999999999</v>
       </c>
       <c r="B18">
         <v>2.76</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>3.1339999999999999</v>
+      </c>
+      <c r="D18">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.508</v>
       </c>
       <c r="B19">
         <v>2.77</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>3.0960000000000001</v>
+      </c>
+      <c r="D19">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.4730000000000001</v>
       </c>
       <c r="B20">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="D20">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1.454</v>
       </c>
       <c r="B21">
         <v>2.82</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>2.992</v>
+      </c>
+      <c r="D21">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1.421</v>
       </c>
       <c r="B22">
         <v>2.87</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>2.9209999999999998</v>
+      </c>
+      <c r="D22">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1.377</v>
       </c>
       <c r="B23">
         <v>3.06</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>2.851</v>
+      </c>
+      <c r="D23">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1.333</v>
       </c>
       <c r="B24">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="D24">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1.3009999999999999</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>2.633</v>
+      </c>
+      <c r="D25">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1.2370000000000001</v>
       </c>
       <c r="B26">
         <v>5.15</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>2.3580000000000001</v>
+      </c>
+      <c r="D26">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1.155</v>
       </c>
       <c r="B27">
         <v>6.48</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>2.1619999999999999</v>
+      </c>
+      <c r="D27">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1.1220000000000001</v>
       </c>
       <c r="B28">
         <v>6.91</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>2.0089999999999999</v>
+      </c>
+      <c r="D28">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1.077</v>
       </c>
       <c r="B29">
         <v>7.46</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="D29">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0.999</v>
       </c>
       <c r="B30">
         <v>8.17</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>1.411</v>
+      </c>
+      <c r="D30">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0.873</v>
       </c>
       <c r="B31">
         <v>8.9499999999999993</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>1.331</v>
+      </c>
+      <c r="D31">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0.80600000000000005</v>
       </c>
       <c r="B32">
         <v>9.2200000000000006</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>1.246</v>
+      </c>
+      <c r="D32">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0.59899999999999998</v>
       </c>
       <c r="B33">
         <v>9.6300000000000008</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D33">
+        <v>16.649999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0.29399999999999998</v>
       </c>
       <c r="B34">
         <v>9.7899999999999991</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D34">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0.16300000000000001</v>
       </c>
@@ -11570,7 +12079,7 @@
         <v>9.82</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2.4E-2</v>
       </c>
@@ -11578,7 +12087,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2.3E-2</v>
       </c>
@@ -11586,7 +12095,7 @@
         <v>9.84</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2.3E-2</v>
       </c>
@@ -11595,6 +12104,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11608,12 +12118,12 @@
       <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -11627,7 +12137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -11662,7 +12172,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3.7829999999999999</v>
       </c>
@@ -11702,7 +12212,7 @@
         <v>0.59303204685068789</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.7650000000000001</v>
       </c>
@@ -11731,7 +12241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3.734</v>
       </c>
@@ -11771,7 +12281,7 @@
         <v>0.63487882025632514</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3.6859999999999999</v>
       </c>
@@ -11800,7 +12310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3.6640000000000001</v>
       </c>
@@ -11840,7 +12350,7 @@
         <v>0.58965398910590094</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3.65</v>
       </c>
@@ -11869,7 +12379,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3.633</v>
       </c>
@@ -11895,7 +12405,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3.6160000000000001</v>
       </c>
@@ -11921,7 +12431,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3.593</v>
       </c>
@@ -11947,7 +12457,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3.5630000000000002</v>
       </c>
@@ -11973,7 +12483,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3.536</v>
       </c>
@@ -11999,7 +12509,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3.5129999999999999</v>
       </c>
@@ -12025,7 +12535,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3.4849999999999999</v>
       </c>
@@ -12051,7 +12561,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3.4380000000000002</v>
       </c>
@@ -12077,7 +12587,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3.3929999999999998</v>
       </c>
@@ -12103,7 +12613,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3.343</v>
       </c>
@@ -12129,7 +12639,7 @@
         <v>33.07</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>3.2890000000000001</v>
       </c>
@@ -12155,7 +12665,7 @@
         <v>30.58</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3.1469999999999998</v>
       </c>
@@ -12181,7 +12691,7 @@
         <v>26.18</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2.4380000000000002</v>
       </c>
@@ -12207,7 +12717,7 @@
         <v>25.08</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.159</v>
       </c>
@@ -12233,7 +12743,7 @@
         <v>22.15</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.158</v>
       </c>
@@ -12259,7 +12769,7 @@
         <v>19.420000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C24">
         <v>2.6309999999999998</v>
       </c>
@@ -12279,7 +12789,7 @@
         <v>18.170000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C25">
         <v>1.905</v>
       </c>
@@ -12299,7 +12809,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C26">
         <v>1.2909999999999999</v>
       </c>
@@ -12319,7 +12829,7 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C27">
         <v>0.34</v>
       </c>
@@ -12339,7 +12849,7 @@
         <v>13.31</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C28">
         <v>7.3999999999999996E-2</v>
       </c>
@@ -12359,7 +12869,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E29">
         <v>1.7889999999999999</v>
       </c>
@@ -12373,7 +12883,7 @@
         <v>11.58</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E30">
         <v>1.5960000000000001</v>
       </c>
@@ -12387,7 +12897,7 @@
         <v>10.65</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E31">
         <v>1.379</v>
       </c>
@@ -12401,7 +12911,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E32">
         <v>1.383</v>
       </c>
@@ -12415,7 +12925,7 @@
         <v>9.56</v>
       </c>
     </row>
-    <row r="33" spans="5:8">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E33">
         <v>1.296</v>
       </c>
@@ -12429,7 +12939,7 @@
         <v>9.0299999999999994</v>
       </c>
     </row>
-    <row r="34" spans="5:8">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E34">
         <v>1.1419999999999999</v>
       </c>
@@ -12443,7 +12953,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="35" spans="5:8">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E35">
         <v>0.93200000000000005</v>
       </c>
@@ -12457,7 +12967,7 @@
         <v>8.1300000000000008</v>
       </c>
     </row>
-    <row r="36" spans="5:8">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E36">
         <v>0.79700000000000004</v>
       </c>
@@ -12471,7 +12981,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="37" spans="5:8">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E37">
         <v>0.751</v>
       </c>
@@ -12485,7 +12995,7 @@
         <v>7.07</v>
       </c>
     </row>
-    <row r="38" spans="5:8">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E38">
         <v>0.59499999999999997</v>
       </c>
@@ -12499,7 +13009,7 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="39" spans="5:8">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E39">
         <v>0.41499999999999998</v>
       </c>
@@ -12513,7 +13023,7 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="40" spans="5:8">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E40">
         <v>0.2</v>
       </c>
@@ -12527,7 +13037,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="41" spans="5:8">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E41">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -12541,7 +13051,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="42" spans="5:8">
+    <row r="42" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G42">
         <v>3.3730000000000002</v>
       </c>
@@ -12549,7 +13059,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="43" spans="5:8">
+    <row r="43" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G43">
         <v>3.3690000000000002</v>
       </c>
@@ -12557,7 +13067,7 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="44" spans="5:8">
+    <row r="44" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G44">
         <v>3.3639999999999999</v>
       </c>
@@ -12565,7 +13075,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="45" spans="5:8">
+    <row r="45" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G45">
         <v>3.3580000000000001</v>
       </c>
@@ -12574,6 +13084,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12587,9 +13098,9 @@
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -12599,7 +13110,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -12622,7 +13133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3.843</v>
       </c>
@@ -12650,7 +13161,7 @@
         <v>0.58497580419044382</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.8050000000000002</v>
       </c>
@@ -12667,7 +13178,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3.74</v>
       </c>
@@ -12695,7 +13206,7 @@
         <v>0.61594054120642217</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3.657</v>
       </c>
@@ -12712,7 +13223,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3.6019999999999999</v>
       </c>
@@ -12726,7 +13237,7 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3.5470000000000002</v>
       </c>
@@ -12740,7 +13251,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3.492</v>
       </c>
@@ -12754,7 +13265,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3.44</v>
       </c>
@@ -12768,7 +13279,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3.391</v>
       </c>
@@ -12782,7 +13293,7 @@
         <v>7.07</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3.35</v>
       </c>
@@ -12796,7 +13307,7 @@
         <v>8.23</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3.319</v>
       </c>
@@ -12810,7 +13321,7 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3.2879999999999998</v>
       </c>
@@ -12824,7 +13335,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3.2570000000000001</v>
       </c>
@@ -12838,7 +13349,7 @@
         <v>12.13</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3.2290000000000001</v>
       </c>
@@ -12852,7 +13363,7 @@
         <v>13.79</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3.2050000000000001</v>
       </c>
@@ -12866,7 +13377,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3.18</v>
       </c>
@@ -12880,7 +13391,7 @@
         <v>17.670000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>3.1589999999999998</v>
       </c>
@@ -12894,7 +13405,7 @@
         <v>19.84</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3.133</v>
       </c>
@@ -12908,7 +13419,7 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3.11</v>
       </c>
@@ -12922,7 +13433,7 @@
         <v>22.31</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3.0779999999999998</v>
       </c>
@@ -12936,7 +13447,7 @@
         <v>22.49</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3.048</v>
       </c>
@@ -12950,7 +13461,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2.8679999999999999</v>
       </c>
@@ -12964,7 +13475,7 @@
         <v>27.85</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1.875</v>
       </c>
@@ -12978,7 +13489,7 @@
         <v>27.64</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.77</v>
       </c>
@@ -12992,7 +13503,7 @@
         <v>27.44</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.245</v>
       </c>
@@ -13000,7 +13511,7 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.25700000000000001</v>
       </c>
@@ -13009,6 +13520,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13022,9 +13534,9 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -13040,7 +13552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -13076,7 +13588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3.9009999999999998</v>
       </c>
@@ -13116,7 +13628,7 @@
         <v>0.54137743076152833</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.871</v>
       </c>
@@ -13146,7 +13658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3.8380000000000001</v>
       </c>
@@ -13186,7 +13698,7 @@
         <v>0.68909616463999879</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3.81</v>
       </c>
@@ -13216,7 +13728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3.778</v>
       </c>
@@ -13242,7 +13754,7 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3.7490000000000001</v>
       </c>
@@ -13268,7 +13780,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3.7170000000000001</v>
       </c>
@@ -13294,7 +13806,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3.6850000000000001</v>
       </c>
@@ -13320,7 +13832,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3.6549999999999998</v>
       </c>
@@ -13346,7 +13858,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3.6219999999999999</v>
       </c>
@@ -13372,7 +13884,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3.597</v>
       </c>
@@ -13398,7 +13910,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3.5569999999999999</v>
       </c>
@@ -13424,7 +13936,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3.516</v>
       </c>
@@ -13450,7 +13962,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3.456</v>
       </c>
@@ -13476,7 +13988,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3.387</v>
       </c>
@@ -13502,7 +14014,7 @@
         <v>30.97</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2.923</v>
       </c>
@@ -13528,7 +14040,7 @@
         <v>27.71</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2.036</v>
       </c>
@@ -13554,7 +14066,7 @@
         <v>25.28</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2.0190000000000001</v>
       </c>
@@ -13580,7 +14092,7 @@
         <v>22.51</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1.3660000000000001</v>
       </c>
@@ -13606,7 +14118,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.252</v>
       </c>
@@ -13626,7 +14138,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.249</v>
       </c>
@@ -13646,7 +14158,7 @@
         <v>15.29</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.23699999999999999</v>
       </c>
@@ -13666,7 +14178,7 @@
         <v>13.97</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E25">
         <v>1.444</v>
       </c>
@@ -13680,7 +14192,7 @@
         <v>11.97</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E26">
         <v>1.373</v>
       </c>
@@ -13694,7 +14206,7 @@
         <v>11.29</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E27">
         <v>1.175</v>
       </c>
@@ -13708,7 +14220,7 @@
         <v>10.41</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E28">
         <v>0.98799999999999999</v>
       </c>
@@ -13722,7 +14234,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E29">
         <v>0.77400000000000002</v>
       </c>
@@ -13736,7 +14248,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E30">
         <v>0.60899999999999999</v>
       </c>
@@ -13750,7 +14262,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E31">
         <v>0.34200000000000003</v>
       </c>
@@ -13764,7 +14276,7 @@
         <v>6.98</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E32">
         <v>0.17299999999999999</v>
       </c>
@@ -13778,7 +14290,7 @@
         <v>6.65</v>
       </c>
     </row>
-    <row r="33" spans="5:8">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E33">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -13792,7 +14304,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="34" spans="5:8">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E34">
         <v>0.03</v>
       </c>
@@ -13806,7 +14318,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="35" spans="5:8">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G35">
         <v>3.4620000000000002</v>
       </c>
@@ -13814,7 +14326,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="36" spans="5:8">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G36">
         <v>3.4590000000000001</v>
       </c>
@@ -13822,7 +14334,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="37" spans="5:8">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G37">
         <v>3.4529999999999998</v>
       </c>
@@ -13830,7 +14342,7 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="38" spans="5:8">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G38">
         <v>3.448</v>
       </c>
@@ -13838,7 +14350,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="39" spans="5:8">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G39">
         <v>3.4430000000000001</v>
       </c>
@@ -13846,7 +14358,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="40" spans="5:8">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G40">
         <v>3.4390000000000001</v>
       </c>
@@ -13854,7 +14366,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="41" spans="5:8">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G41">
         <v>3.4329999999999998</v>
       </c>
@@ -13862,7 +14374,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="42" spans="5:8">
+    <row r="42" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G42">
         <v>3.4239999999999999</v>
       </c>
@@ -13870,7 +14382,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="43" spans="5:8">
+    <row r="43" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G43">
         <v>3.419</v>
       </c>
@@ -13879,7 +14391,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/solariv.xlsx
+++ b/solariv.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zchen\OneDrive - Leland Stanford Junior University\AA236A\solar-characterization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Katie/Documents/winter 2020/aa 236/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{59697A26-8FDC-9444-8B4C-C15424E8CA94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C9BCD7BF-B104-4B3B-9C13-679ADBA32CAA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58571DBE-4CAC-1245-B5BB-A3E1E2697A8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{27B36DB9-51A1-AA4A-8D2C-F1920E341D65}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23140" windowHeight="14220" xr2:uid="{27B36DB9-51A1-AA4A-8D2C-F1920E341D65}"/>
   </bookViews>
   <sheets>
     <sheet name="Single Cell" sheetId="1" r:id="rId1"/>
-    <sheet name="-Y" sheetId="7" r:id="rId2"/>
+    <sheet name="-Y" sheetId="5" r:id="rId2"/>
     <sheet name="X" sheetId="2" r:id="rId3"/>
     <sheet name="+Y" sheetId="3" r:id="rId4"/>
     <sheet name="Z" sheetId="4" r:id="rId5"/>
@@ -24,20 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
   <si>
     <t>Voltage (V)</t>
   </si>
@@ -135,8 +127,16 @@
     <t>Halogen (600 W)</t>
   </si>
   <si>
-    <t>Indoor (filter)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Halogen (600 W) - 36"</t>
+  </si>
+  <si>
+    <t>Halogen (600 W) - 28"</t>
+  </si>
+  <si>
+    <t>Halogen (600 W) - 6"</t>
+  </si>
+  <si>
+    <t>Halogen (600 W) - 12"</t>
   </si>
 </sst>
 </file>
@@ -144,28 +144,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -192,10 +185,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -213,7 +206,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -275,7 +268,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2036,6 +2029,808 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0A33-3547-BBE5-AEBD418058EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>Halogen Lamp (600 W) - 36"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$Q$3:$Q$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1.1890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.96899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.871</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.82599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.78300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.74299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.629</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.57899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.46100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$R$3:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC51-5B44-841D-85E56B7CC202}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>Halogen Lamp (600 W) - 28"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$S$3:$S$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.448</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.321</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.254</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.159</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.84099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.49099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.32800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$T$3:$T$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.91</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.98</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC51-5B44-841D-85E56B7CC202}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:v>Halogen Lamp (600 W) - 12"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$U$3:$U$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.7669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.726</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6679999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.637</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.359</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.79900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.40300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$V$3:$V$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.22</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BC51-5B44-841D-85E56B7CC202}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:v>Halogen Lamp (600 W) - 6"</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$W$3:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.8160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.734</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.681</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.6579999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.631</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5760000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.5109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Single Cell'!$X$3:$X$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.89</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.92</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.58</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12.51</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BC51-5B44-841D-85E56B7CC202}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2122,7 +2917,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2160,7 +2955,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1012799744"/>
@@ -2244,7 +3039,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2282,7 +3077,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1012208512"/>
@@ -2324,7 +3119,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2361,7 +3156,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2375,7 +3170,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2437,7 +3232,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2452,11 +3247,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'-Y'!$A$1</c:f>
+              <c:f>'-Y'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Indoor (w/ filter)</c:v>
+                  <c:v>Current (mA)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2722,262 +3517,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD3D-4CAA-B05A-F7E49FB54B79}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'-Y'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Indoor (filter)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'-Y'!$C$3:$C$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>3.48</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.452</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4380000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.419</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.4009999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.3820000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3639999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.3420000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.319</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.2959999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.2749999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.2530000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2240000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2029999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.1669999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.1339999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.0960000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.0619999999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.992</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.9209999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.851</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.7650000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.633</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.3580000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.1619999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.0089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.6020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.411</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.331</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.246</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.0900000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4.3999999999999997E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'-Y'!$D$3:$D$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>3.69</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.76</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.82</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.98</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.09</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.37</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.54</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.79</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.49</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.07</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.32</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.61</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.77</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.59</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.87</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.09</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.34</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.5399999999999991</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.5500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8.65</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.58</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>11.51</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>13.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>16.649999999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AD3D-4CAA-B05A-F7E49FB54B79}"/>
+              <c16:uniqueId val="{00000000-D55C-E447-BE45-B73B6D19350F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3047,7 +3587,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="81873743"/>
@@ -3126,7 +3666,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3164,7 +3704,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="83311791"/>
@@ -3179,37 +3719,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3243,7 +3752,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3257,7 +3766,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3319,7 +3828,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4406,7 +4915,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4444,7 +4953,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="972957904"/>
@@ -4523,7 +5032,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4561,7 +5070,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="972583664"/>
@@ -4603,7 +5112,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4640,7 +5149,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4654,7 +5163,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4716,7 +5225,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5219,7 +5728,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5257,7 +5766,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1012997056"/>
@@ -5336,7 +5845,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5374,7 +5883,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1014642928"/>
@@ -5416,7 +5925,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5453,7 +5962,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5467,7 +5976,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5529,7 +6038,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6526,7 +7035,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6564,7 +7073,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="972498512"/>
@@ -6643,7 +7152,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6681,7 +7190,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1023635088"/>
@@ -6723,7 +7232,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6760,7 +7269,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9555,16 +10064,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9596,29 +10105,27 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>186044</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>61717</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C58C6E1-26CE-4B50-871F-E7BB1743213D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F5EB9F-0DCF-A74A-A1D8-77631798ED7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -9759,7 +10266,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10055,19 +10562,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1500A12-A21D-A64D-BED6-2F488BF871D9}">
-  <dimension ref="A1:Y37"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView topLeftCell="P7" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="U7" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="10" max="10" width="11.84375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.69140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="24" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -10092,34 +10600,47 @@
         <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P1" s="1"/>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
       <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="1"/>
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="T1">
+      <c r="AB1">
         <f>I17*J17</f>
         <v>26.102650000000004</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AC1" t="s">
         <v>23</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="W1">
+      <c r="AE1">
         <v>30.7</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AF1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1">
-        <f>T1/W1</f>
+      <c r="AG1">
+        <f>AB1/AE1</f>
         <v>0.85024918566775265</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10168,18 +10689,42 @@
       <c r="P2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S2" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="s">
         <v>24</v>
       </c>
-      <c r="T2" s="2">
-        <f>T1/(I3*J26)</f>
+      <c r="AB2" s="2">
+        <f>AB1/(I3*J26)</f>
         <v>0.64087083786214438</v>
       </c>
-      <c r="W2">
+      <c r="AE2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33">
       <c r="A3">
         <v>1.82</v>
       </c>
@@ -10228,23 +10773,47 @@
       <c r="P3">
         <v>50.8</v>
       </c>
-      <c r="S3" t="s">
+      <c r="Q3">
+        <v>1.1890000000000001</v>
+      </c>
+      <c r="R3">
+        <v>1.24</v>
+      </c>
+      <c r="S3">
+        <v>1.573</v>
+      </c>
+      <c r="T3">
+        <v>1.64</v>
+      </c>
+      <c r="U3">
+        <v>1.7669999999999999</v>
+      </c>
+      <c r="V3">
+        <v>1.84</v>
+      </c>
+      <c r="W3">
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="X3">
+        <v>1.89</v>
+      </c>
+      <c r="AA3" t="s">
         <v>26</v>
       </c>
-      <c r="T3">
+      <c r="AB3">
         <v>1.4350000000000001</v>
       </c>
-      <c r="U3" t="s">
+      <c r="AC3" t="s">
         <v>28</v>
       </c>
-      <c r="W3">
+      <c r="AE3">
         <v>1.67</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AF3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33">
       <c r="A4">
         <v>1.806</v>
       </c>
@@ -10293,23 +10862,47 @@
       <c r="P4">
         <v>50.8</v>
       </c>
-      <c r="S4" t="s">
+      <c r="Q4">
+        <v>1.19</v>
+      </c>
+      <c r="R4">
+        <v>1.24</v>
+      </c>
+      <c r="S4">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="T4">
+        <v>1.65</v>
+      </c>
+      <c r="U4">
+        <v>1.7529999999999999</v>
+      </c>
+      <c r="V4">
+        <v>1.89</v>
+      </c>
+      <c r="W4">
+        <v>1.792</v>
+      </c>
+      <c r="X4">
+        <v>1.94</v>
+      </c>
+      <c r="AA4" t="s">
         <v>27</v>
       </c>
-      <c r="T4">
+      <c r="AB4">
         <v>18.190000000000001</v>
       </c>
-      <c r="U4" t="s">
+      <c r="AC4" t="s">
         <v>29</v>
       </c>
-      <c r="W4">
+      <c r="AE4">
         <v>18.399999999999999</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AF4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33">
       <c r="A5">
         <v>1.7909999999999999</v>
       </c>
@@ -10358,8 +10951,32 @@
       <c r="P5">
         <v>51.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Q5">
+        <v>1.157</v>
+      </c>
+      <c r="R5">
+        <v>1.26</v>
+      </c>
+      <c r="S5">
+        <v>1.54</v>
+      </c>
+      <c r="T5">
+        <v>1.77</v>
+      </c>
+      <c r="U5">
+        <v>1.7390000000000001</v>
+      </c>
+      <c r="V5">
+        <v>2.04</v>
+      </c>
+      <c r="W5">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="X5">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6">
         <v>1.778</v>
       </c>
@@ -10408,8 +11025,32 @@
       <c r="P6">
         <v>51.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Q6">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="R6">
+        <v>1.3</v>
+      </c>
+      <c r="S6">
+        <v>1.516</v>
+      </c>
+      <c r="T6">
+        <v>1.91</v>
+      </c>
+      <c r="U6">
+        <v>1.726</v>
+      </c>
+      <c r="V6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W6">
+        <v>1.776</v>
+      </c>
+      <c r="X6">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7">
         <v>1.7649999999999999</v>
       </c>
@@ -10458,8 +11099,32 @@
       <c r="P7">
         <v>50.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Q7">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="R7">
+        <v>1.32</v>
+      </c>
+      <c r="S7">
+        <v>1.492</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>1.71</v>
+      </c>
+      <c r="V7">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="W7">
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="X7">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8">
         <v>1.752</v>
       </c>
@@ -10508,8 +11173,32 @@
       <c r="P8">
         <v>48.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Q8">
+        <v>1.008</v>
+      </c>
+      <c r="R8">
+        <v>1.34</v>
+      </c>
+      <c r="S8">
+        <v>1.448</v>
+      </c>
+      <c r="T8">
+        <v>2.19</v>
+      </c>
+      <c r="U8">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="V8">
+        <v>2.73</v>
+      </c>
+      <c r="W8">
+        <v>1.734</v>
+      </c>
+      <c r="X8">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9">
         <v>1.7370000000000001</v>
       </c>
@@ -10558,8 +11247,32 @@
       <c r="P9">
         <v>45.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Q9">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="R9">
+        <v>1.36</v>
+      </c>
+      <c r="S9">
+        <v>1.3660000000000001</v>
+      </c>
+      <c r="T9">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="U9">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="V9">
+        <v>3.1</v>
+      </c>
+      <c r="W9">
+        <v>1.7190000000000001</v>
+      </c>
+      <c r="X9">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10">
         <v>1.722</v>
       </c>
@@ -10608,8 +11321,32 @@
       <c r="P10">
         <v>43.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Q10">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="R10">
+        <v>1.37</v>
+      </c>
+      <c r="S10">
+        <v>1.321</v>
+      </c>
+      <c r="T10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="U10">
+        <v>1.637</v>
+      </c>
+      <c r="V10">
+        <v>3.68</v>
+      </c>
+      <c r="W10">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="X10">
+        <v>3.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11">
         <v>1.706</v>
       </c>
@@ -10658,8 +11395,32 @@
       <c r="P11">
         <v>32.200000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Q11">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="R11">
+        <v>1.37</v>
+      </c>
+      <c r="S11">
+        <v>1.254</v>
+      </c>
+      <c r="T11">
+        <v>2.67</v>
+      </c>
+      <c r="U11">
+        <v>1.5569999999999999</v>
+      </c>
+      <c r="V11">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="W11">
+        <v>1.681</v>
+      </c>
+      <c r="X11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12">
         <v>1.6859999999999999</v>
       </c>
@@ -10708,8 +11469,32 @@
       <c r="P12">
         <v>24.42</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Q12">
+        <v>0.871</v>
+      </c>
+      <c r="R12">
+        <v>1.38</v>
+      </c>
+      <c r="S12">
+        <v>1.159</v>
+      </c>
+      <c r="T12">
+        <v>2.76</v>
+      </c>
+      <c r="U12">
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="V12">
+        <v>5.57</v>
+      </c>
+      <c r="W12">
+        <v>1.6579999999999999</v>
+      </c>
+      <c r="X12">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13">
         <v>1.6679999999999999</v>
       </c>
@@ -10758,8 +11543,32 @@
       <c r="P13">
         <v>19.079999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Q13">
+        <v>0.87</v>
+      </c>
+      <c r="R13">
+        <v>1.38</v>
+      </c>
+      <c r="S13">
+        <v>1.0940000000000001</v>
+      </c>
+      <c r="T13">
+        <v>2.84</v>
+      </c>
+      <c r="U13">
+        <v>1.359</v>
+      </c>
+      <c r="V13">
+        <v>6.33</v>
+      </c>
+      <c r="W13">
+        <v>1.631</v>
+      </c>
+      <c r="X13">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14">
         <v>1.651</v>
       </c>
@@ -10808,8 +11617,32 @@
       <c r="P14">
         <v>16.27</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Q14">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="R14">
+        <v>1.39</v>
+      </c>
+      <c r="S14">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="T14">
+        <v>2.88</v>
+      </c>
+      <c r="U14">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="V14">
+        <v>6.82</v>
+      </c>
+      <c r="W14">
+        <v>1.6040000000000001</v>
+      </c>
+      <c r="X14">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15">
         <v>1.623</v>
       </c>
@@ -10858,8 +11691,32 @@
       <c r="P15">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="Q15">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="R15">
+        <v>1.4</v>
+      </c>
+      <c r="S15">
+        <v>0.95</v>
+      </c>
+      <c r="T15">
+        <v>2.91</v>
+      </c>
+      <c r="U15">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="V15">
+        <v>7.13</v>
+      </c>
+      <c r="W15">
+        <v>1.5760000000000001</v>
+      </c>
+      <c r="X15">
+        <v>6.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16">
         <v>1.583</v>
       </c>
@@ -10908,8 +11765,32 @@
       <c r="P16">
         <v>8.98</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q16">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="R16">
+        <v>1.4</v>
+      </c>
+      <c r="S16">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="T16">
+        <v>2.93</v>
+      </c>
+      <c r="U16">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="V16">
+        <v>7.13</v>
+      </c>
+      <c r="W16">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="X16">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>1.55</v>
       </c>
@@ -10952,8 +11833,32 @@
       <c r="P17">
         <v>7.86</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q17">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="R17">
+        <v>1.41</v>
+      </c>
+      <c r="S17">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="T17">
+        <v>2.94</v>
+      </c>
+      <c r="U17">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="V17">
+        <v>7.19</v>
+      </c>
+      <c r="W17">
+        <v>1.3660000000000001</v>
+      </c>
+      <c r="X17">
+        <v>10.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18">
         <v>1.4990000000000001</v>
       </c>
@@ -10996,8 +11901,32 @@
       <c r="P18">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q18">
+        <v>0.66100000000000003</v>
+      </c>
+      <c r="R18">
+        <v>1.41</v>
+      </c>
+      <c r="S18">
+        <v>0.76</v>
+      </c>
+      <c r="T18">
+        <v>2.96</v>
+      </c>
+      <c r="U18">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="V18">
+        <v>7.22</v>
+      </c>
+      <c r="W18">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="X18">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19">
         <v>1.38</v>
       </c>
@@ -11040,8 +11969,32 @@
       <c r="P19">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q19">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="R19">
+        <v>1.4</v>
+      </c>
+      <c r="S19">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="T19">
+        <v>2.97</v>
+      </c>
+      <c r="U19">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="V19">
+        <v>7.22</v>
+      </c>
+      <c r="W19">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="X19">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20">
         <v>1.272</v>
       </c>
@@ -11084,8 +12037,32 @@
       <c r="P20">
         <v>5.22</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q20">
+        <v>0.629</v>
+      </c>
+      <c r="R20">
+        <v>1.4</v>
+      </c>
+      <c r="S20">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="T20">
+        <v>2.97</v>
+      </c>
+      <c r="U20">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="V20">
+        <v>7.23</v>
+      </c>
+      <c r="W20">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="X20">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21">
         <v>0.89200000000000002</v>
       </c>
@@ -11128,8 +12105,32 @@
       <c r="P21">
         <v>4.84</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q21">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="R21">
+        <v>1.4</v>
+      </c>
+      <c r="S21">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="T21">
+        <v>2.97</v>
+      </c>
+      <c r="U21">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="V21">
+        <v>7.24</v>
+      </c>
+      <c r="W21">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="X21">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22">
         <v>0.499</v>
       </c>
@@ -11172,8 +12173,26 @@
       <c r="P22">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q22">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="R22">
+        <v>1.4</v>
+      </c>
+      <c r="S22">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="T22">
+        <v>2.98</v>
+      </c>
+      <c r="U22">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="V22">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23">
         <v>4.8000000000000001E-2</v>
       </c>
@@ -11216,8 +12235,26 @@
       <c r="P23">
         <v>3.69</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q23">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="R23">
+        <v>1.4</v>
+      </c>
+      <c r="S23">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="T23">
+        <v>2.98</v>
+      </c>
+      <c r="U23">
+        <v>1.9E-2</v>
+      </c>
+      <c r="V23">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24">
         <v>4.5999999999999999E-2</v>
       </c>
@@ -11260,8 +12297,26 @@
       <c r="P24">
         <v>3.34</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q24">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="R24">
+        <v>1.41</v>
+      </c>
+      <c r="S24">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="T24">
+        <v>2.97</v>
+      </c>
+      <c r="U24">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="V24">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="E25">
         <v>0.78900000000000003</v>
       </c>
@@ -11298,8 +12353,20 @@
       <c r="P25">
         <v>2.93</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q25">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="R25">
+        <v>1.41</v>
+      </c>
+      <c r="S25">
+        <v>0.121</v>
+      </c>
+      <c r="T25">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="E26">
         <v>0.59799999999999998</v>
       </c>
@@ -11336,8 +12403,20 @@
       <c r="P26">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q26">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="R26">
+        <v>1.41</v>
+      </c>
+      <c r="S26">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="T26">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="E27">
         <v>0.55500000000000005</v>
       </c>
@@ -11368,8 +12447,20 @@
       <c r="P27">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q27">
+        <v>0.312</v>
+      </c>
+      <c r="R27">
+        <v>1.41</v>
+      </c>
+      <c r="S27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="T27">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="E28">
         <v>0.38700000000000001</v>
       </c>
@@ -11400,8 +12491,14 @@
       <c r="P28">
         <v>2.19</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q28">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="R28">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="E29">
         <v>0.28499999999999998</v>
       </c>
@@ -11426,8 +12523,14 @@
       <c r="P29">
         <v>1.93</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="Q29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R29">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="E30">
         <v>0.187</v>
       </c>
@@ -11453,7 +12556,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24">
       <c r="E31">
         <v>0.10299999999999999</v>
       </c>
@@ -11479,7 +12582,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24">
       <c r="E32">
         <v>3.1E-2</v>
       </c>
@@ -11505,7 +12608,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:16">
       <c r="E33">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -11531,7 +12634,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:16">
       <c r="G34">
         <v>1.718</v>
       </c>
@@ -11545,7 +12648,7 @@
         <v>11.42</v>
       </c>
     </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:16">
       <c r="G35">
         <v>1.7170000000000001</v>
       </c>
@@ -11559,7 +12662,7 @@
         <v>11.43</v>
       </c>
     </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:16">
       <c r="G36">
         <v>1.716</v>
       </c>
@@ -11573,7 +12676,7 @@
         <v>11.44</v>
       </c>
     </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:16">
       <c r="G37">
         <v>1.714</v>
       </c>
@@ -11582,496 +12685,294 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:D16">
+  <sortState ref="C3:D16">
     <sortCondition descending="1" ref="C3"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BB7D24-8695-4787-9E53-190EF6436A1F}">
-  <dimension ref="A1:D38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC01E281-677C-4248-8880-C2A0157AB7EF}">
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2.548</v>
       </c>
       <c r="B3">
         <v>2.65</v>
       </c>
-      <c r="C3">
-        <v>3.48</v>
-      </c>
-      <c r="D3">
-        <v>3.69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>2.5499999999999998</v>
       </c>
       <c r="B4">
         <v>2.66</v>
       </c>
-      <c r="C4">
-        <v>3.452</v>
-      </c>
-      <c r="D4">
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>2.504</v>
       </c>
       <c r="B5">
         <v>2.66</v>
       </c>
-      <c r="C5">
-        <v>3.4380000000000002</v>
-      </c>
-      <c r="D5">
-        <v>3.82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>2.4279999999999999</v>
       </c>
       <c r="B6">
         <v>2.69</v>
       </c>
-      <c r="C6">
-        <v>3.419</v>
-      </c>
-      <c r="D6">
-        <v>3.87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>2.3519999999999999</v>
       </c>
       <c r="B7">
         <v>2.71</v>
       </c>
-      <c r="C7">
-        <v>3.4009999999999998</v>
-      </c>
-      <c r="D7">
-        <v>3.98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>2.3010000000000002</v>
       </c>
       <c r="B8">
         <v>2.72</v>
       </c>
-      <c r="C8">
-        <v>3.3820000000000001</v>
-      </c>
-      <c r="D8">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>2.214</v>
       </c>
       <c r="B9">
         <v>2.72</v>
       </c>
-      <c r="C9">
-        <v>3.3639999999999999</v>
-      </c>
-      <c r="D9">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>2.0619999999999998</v>
       </c>
       <c r="B10">
         <v>2.72</v>
       </c>
-      <c r="C10">
-        <v>3.3420000000000001</v>
-      </c>
-      <c r="D10">
-        <v>4.37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>1.9530000000000001</v>
       </c>
       <c r="B11">
         <v>2.72</v>
       </c>
-      <c r="C11">
-        <v>3.319</v>
-      </c>
-      <c r="D11">
-        <v>4.54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>1.903</v>
       </c>
       <c r="B12">
         <v>2.73</v>
       </c>
-      <c r="C12">
-        <v>3.2959999999999998</v>
-      </c>
-      <c r="D12">
-        <v>4.79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>1.8560000000000001</v>
       </c>
       <c r="B13">
         <v>2.74</v>
       </c>
-      <c r="C13">
-        <v>3.2749999999999999</v>
-      </c>
-      <c r="D13">
-        <v>5.03</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>1.8109999999999999</v>
       </c>
       <c r="B14">
         <v>2.74</v>
       </c>
-      <c r="C14">
-        <v>3.2530000000000001</v>
-      </c>
-      <c r="D14">
-        <v>5.26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>1.754</v>
       </c>
       <c r="B15">
         <v>2.74</v>
       </c>
-      <c r="C15">
-        <v>3.2240000000000002</v>
-      </c>
-      <c r="D15">
-        <v>5.49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>1.681</v>
       </c>
       <c r="B16">
         <v>2.75</v>
       </c>
-      <c r="C16">
-        <v>3.2029999999999998</v>
-      </c>
-      <c r="D16">
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>1.607</v>
       </c>
       <c r="B17">
         <v>2.75</v>
       </c>
-      <c r="C17">
-        <v>3.1669999999999998</v>
-      </c>
-      <c r="D17">
-        <v>6.07</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>1.5649999999999999</v>
       </c>
       <c r="B18">
         <v>2.76</v>
       </c>
-      <c r="C18">
-        <v>3.1339999999999999</v>
-      </c>
-      <c r="D18">
-        <v>6.32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>1.508</v>
       </c>
       <c r="B19">
         <v>2.77</v>
       </c>
-      <c r="C19">
-        <v>3.0960000000000001</v>
-      </c>
-      <c r="D19">
-        <v>6.61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>1.4730000000000001</v>
       </c>
       <c r="B20">
         <v>2.8</v>
       </c>
-      <c r="C20">
-        <v>3.0619999999999998</v>
-      </c>
-      <c r="D20">
-        <v>6.77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>1.454</v>
       </c>
       <c r="B21">
         <v>2.82</v>
       </c>
-      <c r="C21">
-        <v>2.992</v>
-      </c>
-      <c r="D21">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>1.421</v>
       </c>
       <c r="B22">
         <v>2.87</v>
       </c>
-      <c r="C22">
-        <v>2.9209999999999998</v>
-      </c>
-      <c r="D22">
-        <v>7.59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>1.377</v>
       </c>
       <c r="B23">
         <v>3.06</v>
       </c>
-      <c r="C23">
-        <v>2.851</v>
-      </c>
-      <c r="D23">
-        <v>7.87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>1.333</v>
       </c>
       <c r="B24">
         <v>3.5</v>
       </c>
-      <c r="C24">
-        <v>2.7650000000000001</v>
-      </c>
-      <c r="D24">
-        <v>8.09</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>1.3009999999999999</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25">
-        <v>2.633</v>
-      </c>
-      <c r="D25">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>1.2370000000000001</v>
       </c>
       <c r="B26">
         <v>5.15</v>
       </c>
-      <c r="C26">
-        <v>2.3580000000000001</v>
-      </c>
-      <c r="D26">
-        <v>8.5399999999999991</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>1.155</v>
       </c>
       <c r="B27">
         <v>6.48</v>
       </c>
-      <c r="C27">
-        <v>2.1619999999999999</v>
-      </c>
-      <c r="D27">
-        <v>8.5500000000000007</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>1.1220000000000001</v>
       </c>
       <c r="B28">
         <v>6.91</v>
       </c>
-      <c r="C28">
-        <v>2.0089999999999999</v>
-      </c>
-      <c r="D28">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>1.077</v>
       </c>
       <c r="B29">
         <v>7.46</v>
       </c>
-      <c r="C29">
-        <v>1.6020000000000001</v>
-      </c>
-      <c r="D29">
-        <v>8.65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>0.999</v>
       </c>
       <c r="B30">
         <v>8.17</v>
       </c>
-      <c r="C30">
-        <v>1.411</v>
-      </c>
-      <c r="D30">
-        <v>9.58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>0.873</v>
       </c>
       <c r="B31">
         <v>8.9499999999999993</v>
       </c>
-      <c r="C31">
-        <v>1.331</v>
-      </c>
-      <c r="D31">
-        <v>11.51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>0.80600000000000005</v>
       </c>
       <c r="B32">
         <v>9.2200000000000006</v>
       </c>
-      <c r="C32">
-        <v>1.246</v>
-      </c>
-      <c r="D32">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>0.59899999999999998</v>
       </c>
       <c r="B33">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C33">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="D33">
-        <v>16.649999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>0.29399999999999998</v>
       </c>
       <c r="B34">
         <v>9.7899999999999991</v>
       </c>
-      <c r="C34">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="D34">
-        <v>19.100000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>0.16300000000000001</v>
       </c>
@@ -12079,7 +12980,7 @@
         <v>9.82</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>2.4E-2</v>
       </c>
@@ -12087,7 +12988,7 @@
         <v>9.83</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>2.3E-2</v>
       </c>
@@ -12095,7 +12996,7 @@
         <v>9.84</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>2.3E-2</v>
       </c>
@@ -12104,7 +13005,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12118,12 +13018,12 @@
       <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="6" max="6" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -12137,7 +13037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -12172,7 +13072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>3.7829999999999999</v>
       </c>
@@ -12212,7 +13112,7 @@
         <v>0.59303204685068789</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3.7650000000000001</v>
       </c>
@@ -12241,7 +13141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>3.734</v>
       </c>
@@ -12281,7 +13181,7 @@
         <v>0.63487882025632514</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>3.6859999999999999</v>
       </c>
@@ -12310,7 +13210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>3.6640000000000001</v>
       </c>
@@ -12350,7 +13250,7 @@
         <v>0.58965398910590094</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>3.65</v>
       </c>
@@ -12379,7 +13279,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>3.633</v>
       </c>
@@ -12405,7 +13305,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>3.6160000000000001</v>
       </c>
@@ -12431,7 +13331,7 @@
         <v>66.900000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>3.593</v>
       </c>
@@ -12457,7 +13357,7 @@
         <v>61.8</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>3.5630000000000002</v>
       </c>
@@ -12483,7 +13383,7 @@
         <v>57.7</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>3.536</v>
       </c>
@@ -12509,7 +13409,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>3.5129999999999999</v>
       </c>
@@ -12535,7 +13435,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>3.4849999999999999</v>
       </c>
@@ -12561,7 +13461,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>3.4380000000000002</v>
       </c>
@@ -12587,7 +13487,7 @@
         <v>42.6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>3.3929999999999998</v>
       </c>
@@ -12613,7 +13513,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>3.343</v>
       </c>
@@ -12639,7 +13539,7 @@
         <v>33.07</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>3.2890000000000001</v>
       </c>
@@ -12665,7 +13565,7 @@
         <v>30.58</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>3.1469999999999998</v>
       </c>
@@ -12691,7 +13591,7 @@
         <v>26.18</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>2.4380000000000002</v>
       </c>
@@ -12717,7 +13617,7 @@
         <v>25.08</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>0.159</v>
       </c>
@@ -12743,7 +13643,7 @@
         <v>22.15</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>0.158</v>
       </c>
@@ -12769,7 +13669,7 @@
         <v>19.420000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8">
       <c r="C24">
         <v>2.6309999999999998</v>
       </c>
@@ -12789,7 +13689,7 @@
         <v>18.170000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8">
       <c r="C25">
         <v>1.905</v>
       </c>
@@ -12809,7 +13709,7 @@
         <v>16.13</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8">
       <c r="C26">
         <v>1.2909999999999999</v>
       </c>
@@ -12829,7 +13729,7 @@
         <v>14.43</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8">
       <c r="C27">
         <v>0.34</v>
       </c>
@@ -12849,7 +13749,7 @@
         <v>13.31</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8">
       <c r="C28">
         <v>7.3999999999999996E-2</v>
       </c>
@@ -12869,7 +13769,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8">
       <c r="E29">
         <v>1.7889999999999999</v>
       </c>
@@ -12883,7 +13783,7 @@
         <v>11.58</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8">
       <c r="E30">
         <v>1.5960000000000001</v>
       </c>
@@ -12897,7 +13797,7 @@
         <v>10.65</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8">
       <c r="E31">
         <v>1.379</v>
       </c>
@@ -12911,7 +13811,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8">
       <c r="E32">
         <v>1.383</v>
       </c>
@@ -12925,7 +13825,7 @@
         <v>9.56</v>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:8">
       <c r="E33">
         <v>1.296</v>
       </c>
@@ -12939,7 +13839,7 @@
         <v>9.0299999999999994</v>
       </c>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:8">
       <c r="E34">
         <v>1.1419999999999999</v>
       </c>
@@ -12953,7 +13853,7 @@
         <v>8.58</v>
       </c>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:8">
       <c r="E35">
         <v>0.93200000000000005</v>
       </c>
@@ -12967,7 +13867,7 @@
         <v>8.1300000000000008</v>
       </c>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:8">
       <c r="E36">
         <v>0.79700000000000004</v>
       </c>
@@ -12981,7 +13881,7 @@
         <v>7.67</v>
       </c>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:8">
       <c r="E37">
         <v>0.751</v>
       </c>
@@ -12995,7 +13895,7 @@
         <v>7.07</v>
       </c>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:8">
       <c r="E38">
         <v>0.59499999999999997</v>
       </c>
@@ -13009,7 +13909,7 @@
         <v>6.54</v>
       </c>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:8">
       <c r="E39">
         <v>0.41499999999999998</v>
       </c>
@@ -13023,7 +13923,7 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:8">
       <c r="E40">
         <v>0.2</v>
       </c>
@@ -13037,7 +13937,7 @@
         <v>5.24</v>
       </c>
     </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:8">
       <c r="E41">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -13051,7 +13951,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:8">
       <c r="G42">
         <v>3.3730000000000002</v>
       </c>
@@ -13059,7 +13959,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:8">
       <c r="G43">
         <v>3.3690000000000002</v>
       </c>
@@ -13067,7 +13967,7 @@
         <v>4.08</v>
       </c>
     </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:8">
       <c r="G44">
         <v>3.3639999999999999</v>
       </c>
@@ -13075,7 +13975,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:8">
       <c r="G45">
         <v>3.3580000000000001</v>
       </c>
@@ -13084,7 +13984,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13098,9 +13997,9 @@
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -13110,7 +14009,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -13133,7 +14032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>3.843</v>
       </c>
@@ -13161,7 +14060,7 @@
         <v>0.58497580419044382</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3.8050000000000002</v>
       </c>
@@ -13178,7 +14077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>3.74</v>
       </c>
@@ -13206,7 +14105,7 @@
         <v>0.61594054120642217</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>3.657</v>
       </c>
@@ -13223,7 +14122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>3.6019999999999999</v>
       </c>
@@ -13237,7 +14136,7 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>3.5470000000000002</v>
       </c>
@@ -13251,7 +14150,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>3.492</v>
       </c>
@@ -13265,7 +14164,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>3.44</v>
       </c>
@@ -13279,7 +14178,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>3.391</v>
       </c>
@@ -13293,7 +14192,7 @@
         <v>7.07</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>3.35</v>
       </c>
@@ -13307,7 +14206,7 @@
         <v>8.23</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>3.319</v>
       </c>
@@ -13321,7 +14220,7 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>3.2879999999999998</v>
       </c>
@@ -13335,7 +14234,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>3.2570000000000001</v>
       </c>
@@ -13349,7 +14248,7 @@
         <v>12.13</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>3.2290000000000001</v>
       </c>
@@ -13363,7 +14262,7 @@
         <v>13.79</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>3.2050000000000001</v>
       </c>
@@ -13377,7 +14276,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>3.18</v>
       </c>
@@ -13391,7 +14290,7 @@
         <v>17.670000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>3.1589999999999998</v>
       </c>
@@ -13405,7 +14304,7 @@
         <v>19.84</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>3.133</v>
       </c>
@@ -13419,7 +14318,7 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>3.11</v>
       </c>
@@ -13433,7 +14332,7 @@
         <v>22.31</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>3.0779999999999998</v>
       </c>
@@ -13447,7 +14346,7 @@
         <v>22.49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>3.048</v>
       </c>
@@ -13461,7 +14360,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>2.8679999999999999</v>
       </c>
@@ -13475,7 +14374,7 @@
         <v>27.85</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>1.875</v>
       </c>
@@ -13489,7 +14388,7 @@
         <v>27.64</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>0.77</v>
       </c>
@@ -13503,7 +14402,7 @@
         <v>27.44</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>0.245</v>
       </c>
@@ -13511,7 +14410,7 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>0.25700000000000001</v>
       </c>
@@ -13520,7 +14419,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13534,9 +14432,9 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -13552,7 +14450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -13588,7 +14486,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>3.9009999999999998</v>
       </c>
@@ -13628,7 +14526,7 @@
         <v>0.54137743076152833</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3.871</v>
       </c>
@@ -13658,7 +14556,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>3.8380000000000001</v>
       </c>
@@ -13698,7 +14596,7 @@
         <v>0.68909616463999879</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>3.81</v>
       </c>
@@ -13728,7 +14626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>3.778</v>
       </c>
@@ -13754,7 +14652,7 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>3.7490000000000001</v>
       </c>
@@ -13780,7 +14678,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>3.7170000000000001</v>
       </c>
@@ -13806,7 +14704,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>3.6850000000000001</v>
       </c>
@@ -13832,7 +14730,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>3.6549999999999998</v>
       </c>
@@ -13858,7 +14756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>3.6219999999999999</v>
       </c>
@@ -13884,7 +14782,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>3.597</v>
       </c>
@@ -13910,7 +14808,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>3.5569999999999999</v>
       </c>
@@ -13936,7 +14834,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>3.516</v>
       </c>
@@ -13962,7 +14860,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>3.456</v>
       </c>
@@ -13988,7 +14886,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>3.387</v>
       </c>
@@ -14014,7 +14912,7 @@
         <v>30.97</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>2.923</v>
       </c>
@@ -14040,7 +14938,7 @@
         <v>27.71</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>2.036</v>
       </c>
@@ -14066,7 +14964,7 @@
         <v>25.28</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2.0190000000000001</v>
       </c>
@@ -14092,7 +14990,7 @@
         <v>22.51</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>1.3660000000000001</v>
       </c>
@@ -14118,7 +15016,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>0.252</v>
       </c>
@@ -14138,7 +15036,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>0.249</v>
       </c>
@@ -14158,7 +15056,7 @@
         <v>15.29</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>0.23699999999999999</v>
       </c>
@@ -14178,7 +15076,7 @@
         <v>13.97</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8">
       <c r="E25">
         <v>1.444</v>
       </c>
@@ -14192,7 +15090,7 @@
         <v>11.97</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8">
       <c r="E26">
         <v>1.373</v>
       </c>
@@ -14206,7 +15104,7 @@
         <v>11.29</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8">
       <c r="E27">
         <v>1.175</v>
       </c>
@@ -14220,7 +15118,7 @@
         <v>10.41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8">
       <c r="E28">
         <v>0.98799999999999999</v>
       </c>
@@ -14234,7 +15132,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8">
       <c r="E29">
         <v>0.77400000000000002</v>
       </c>
@@ -14248,7 +15146,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8">
       <c r="E30">
         <v>0.60899999999999999</v>
       </c>
@@ -14262,7 +15160,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8">
       <c r="E31">
         <v>0.34200000000000003</v>
       </c>
@@ -14276,7 +15174,7 @@
         <v>6.98</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8">
       <c r="E32">
         <v>0.17299999999999999</v>
       </c>
@@ -14290,7 +15188,7 @@
         <v>6.65</v>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:8">
       <c r="E33">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -14304,7 +15202,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:8">
       <c r="E34">
         <v>0.03</v>
       </c>
@@ -14318,7 +15216,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:8">
       <c r="G35">
         <v>3.4620000000000002</v>
       </c>
@@ -14326,7 +15224,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:8">
       <c r="G36">
         <v>3.4590000000000001</v>
       </c>
@@ -14334,7 +15232,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:8">
       <c r="G37">
         <v>3.4529999999999998</v>
       </c>
@@ -14342,7 +15240,7 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:8">
       <c r="G38">
         <v>3.448</v>
       </c>
@@ -14350,7 +15248,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:8">
       <c r="G39">
         <v>3.4430000000000001</v>
       </c>
@@ -14358,7 +15256,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:8">
       <c r="G40">
         <v>3.4390000000000001</v>
       </c>
@@ -14366,7 +15264,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:8">
       <c r="G41">
         <v>3.4329999999999998</v>
       </c>
@@ -14374,7 +15272,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:8">
       <c r="G42">
         <v>3.4239999999999999</v>
       </c>
@@ -14382,7 +15280,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:8">
       <c r="G43">
         <v>3.419</v>
       </c>
@@ -14391,9 +15289,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/solariv.xlsx
+++ b/solariv.xlsx
@@ -1,35 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Katie/Documents/winter 2020/aa 236/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zchen\OneDrive - Leland Stanford Junior University\AA236A\solar-characterization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58571DBE-4CAC-1245-B5BB-A3E1E2697A8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD8A5A4-D4F5-4424-9362-4549ADBE0C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23140" windowHeight="14220" xr2:uid="{27B36DB9-51A1-AA4A-8D2C-F1920E341D65}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{27B36DB9-51A1-AA4A-8D2C-F1920E341D65}"/>
   </bookViews>
   <sheets>
     <sheet name="Single Cell" sheetId="1" r:id="rId1"/>
-    <sheet name="-Y" sheetId="5" r:id="rId2"/>
-    <sheet name="X" sheetId="2" r:id="rId3"/>
-    <sheet name="+Y" sheetId="3" r:id="rId4"/>
-    <sheet name="Z" sheetId="4" r:id="rId5"/>
+    <sheet name="600W setup" sheetId="8" r:id="rId2"/>
+    <sheet name="-Y" sheetId="7" r:id="rId3"/>
+    <sheet name="X" sheetId="2" r:id="rId4"/>
+    <sheet name="+Y" sheetId="3" r:id="rId5"/>
+    <sheet name="Z" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
   <si>
     <t>Voltage (V)</t>
   </si>
@@ -127,16 +136,28 @@
     <t>Halogen (600 W)</t>
   </si>
   <si>
-    <t>Halogen (600 W) - 36"</t>
+    <t>Indoor (filter)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Halogen (600 W) - 28"</t>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Halogen (600 W) - 6"</t>
+    <t>9 cm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Halogen (600 W) - 12"</t>
+    <t>Voltage(V)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current(mA)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 cm (vertical closest)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -144,21 +165,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -182,13 +210,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -206,7 +237,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -268,7 +299,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2029,808 +2060,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0A33-3547-BBE5-AEBD418058EC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:v>Halogen Lamp (600 W) - 36"</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Single Cell'!$Q$3:$Q$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>1.1890000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.157</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.1020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0529999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.008</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.96899999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92900000000000005</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.92800000000000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.871</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.82599999999999996</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.78300000000000003</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.74299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.70399999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.66100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.65800000000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.629</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.57899999999999996</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.52700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.52800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.46100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.38600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.38600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.312</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.23899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Single Cell'!$R$3:$R$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.36</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.37</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.37</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.38</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.38</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.39</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.41</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.41</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC51-5B44-841D-85E56B7CC202}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>Halogen Lamp (600 W) - 28"</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Single Cell'!$S$3:$S$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1.573</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5640000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.516</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.492</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.448</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3660000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.321</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.254</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.159</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.0940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0249999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.88700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.84099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.67200000000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.49099999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.39900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.32800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.23599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.121</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.3999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Single Cell'!$T$3:$T$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1.64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.77</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.91</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.67</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.76</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.84</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.88</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.91</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.93</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.94</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.96</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.97</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.97</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.97</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.98</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.98</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.97</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.97</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.98</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.98</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC51-5B44-841D-85E56B7CC202}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:tx>
-            <c:v>Halogen Lamp (600 W) - 12"</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Single Cell'!$U$3:$U$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1.7669999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7529999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7390000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.726</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.71</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6910000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6679999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.637</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5569999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.4790000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.359</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1970000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.95899999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.95199999999999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.79900000000000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.71099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.67500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.40300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.21199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.13400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Single Cell'!$V$3:$V$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>1.84</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.04</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.73</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.8099999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.57</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.33</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.82</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.19</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.22</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.22</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.23</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.24</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>7.25</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BC51-5B44-841D-85E56B7CC202}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:tx>
-            <c:v>Halogen Lamp (600 W) - 6"</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Single Cell'!$W$3:$W$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.8160000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.792</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7909999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.776</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7549999999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.734</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.7010000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.681</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.6579999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.631</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.6040000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.5760000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.5109999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3660000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.1479999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.73499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.5999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.5000000000000003E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Single Cell'!$X$3:$X$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1.89</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.94</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.06</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.36</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.73</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.48</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.66</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.49</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.15</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.92</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.58</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.98</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>12.51</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>13.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>13.34</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13.35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BC51-5B44-841D-85E56B7CC202}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2917,7 +2146,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2955,7 +2184,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1012799744"/>
@@ -3004,13 +2233,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Currnet</a:t>
+                  <a:t> </a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (mA)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3039,7 +2263,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3077,7 +2301,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1012208512"/>
@@ -3119,7 +2343,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3156,7 +2380,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3170,7 +2394,745 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>600W</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> setup</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'600W setup'!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>9 cm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Current(mA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'600W setup'!$A$3:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.788</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.645</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.124</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'600W setup'!$B$3:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.77</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB6D-4DCA-9ADA-44F4BFDF7C87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'600W setup'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6 cm (vertical closest)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'600W setup'!$C$3:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1.7609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.774</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.82</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.778</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.744</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.2609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.27300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.2999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'600W setup'!$D$3:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2.0099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.97</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10.78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13.55</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.89</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>29.34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001C-AB6D-4DCA-9ADA-44F4BFDF7C87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1048078256"/>
+        <c:axId val="1268459728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1048078256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Voltage (V)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1268459728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1268459728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Currnet (mA)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1048078256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3232,7 +3194,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3247,11 +3209,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'-Y'!$B$2</c:f>
+              <c:f>'-Y'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Current (mA)</c:v>
+                  <c:v>Indoor (w/ filter)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3517,7 +3479,262 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D55C-E447-BE45-B73B6D19350F}"/>
+              <c16:uniqueId val="{00000000-AD3D-4CAA-B05A-F7E49FB54B79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'-Y'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Indoor (filter)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'-Y'!$C$3:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>3.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.452</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4380000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.4009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.319</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2959999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.0619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9209999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.851</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.633</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.411</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.331</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.246</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'-Y'!$D$3:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.32</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.61</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.59</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.87</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.09</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.34</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.5399999999999991</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.65</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.58</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.51</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>16.649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD3D-4CAA-B05A-F7E49FB54B79}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3587,7 +3804,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="81873743"/>
@@ -3666,7 +3883,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3704,7 +3921,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="83311791"/>
@@ -3719,6 +3936,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3752,7 +4000,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3763,10 +4011,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3828,7 +4076,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4915,7 +5163,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4953,7 +5201,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="972957904"/>
@@ -5032,7 +5280,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5070,7 +5318,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="972583664"/>
@@ -5112,7 +5360,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5149,7 +5397,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5160,10 +5408,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5225,7 +5473,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5728,7 +5976,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5766,7 +6014,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1012997056"/>
@@ -5845,7 +6093,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5883,7 +6131,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1014642928"/>
@@ -5925,7 +6173,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5962,7 +6210,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5973,10 +6221,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6038,7 +6286,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7035,7 +7283,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7073,7 +7321,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="972498512"/>
@@ -7152,7 +7400,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="zh-CN"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7190,7 +7438,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1023635088"/>
@@ -7232,7 +7480,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7269,7 +7517,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7480,6 +7728,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -10060,20 +10348,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10105,23 +10909,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>92074</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F5EB9F-0DCF-A74A-A1D8-77631798ED7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C7EDA3-EC05-4F51-A75A-3FD30B77AEB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10143,6 +10947,49 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>186044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>61717</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C58C6E1-26CE-4B50-871F-E7BB1743213D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10183,7 +11030,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10224,7 +11071,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10266,7 +11113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10562,20 +11409,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1500A12-A21D-A64D-BED6-2F488BF871D9}">
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U7" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView topLeftCell="O15" zoomScale="92" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="24" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.84375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -10600,47 +11446,34 @@
         <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P1" s="1"/>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
       <c r="S1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" s="1"/>
-      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1">
+      <c r="T1">
         <f>I17*J17</f>
         <v>26.102650000000004</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="U1" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="V1" t="s">
         <v>25</v>
       </c>
-      <c r="AE1">
+      <c r="W1">
         <v>30.7</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="AG1">
-        <f>AB1/AE1</f>
+      <c r="Y1">
+        <f>T1/W1</f>
         <v>0.85024918566775265</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -10689,42 +11522,18 @@
       <c r="P2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="S2" t="s">
         <v>24</v>
       </c>
-      <c r="AB2" s="2">
-        <f>AB1/(I3*J26)</f>
+      <c r="T2" s="2">
+        <f>T1/(I3*J26)</f>
         <v>0.64087083786214438</v>
       </c>
-      <c r="AE2">
+      <c r="W2">
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1.82</v>
       </c>
@@ -10773,47 +11582,23 @@
       <c r="P3">
         <v>50.8</v>
       </c>
-      <c r="Q3">
-        <v>1.1890000000000001</v>
-      </c>
-      <c r="R3">
-        <v>1.24</v>
-      </c>
-      <c r="S3">
-        <v>1.573</v>
+      <c r="S3" t="s">
+        <v>26</v>
       </c>
       <c r="T3">
-        <v>1.64</v>
-      </c>
-      <c r="U3">
-        <v>1.7669999999999999</v>
-      </c>
-      <c r="V3">
-        <v>1.84</v>
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="U3" t="s">
+        <v>28</v>
       </c>
       <c r="W3">
-        <v>1.8160000000000001</v>
-      </c>
-      <c r="X3">
-        <v>1.89</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB3">
-        <v>1.4350000000000001</v>
-      </c>
-      <c r="AC3" t="s">
+        <v>1.67</v>
+      </c>
+      <c r="X3" t="s">
         <v>28</v>
       </c>
-      <c r="AE3">
-        <v>1.67</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1.806</v>
       </c>
@@ -10862,47 +11647,23 @@
       <c r="P4">
         <v>50.8</v>
       </c>
-      <c r="Q4">
-        <v>1.19</v>
-      </c>
-      <c r="R4">
-        <v>1.24</v>
-      </c>
-      <c r="S4">
-        <v>1.5640000000000001</v>
+      <c r="S4" t="s">
+        <v>27</v>
       </c>
       <c r="T4">
-        <v>1.65</v>
-      </c>
-      <c r="U4">
-        <v>1.7529999999999999</v>
-      </c>
-      <c r="V4">
-        <v>1.89</v>
+        <v>18.190000000000001</v>
+      </c>
+      <c r="U4" t="s">
+        <v>29</v>
       </c>
       <c r="W4">
-        <v>1.792</v>
-      </c>
-      <c r="X4">
-        <v>1.94</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB4">
-        <v>18.190000000000001</v>
-      </c>
-      <c r="AC4" t="s">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="X4" t="s">
         <v>29</v>
       </c>
-      <c r="AE4">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1.7909999999999999</v>
       </c>
@@ -10951,32 +11712,8 @@
       <c r="P5">
         <v>51.2</v>
       </c>
-      <c r="Q5">
-        <v>1.157</v>
-      </c>
-      <c r="R5">
-        <v>1.26</v>
-      </c>
-      <c r="S5">
-        <v>1.54</v>
-      </c>
-      <c r="T5">
-        <v>1.77</v>
-      </c>
-      <c r="U5">
-        <v>1.7390000000000001</v>
-      </c>
-      <c r="V5">
-        <v>2.04</v>
-      </c>
-      <c r="W5">
-        <v>1.7909999999999999</v>
-      </c>
-      <c r="X5">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1.778</v>
       </c>
@@ -11025,32 +11762,8 @@
       <c r="P6">
         <v>51.3</v>
       </c>
-      <c r="Q6">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="R6">
-        <v>1.3</v>
-      </c>
-      <c r="S6">
-        <v>1.516</v>
-      </c>
-      <c r="T6">
-        <v>1.91</v>
-      </c>
-      <c r="U6">
-        <v>1.726</v>
-      </c>
-      <c r="V6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W6">
-        <v>1.776</v>
-      </c>
-      <c r="X6">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1.7649999999999999</v>
       </c>
@@ -11099,32 +11812,8 @@
       <c r="P7">
         <v>50.7</v>
       </c>
-      <c r="Q7">
-        <v>1.0529999999999999</v>
-      </c>
-      <c r="R7">
-        <v>1.32</v>
-      </c>
-      <c r="S7">
-        <v>1.492</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>1.71</v>
-      </c>
-      <c r="V7">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="W7">
-        <v>1.7549999999999999</v>
-      </c>
-      <c r="X7">
-        <v>2.36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1.752</v>
       </c>
@@ -11173,32 +11862,8 @@
       <c r="P8">
         <v>48.8</v>
       </c>
-      <c r="Q8">
-        <v>1.008</v>
-      </c>
-      <c r="R8">
-        <v>1.34</v>
-      </c>
-      <c r="S8">
-        <v>1.448</v>
-      </c>
-      <c r="T8">
-        <v>2.19</v>
-      </c>
-      <c r="U8">
-        <v>1.6910000000000001</v>
-      </c>
-      <c r="V8">
-        <v>2.73</v>
-      </c>
-      <c r="W8">
-        <v>1.734</v>
-      </c>
-      <c r="X8">
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1.7370000000000001</v>
       </c>
@@ -11247,32 +11912,8 @@
       <c r="P9">
         <v>45.4</v>
       </c>
-      <c r="Q9">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="R9">
-        <v>1.36</v>
-      </c>
-      <c r="S9">
-        <v>1.3660000000000001</v>
-      </c>
-      <c r="T9">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="U9">
-        <v>1.6679999999999999</v>
-      </c>
-      <c r="V9">
-        <v>3.1</v>
-      </c>
-      <c r="W9">
-        <v>1.7190000000000001</v>
-      </c>
-      <c r="X9">
-        <v>3.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1.722</v>
       </c>
@@ -11321,32 +11962,8 @@
       <c r="P10">
         <v>43.7</v>
       </c>
-      <c r="Q10">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="R10">
-        <v>1.37</v>
-      </c>
-      <c r="S10">
-        <v>1.321</v>
-      </c>
-      <c r="T10">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="U10">
-        <v>1.637</v>
-      </c>
-      <c r="V10">
-        <v>3.68</v>
-      </c>
-      <c r="W10">
-        <v>1.7010000000000001</v>
-      </c>
-      <c r="X10">
-        <v>3.48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1.706</v>
       </c>
@@ -11395,32 +12012,8 @@
       <c r="P11">
         <v>32.200000000000003</v>
       </c>
-      <c r="Q11">
-        <v>0.92800000000000005</v>
-      </c>
-      <c r="R11">
-        <v>1.37</v>
-      </c>
-      <c r="S11">
-        <v>1.254</v>
-      </c>
-      <c r="T11">
-        <v>2.67</v>
-      </c>
-      <c r="U11">
-        <v>1.5569999999999999</v>
-      </c>
-      <c r="V11">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="W11">
-        <v>1.681</v>
-      </c>
-      <c r="X11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1.6859999999999999</v>
       </c>
@@ -11469,32 +12062,8 @@
       <c r="P12">
         <v>24.42</v>
       </c>
-      <c r="Q12">
-        <v>0.871</v>
-      </c>
-      <c r="R12">
-        <v>1.38</v>
-      </c>
-      <c r="S12">
-        <v>1.159</v>
-      </c>
-      <c r="T12">
-        <v>2.76</v>
-      </c>
-      <c r="U12">
-        <v>1.4790000000000001</v>
-      </c>
-      <c r="V12">
-        <v>5.57</v>
-      </c>
-      <c r="W12">
-        <v>1.6579999999999999</v>
-      </c>
-      <c r="X12">
-        <v>4.66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1.6679999999999999</v>
       </c>
@@ -11543,32 +12112,8 @@
       <c r="P13">
         <v>19.079999999999998</v>
       </c>
-      <c r="Q13">
-        <v>0.87</v>
-      </c>
-      <c r="R13">
-        <v>1.38</v>
-      </c>
-      <c r="S13">
-        <v>1.0940000000000001</v>
-      </c>
-      <c r="T13">
-        <v>2.84</v>
-      </c>
-      <c r="U13">
-        <v>1.359</v>
-      </c>
-      <c r="V13">
-        <v>6.33</v>
-      </c>
-      <c r="W13">
-        <v>1.631</v>
-      </c>
-      <c r="X13">
-        <v>5.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1.651</v>
       </c>
@@ -11617,32 +12162,8 @@
       <c r="P14">
         <v>16.27</v>
       </c>
-      <c r="Q14">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="R14">
-        <v>1.39</v>
-      </c>
-      <c r="S14">
-        <v>1.0249999999999999</v>
-      </c>
-      <c r="T14">
-        <v>2.88</v>
-      </c>
-      <c r="U14">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="V14">
-        <v>6.82</v>
-      </c>
-      <c r="W14">
-        <v>1.6040000000000001</v>
-      </c>
-      <c r="X14">
-        <v>6.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1.623</v>
       </c>
@@ -11691,32 +12212,8 @@
       <c r="P15">
         <v>13.9</v>
       </c>
-      <c r="Q15">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="R15">
-        <v>1.4</v>
-      </c>
-      <c r="S15">
-        <v>0.95</v>
-      </c>
-      <c r="T15">
-        <v>2.91</v>
-      </c>
-      <c r="U15">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="V15">
-        <v>7.13</v>
-      </c>
-      <c r="W15">
-        <v>1.5760000000000001</v>
-      </c>
-      <c r="X15">
-        <v>6.92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1.583</v>
       </c>
@@ -11765,32 +12262,11 @@
       <c r="P16">
         <v>8.98</v>
       </c>
-      <c r="Q16">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="R16">
-        <v>1.4</v>
-      </c>
-      <c r="S16">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="T16">
-        <v>2.93</v>
-      </c>
-      <c r="U16">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="V16">
-        <v>7.13</v>
-      </c>
-      <c r="W16">
-        <v>1.5109999999999999</v>
-      </c>
-      <c r="X16">
-        <v>8.58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Q16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1.55</v>
       </c>
@@ -11833,32 +12309,8 @@
       <c r="P17">
         <v>7.86</v>
       </c>
-      <c r="Q17">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="R17">
-        <v>1.41</v>
-      </c>
-      <c r="S17">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="T17">
-        <v>2.94</v>
-      </c>
-      <c r="U17">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="V17">
-        <v>7.19</v>
-      </c>
-      <c r="W17">
-        <v>1.3660000000000001</v>
-      </c>
-      <c r="X17">
-        <v>10.98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1.4990000000000001</v>
       </c>
@@ -11901,32 +12353,8 @@
       <c r="P18">
         <v>6.8</v>
       </c>
-      <c r="Q18">
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="R18">
-        <v>1.41</v>
-      </c>
-      <c r="S18">
-        <v>0.76</v>
-      </c>
-      <c r="T18">
-        <v>2.96</v>
-      </c>
-      <c r="U18">
-        <v>0.71099999999999997</v>
-      </c>
-      <c r="V18">
-        <v>7.22</v>
-      </c>
-      <c r="W18">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="X18">
-        <v>12.51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1.38</v>
       </c>
@@ -11969,32 +12397,8 @@
       <c r="P19">
         <v>5.7</v>
       </c>
-      <c r="Q19">
-        <v>0.65800000000000003</v>
-      </c>
-      <c r="R19">
-        <v>1.4</v>
-      </c>
-      <c r="S19">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="T19">
-        <v>2.97</v>
-      </c>
-      <c r="U19">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="V19">
-        <v>7.22</v>
-      </c>
-      <c r="W19">
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="X19">
-        <v>13.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1.272</v>
       </c>
@@ -12037,32 +12441,8 @@
       <c r="P20">
         <v>5.22</v>
       </c>
-      <c r="Q20">
-        <v>0.629</v>
-      </c>
-      <c r="R20">
-        <v>1.4</v>
-      </c>
-      <c r="S20">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="T20">
-        <v>2.97</v>
-      </c>
-      <c r="U20">
-        <v>0.40300000000000002</v>
-      </c>
-      <c r="V20">
-        <v>7.23</v>
-      </c>
-      <c r="W20">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="X20">
-        <v>13.34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.89200000000000002</v>
       </c>
@@ -12105,32 +12485,8 @@
       <c r="P21">
         <v>4.84</v>
       </c>
-      <c r="Q21">
-        <v>0.57899999999999996</v>
-      </c>
-      <c r="R21">
-        <v>1.4</v>
-      </c>
-      <c r="S21">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="T21">
-        <v>2.97</v>
-      </c>
-      <c r="U21">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="V21">
-        <v>7.24</v>
-      </c>
-      <c r="W21">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="X21">
-        <v>13.35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.499</v>
       </c>
@@ -12173,26 +12529,8 @@
       <c r="P22">
         <v>4.3</v>
       </c>
-      <c r="Q22">
-        <v>0.52700000000000002</v>
-      </c>
-      <c r="R22">
-        <v>1.4</v>
-      </c>
-      <c r="S22">
-        <v>0.39900000000000002</v>
-      </c>
-      <c r="T22">
-        <v>2.98</v>
-      </c>
-      <c r="U22">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="V22">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4.8000000000000001E-2</v>
       </c>
@@ -12235,26 +12573,8 @@
       <c r="P23">
         <v>3.69</v>
       </c>
-      <c r="Q23">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="R23">
-        <v>1.4</v>
-      </c>
-      <c r="S23">
-        <v>0.32800000000000001</v>
-      </c>
-      <c r="T23">
-        <v>2.98</v>
-      </c>
-      <c r="U23">
-        <v>1.9E-2</v>
-      </c>
-      <c r="V23">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>4.5999999999999999E-2</v>
       </c>
@@ -12297,26 +12617,8 @@
       <c r="P24">
         <v>3.34</v>
       </c>
-      <c r="Q24">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="R24">
-        <v>1.41</v>
-      </c>
-      <c r="S24">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="T24">
-        <v>2.97</v>
-      </c>
-      <c r="U24">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="V24">
-        <v>7.24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E25">
         <v>0.78900000000000003</v>
       </c>
@@ -12353,20 +12655,8 @@
       <c r="P25">
         <v>2.93</v>
       </c>
-      <c r="Q25">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="R25">
-        <v>1.41</v>
-      </c>
-      <c r="S25">
-        <v>0.121</v>
-      </c>
-      <c r="T25">
-        <v>2.97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E26">
         <v>0.59799999999999998</v>
       </c>
@@ -12403,20 +12693,8 @@
       <c r="P26">
         <v>2.7</v>
       </c>
-      <c r="Q26">
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="R26">
-        <v>1.41</v>
-      </c>
-      <c r="S26">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="T26">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E27">
         <v>0.55500000000000005</v>
       </c>
@@ -12447,20 +12725,8 @@
       <c r="P27">
         <v>2.42</v>
       </c>
-      <c r="Q27">
-        <v>0.312</v>
-      </c>
-      <c r="R27">
-        <v>1.41</v>
-      </c>
-      <c r="S27">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="T27">
-        <v>2.98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E28">
         <v>0.38700000000000001</v>
       </c>
@@ -12491,14 +12757,8 @@
       <c r="P28">
         <v>2.19</v>
       </c>
-      <c r="Q28">
-        <v>0.23899999999999999</v>
-      </c>
-      <c r="R28">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E29">
         <v>0.28499999999999998</v>
       </c>
@@ -12523,14 +12783,8 @@
       <c r="P29">
         <v>1.93</v>
       </c>
-      <c r="Q29">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="R29">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E30">
         <v>0.187</v>
       </c>
@@ -12556,7 +12810,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E31">
         <v>0.10299999999999999</v>
       </c>
@@ -12582,7 +12836,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E32">
         <v>3.1E-2</v>
       </c>
@@ -12608,7 +12862,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="33" spans="5:16">
+    <row r="33" spans="5:16" x14ac:dyDescent="0.35">
       <c r="E33">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -12634,7 +12888,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="34" spans="5:16">
+    <row r="34" spans="5:16" x14ac:dyDescent="0.35">
       <c r="G34">
         <v>1.718</v>
       </c>
@@ -12648,7 +12902,7 @@
         <v>11.42</v>
       </c>
     </row>
-    <row r="35" spans="5:16">
+    <row r="35" spans="5:16" x14ac:dyDescent="0.35">
       <c r="G35">
         <v>1.7170000000000001</v>
       </c>
@@ -12662,7 +12916,7 @@
         <v>11.43</v>
       </c>
     </row>
-    <row r="36" spans="5:16">
+    <row r="36" spans="5:16" x14ac:dyDescent="0.35">
       <c r="G36">
         <v>1.716</v>
       </c>
@@ -12676,7 +12930,7 @@
         <v>11.44</v>
       </c>
     </row>
-    <row r="37" spans="5:16">
+    <row r="37" spans="5:16" x14ac:dyDescent="0.35">
       <c r="G37">
         <v>1.714</v>
       </c>
@@ -12685,359 +12939,319 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C3:D16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:D16">
     <sortCondition descending="1" ref="C3"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC01E281-677C-4248-8880-C2A0157AB7EF}">
-  <dimension ref="A1:B38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C911F7F6-3F9C-462A-BB4B-4F261DB77BAF}">
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="13.921875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>2.548</v>
+        <v>1.788</v>
       </c>
       <c r="B3">
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>1.86</v>
+      </c>
+      <c r="C3">
+        <v>1.7609999999999999</v>
+      </c>
+      <c r="D3">
+        <v>2.0099999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>2.5499999999999998</v>
+        <v>1.7629999999999999</v>
       </c>
       <c r="B4">
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>1.97</v>
+      </c>
+      <c r="C4">
+        <v>1.774</v>
+      </c>
+      <c r="D4">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>2.504</v>
+        <v>1.7470000000000001</v>
       </c>
       <c r="B5">
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="C5">
+        <v>1.78</v>
+      </c>
+      <c r="D5">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>2.4279999999999999</v>
+        <v>1.7330000000000001</v>
       </c>
       <c r="B6">
-        <v>2.69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>2.4</v>
+      </c>
+      <c r="C6">
+        <v>1.7909999999999999</v>
+      </c>
+      <c r="D6">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>2.3519999999999999</v>
+        <v>1.7170000000000001</v>
       </c>
       <c r="B7">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>2.74</v>
+      </c>
+      <c r="C7">
+        <v>1.794</v>
+      </c>
+      <c r="D7">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>2.3010000000000002</v>
+        <v>1.7010000000000001</v>
       </c>
       <c r="B8">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>3.1</v>
+      </c>
+      <c r="C8">
+        <v>1.8</v>
+      </c>
+      <c r="D8">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>2.214</v>
+        <v>1.68</v>
       </c>
       <c r="B9">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>3.67</v>
+      </c>
+      <c r="C9">
+        <v>1.8049999999999999</v>
+      </c>
+      <c r="D9">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2.0619999999999998</v>
+        <v>1.645</v>
       </c>
       <c r="B10">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="C10">
+        <v>1.8069999999999999</v>
+      </c>
+      <c r="D10">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>1.9530000000000001</v>
+        <v>1.585</v>
       </c>
       <c r="B11">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>6.14</v>
+      </c>
+      <c r="C11">
+        <v>1.8109999999999999</v>
+      </c>
+      <c r="D11">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>1.903</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="B12">
-        <v>2.73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>7.91</v>
+      </c>
+      <c r="C12">
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="D12">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>1.8560000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="B13">
-        <v>2.74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>9.77</v>
+      </c>
+      <c r="C13">
+        <v>1.82</v>
+      </c>
+      <c r="D13">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>1.8109999999999999</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="B14">
-        <v>2.74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="C14">
+        <v>1.8169999999999999</v>
+      </c>
+      <c r="D14">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>1.754</v>
+        <v>0.124</v>
       </c>
       <c r="B15">
-        <v>2.74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>10.15</v>
+      </c>
+      <c r="C15">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="D15">
+        <v>10.78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>1.681</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="B16">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>1.607</v>
-      </c>
-      <c r="B17">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>1.5649999999999999</v>
-      </c>
-      <c r="B18">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1.508</v>
-      </c>
-      <c r="B19">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1.4730000000000001</v>
-      </c>
-      <c r="B20">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>1.454</v>
-      </c>
-      <c r="B21">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1.421</v>
-      </c>
-      <c r="B22">
-        <v>2.87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>1.377</v>
-      </c>
-      <c r="B23">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>1.333</v>
-      </c>
-      <c r="B24">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>1.3009999999999999</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>1.2370000000000001</v>
-      </c>
-      <c r="B26">
-        <v>5.15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>1.155</v>
-      </c>
-      <c r="B27">
-        <v>6.48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>1.1220000000000001</v>
-      </c>
-      <c r="B28">
-        <v>6.91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>1.077</v>
-      </c>
-      <c r="B29">
-        <v>7.46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>0.999</v>
-      </c>
-      <c r="B30">
-        <v>8.17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>0.873</v>
-      </c>
-      <c r="B31">
-        <v>8.9499999999999993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="B32">
-        <v>9.2200000000000006</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>0.59899999999999998</v>
-      </c>
-      <c r="B33">
-        <v>9.6300000000000008</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="B34">
-        <v>9.7899999999999991</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="B35">
-        <v>9.82</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>2.4E-2</v>
-      </c>
-      <c r="B36">
-        <v>9.83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>2.3E-2</v>
-      </c>
-      <c r="B37">
-        <v>9.84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>2.3E-2</v>
-      </c>
-      <c r="B38">
-        <v>9.85</v>
+        <v>10.18</v>
+      </c>
+      <c r="C16">
+        <v>1.778</v>
+      </c>
+      <c r="D16">
+        <v>13.55</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>1.744</v>
+      </c>
+      <c r="D17">
+        <v>16.89</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="D18">
+        <v>24.75</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>1.2609999999999999</v>
+      </c>
+      <c r="D19">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="D20">
+        <v>29.34</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="D21">
+        <v>29.44</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227491E2-4243-FE44-ACAF-7DA0D3D74BD1}">
-  <dimension ref="A1:R45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BB7D24-8695-4787-9E53-190EF6436A1F}">
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView zoomScale="57" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -13050,946 +13264,1475 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>3.7829999999999999</v>
+        <v>2.548</v>
       </c>
       <c r="B3">
-        <v>3.96</v>
+        <v>2.65</v>
       </c>
       <c r="C3">
-        <v>3.6709999999999998</v>
+        <v>3.48</v>
       </c>
       <c r="D3">
-        <v>3.84</v>
-      </c>
-      <c r="E3">
-        <v>3.2589999999999999</v>
-      </c>
-      <c r="F3">
-        <v>3.41</v>
-      </c>
-      <c r="G3">
-        <v>0.17100000000000001</v>
-      </c>
-      <c r="H3">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="O3" t="s">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="B4">
+        <v>2.66</v>
+      </c>
+      <c r="C4">
+        <v>3.452</v>
+      </c>
+      <c r="D4">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2.504</v>
+      </c>
+      <c r="B5">
+        <v>2.66</v>
+      </c>
+      <c r="C5">
+        <v>3.4380000000000002</v>
+      </c>
+      <c r="D5">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2.4279999999999999</v>
+      </c>
+      <c r="B6">
+        <v>2.69</v>
+      </c>
+      <c r="C6">
+        <v>3.419</v>
+      </c>
+      <c r="D6">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="B7">
+        <v>2.71</v>
+      </c>
+      <c r="C7">
+        <v>3.4009999999999998</v>
+      </c>
+      <c r="D7">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2.3010000000000002</v>
+      </c>
+      <c r="B8">
+        <v>2.72</v>
+      </c>
+      <c r="C8">
+        <v>3.3820000000000001</v>
+      </c>
+      <c r="D8">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2.214</v>
+      </c>
+      <c r="B9">
+        <v>2.72</v>
+      </c>
+      <c r="C9">
+        <v>3.3639999999999999</v>
+      </c>
+      <c r="D9">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2.0619999999999998</v>
+      </c>
+      <c r="B10">
+        <v>2.72</v>
+      </c>
+      <c r="C10">
+        <v>3.3420000000000001</v>
+      </c>
+      <c r="D10">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1.9530000000000001</v>
+      </c>
+      <c r="B11">
+        <v>2.72</v>
+      </c>
+      <c r="C11">
+        <v>3.319</v>
+      </c>
+      <c r="D11">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1.903</v>
+      </c>
+      <c r="B12">
+        <v>2.73</v>
+      </c>
+      <c r="C12">
+        <v>3.2959999999999998</v>
+      </c>
+      <c r="D12">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1.8560000000000001</v>
+      </c>
+      <c r="B13">
+        <v>2.74</v>
+      </c>
+      <c r="C13">
+        <v>3.2749999999999999</v>
+      </c>
+      <c r="D13">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1.8109999999999999</v>
+      </c>
+      <c r="B14">
+        <v>2.74</v>
+      </c>
+      <c r="C14">
+        <v>3.2530000000000001</v>
+      </c>
+      <c r="D14">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1.754</v>
+      </c>
+      <c r="B15">
+        <v>2.74</v>
+      </c>
+      <c r="C15">
+        <v>3.2240000000000002</v>
+      </c>
+      <c r="D15">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1.681</v>
+      </c>
+      <c r="B16">
+        <v>2.75</v>
+      </c>
+      <c r="C16">
+        <v>3.2029999999999998</v>
+      </c>
+      <c r="D16">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1.607</v>
+      </c>
+      <c r="B17">
+        <v>2.75</v>
+      </c>
+      <c r="C17">
+        <v>3.1669999999999998</v>
+      </c>
+      <c r="D17">
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1.5649999999999999</v>
+      </c>
+      <c r="B18">
+        <v>2.76</v>
+      </c>
+      <c r="C18">
+        <v>3.1339999999999999</v>
+      </c>
+      <c r="D18">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1.508</v>
+      </c>
+      <c r="B19">
+        <v>2.77</v>
+      </c>
+      <c r="C19">
+        <v>3.0960000000000001</v>
+      </c>
+      <c r="D19">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1.4730000000000001</v>
+      </c>
+      <c r="B20">
+        <v>2.8</v>
+      </c>
+      <c r="C20">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="D20">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1.454</v>
+      </c>
+      <c r="B21">
+        <v>2.82</v>
+      </c>
+      <c r="C21">
+        <v>2.992</v>
+      </c>
+      <c r="D21">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1.421</v>
+      </c>
+      <c r="B22">
+        <v>2.87</v>
+      </c>
+      <c r="C22">
+        <v>2.9209999999999998</v>
+      </c>
+      <c r="D22">
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1.377</v>
+      </c>
+      <c r="B23">
+        <v>3.06</v>
+      </c>
+      <c r="C23">
+        <v>2.851</v>
+      </c>
+      <c r="D23">
+        <v>7.87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1.333</v>
+      </c>
+      <c r="B24">
+        <v>3.5</v>
+      </c>
+      <c r="C24">
+        <v>2.7650000000000001</v>
+      </c>
+      <c r="D24">
+        <v>8.09</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="B25">
         <v>4</v>
       </c>
-      <c r="P3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q3">
-        <f>2.7*57</f>
-        <v>153.9</v>
-      </c>
-      <c r="R3">
-        <f>Q3/(A3*B23)</f>
-        <v>0.59303204685068789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4">
-        <v>3.7650000000000001</v>
-      </c>
-      <c r="B4">
-        <v>3.94</v>
-      </c>
-      <c r="C4">
-        <v>3.669</v>
-      </c>
-      <c r="D4">
-        <v>3.84</v>
-      </c>
-      <c r="E4">
-        <v>3.2450000000000001</v>
-      </c>
-      <c r="F4">
-        <v>3.39</v>
-      </c>
-      <c r="G4">
-        <v>0.16700000000000001</v>
-      </c>
-      <c r="H4">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="P4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5">
-        <v>3.734</v>
-      </c>
-      <c r="B5">
-        <v>3.97</v>
-      </c>
-      <c r="C5">
-        <v>3.665</v>
-      </c>
-      <c r="D5">
-        <v>4.04</v>
-      </c>
-      <c r="E5">
-        <v>3.2440000000000002</v>
-      </c>
-      <c r="F5">
-        <v>3.39</v>
-      </c>
-      <c r="G5">
-        <v>0.52300000000000002</v>
-      </c>
-      <c r="H5">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="O5" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5">
-        <f>3*25</f>
-        <v>75</v>
-      </c>
-      <c r="R5">
-        <f>Q5/(C3*D28)</f>
-        <v>0.63487882025632514</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6">
-        <v>3.6859999999999999</v>
-      </c>
-      <c r="B6">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="C6">
-        <v>3.6619999999999999</v>
-      </c>
-      <c r="D6">
-        <v>4.25</v>
-      </c>
-      <c r="E6">
-        <v>3.2040000000000002</v>
-      </c>
-      <c r="F6">
-        <v>3.81</v>
-      </c>
-      <c r="G6">
-        <v>1.202</v>
-      </c>
-      <c r="H6">
-        <v>69.3</v>
-      </c>
-      <c r="P6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7">
-        <v>3.6640000000000001</v>
-      </c>
-      <c r="B7">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="C7">
-        <v>3.66</v>
-      </c>
-      <c r="D7">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="E7">
-        <v>3.2050000000000001</v>
-      </c>
-      <c r="F7">
-        <v>3.81</v>
-      </c>
-      <c r="G7">
-        <v>1.5069999999999999</v>
-      </c>
-      <c r="H7">
-        <v>69.3</v>
-      </c>
-      <c r="O7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P7">
-        <v>2.6</v>
-      </c>
-      <c r="Q7">
-        <f>P7*P8</f>
-        <v>158.6</v>
-      </c>
-      <c r="R7">
-        <f>Q7/(H3*A3)</f>
-        <v>0.58965398910590094</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8">
-        <v>3.65</v>
-      </c>
-      <c r="B8">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="C8">
-        <v>3.6549999999999998</v>
-      </c>
-      <c r="D8">
-        <v>4.84</v>
-      </c>
-      <c r="E8">
-        <v>3.1850000000000001</v>
-      </c>
-      <c r="F8">
-        <v>3.96</v>
-      </c>
-      <c r="G8">
-        <v>1.653</v>
-      </c>
-      <c r="H8">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="P8">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9">
-        <v>3.633</v>
-      </c>
-      <c r="B9">
-        <v>5.13</v>
-      </c>
-      <c r="C9">
-        <v>3.649</v>
-      </c>
-      <c r="D9">
-        <v>5.24</v>
-      </c>
-      <c r="E9">
-        <v>3.1850000000000001</v>
-      </c>
-      <c r="F9">
-        <v>3.96</v>
-      </c>
-      <c r="G9">
-        <v>2.0430000000000001</v>
-      </c>
-      <c r="H9">
-        <v>69.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10">
-        <v>3.6160000000000001</v>
-      </c>
-      <c r="B10">
-        <v>5.42</v>
-      </c>
-      <c r="C10">
-        <v>3.645</v>
-      </c>
-      <c r="D10">
-        <v>5.47</v>
-      </c>
-      <c r="E10">
-        <v>3.1539999999999999</v>
-      </c>
-      <c r="F10">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="G10">
-        <v>2.4489999999999998</v>
-      </c>
-      <c r="H10">
-        <v>66.900000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11">
-        <v>3.593</v>
-      </c>
-      <c r="B11">
-        <v>6.15</v>
-      </c>
-      <c r="C11">
-        <v>3.6360000000000001</v>
-      </c>
-      <c r="D11">
-        <v>5.94</v>
-      </c>
-      <c r="E11">
-        <v>3.1539999999999999</v>
-      </c>
-      <c r="F11">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="G11">
-        <v>2.802</v>
-      </c>
-      <c r="H11">
-        <v>61.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12">
-        <v>3.5630000000000002</v>
-      </c>
-      <c r="B12">
-        <v>7.19</v>
-      </c>
-      <c r="C12">
-        <v>3.625</v>
-      </c>
-      <c r="D12">
-        <v>6.69</v>
-      </c>
-      <c r="E12">
-        <v>3.1230000000000002</v>
-      </c>
-      <c r="F12">
-        <v>4.67</v>
-      </c>
-      <c r="G12">
-        <v>2.9550000000000001</v>
-      </c>
-      <c r="H12">
-        <v>57.7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13">
-        <v>3.536</v>
-      </c>
-      <c r="B13">
-        <v>8.09</v>
-      </c>
-      <c r="C13">
-        <v>3.62</v>
-      </c>
-      <c r="D13">
-        <v>7.07</v>
-      </c>
-      <c r="E13">
-        <v>3.1230000000000002</v>
-      </c>
-      <c r="F13">
-        <v>4.7</v>
-      </c>
-      <c r="G13">
-        <v>3.0150000000000001</v>
-      </c>
-      <c r="H13">
-        <v>55.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14">
-        <v>3.5129999999999999</v>
-      </c>
-      <c r="B14">
-        <v>9.44</v>
-      </c>
-      <c r="C14">
-        <v>3.6080000000000001</v>
-      </c>
-      <c r="D14">
-        <v>7.75</v>
-      </c>
-      <c r="E14">
-        <v>3.0760000000000001</v>
-      </c>
-      <c r="F14">
-        <v>5.28</v>
-      </c>
-      <c r="G14">
-        <v>3.121</v>
-      </c>
-      <c r="H14">
-        <v>51.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15">
-        <v>3.4849999999999999</v>
-      </c>
-      <c r="B15">
-        <v>11.66</v>
-      </c>
-      <c r="C15">
-        <v>3.6</v>
-      </c>
-      <c r="D15">
-        <v>8.2799999999999994</v>
-      </c>
-      <c r="E15">
-        <v>3.0350000000000001</v>
-      </c>
-      <c r="F15">
-        <v>5.77</v>
-      </c>
-      <c r="G15">
-        <v>3.16</v>
-      </c>
-      <c r="H15">
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16">
-        <v>3.4380000000000002</v>
-      </c>
-      <c r="B16">
-        <v>16.170000000000002</v>
-      </c>
-      <c r="C16">
-        <v>3.5910000000000002</v>
-      </c>
-      <c r="D16">
-        <v>8.76</v>
-      </c>
-      <c r="E16">
-        <v>3.032</v>
-      </c>
-      <c r="F16">
-        <v>5.77</v>
-      </c>
-      <c r="G16">
-        <v>3.2480000000000002</v>
-      </c>
-      <c r="H16">
-        <v>42.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <v>3.3929999999999998</v>
-      </c>
-      <c r="B17">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="C17">
-        <v>3.5659999999999998</v>
-      </c>
-      <c r="D17">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="E17">
-        <v>2.9849999999999999</v>
-      </c>
-      <c r="F17">
-        <v>6.32</v>
-      </c>
-      <c r="G17">
-        <v>3.27</v>
-      </c>
-      <c r="H17">
-        <v>40.299999999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>3.343</v>
-      </c>
-      <c r="B18">
-        <v>25.5</v>
-      </c>
-      <c r="C18">
-        <v>3.548</v>
-      </c>
-      <c r="D18">
-        <v>10.97</v>
-      </c>
-      <c r="E18">
-        <v>2.9830000000000001</v>
-      </c>
-      <c r="F18">
-        <v>6.32</v>
-      </c>
-      <c r="G18">
-        <v>3.347</v>
-      </c>
-      <c r="H18">
-        <v>33.07</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>3.2890000000000001</v>
-      </c>
-      <c r="B19">
-        <v>29.88</v>
-      </c>
-      <c r="C19">
-        <v>3.476</v>
-      </c>
-      <c r="D19">
-        <v>14.4</v>
-      </c>
-      <c r="E19">
-        <v>2.919</v>
-      </c>
-      <c r="F19">
-        <v>7.01</v>
-      </c>
-      <c r="G19">
-        <v>3.3639999999999999</v>
-      </c>
-      <c r="H19">
-        <v>30.58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>3.1469999999999998</v>
-      </c>
-      <c r="B20">
-        <v>41.3</v>
-      </c>
-      <c r="C20">
-        <v>3.3650000000000002</v>
-      </c>
-      <c r="D20">
-        <v>18.47</v>
-      </c>
-      <c r="E20">
-        <v>2.8370000000000002</v>
-      </c>
-      <c r="F20">
-        <v>7.79</v>
-      </c>
-      <c r="G20">
-        <v>3.395</v>
-      </c>
-      <c r="H20">
-        <v>26.18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>2.4380000000000002</v>
-      </c>
-      <c r="B21">
-        <v>60.6</v>
-      </c>
-      <c r="C21">
-        <v>3.1120000000000001</v>
-      </c>
-      <c r="D21">
-        <v>24.3</v>
-      </c>
-      <c r="E21">
-        <v>2.8370000000000002</v>
-      </c>
-      <c r="F21">
-        <v>7.79</v>
-      </c>
-      <c r="G21">
-        <v>3.3940000000000001</v>
-      </c>
-      <c r="H21">
-        <v>25.08</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>0.159</v>
-      </c>
-      <c r="B22">
-        <v>68.5</v>
-      </c>
-      <c r="C22">
-        <v>2.952</v>
-      </c>
-      <c r="D22">
-        <v>26.72</v>
-      </c>
-      <c r="E22">
-        <v>2.7370000000000001</v>
-      </c>
-      <c r="F22">
-        <v>8.66</v>
-      </c>
-      <c r="G22">
-        <v>3.41</v>
-      </c>
-      <c r="H22">
-        <v>22.15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>0.158</v>
-      </c>
-      <c r="B23">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="C23">
-        <v>2.7170000000000001</v>
-      </c>
-      <c r="D23">
-        <v>28.64</v>
-      </c>
-      <c r="E23">
-        <v>2.585</v>
-      </c>
-      <c r="F23">
-        <v>9.68</v>
-      </c>
-      <c r="G23">
-        <v>3.423</v>
-      </c>
-      <c r="H23">
-        <v>19.420000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="C24">
-        <v>2.6309999999999998</v>
-      </c>
-      <c r="D24">
-        <v>29.37</v>
-      </c>
-      <c r="E24">
-        <v>2.585</v>
-      </c>
-      <c r="F24">
-        <v>9.67</v>
-      </c>
-      <c r="G24">
-        <v>3.4239999999999999</v>
-      </c>
-      <c r="H24">
-        <v>18.170000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
       <c r="C25">
-        <v>1.905</v>
+        <v>2.633</v>
       </c>
       <c r="D25">
-        <v>31.57</v>
-      </c>
-      <c r="E25">
-        <v>2.4649999999999999</v>
-      </c>
-      <c r="F25">
-        <v>10.33</v>
-      </c>
-      <c r="G25">
-        <v>3.4289999999999998</v>
-      </c>
-      <c r="H25">
-        <v>16.13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="B26">
+        <v>5.15</v>
+      </c>
       <c r="C26">
-        <v>1.2909999999999999</v>
+        <v>2.3580000000000001</v>
       </c>
       <c r="D26">
-        <v>32.020000000000003</v>
-      </c>
-      <c r="E26">
-        <v>2.35</v>
-      </c>
-      <c r="F26">
-        <v>10.84</v>
-      </c>
-      <c r="G26">
-        <v>3.4329999999999998</v>
-      </c>
-      <c r="H26">
-        <v>14.43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>8.5399999999999991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1.155</v>
+      </c>
+      <c r="B27">
+        <v>6.48</v>
+      </c>
       <c r="C27">
-        <v>0.34</v>
+        <v>2.1619999999999999</v>
       </c>
       <c r="D27">
-        <v>32.18</v>
-      </c>
-      <c r="E27">
-        <v>2.0750000000000002</v>
-      </c>
-      <c r="F27">
-        <v>11.65</v>
-      </c>
-      <c r="G27">
-        <v>3.4319999999999999</v>
-      </c>
-      <c r="H27">
-        <v>13.31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="B28">
+        <v>6.91</v>
+      </c>
       <c r="C28">
-        <v>7.3999999999999996E-2</v>
+        <v>2.0089999999999999</v>
       </c>
       <c r="D28">
-        <v>32.18</v>
-      </c>
-      <c r="E28">
-        <v>1.794</v>
-      </c>
-      <c r="F28">
-        <v>12.12</v>
-      </c>
-      <c r="G28">
-        <v>3.431</v>
-      </c>
-      <c r="H28">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="E29">
-        <v>1.7889999999999999</v>
-      </c>
-      <c r="F29">
-        <v>12.12</v>
-      </c>
-      <c r="G29">
-        <v>3.427</v>
-      </c>
-      <c r="H29">
-        <v>11.58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="E30">
-        <v>1.5960000000000001</v>
-      </c>
-      <c r="F30">
-        <v>12.12</v>
-      </c>
-      <c r="G30">
-        <v>3.4260000000000002</v>
-      </c>
-      <c r="H30">
-        <v>10.65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="E31">
-        <v>1.379</v>
-      </c>
-      <c r="F31">
-        <v>12.27</v>
-      </c>
-      <c r="G31">
-        <v>3.4169999999999998</v>
-      </c>
-      <c r="H31">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="E32">
-        <v>1.383</v>
-      </c>
-      <c r="F32">
-        <v>12.27</v>
-      </c>
-      <c r="G32">
-        <v>3.4180000000000001</v>
-      </c>
-      <c r="H32">
-        <v>9.56</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8">
-      <c r="E33">
-        <v>1.296</v>
-      </c>
-      <c r="F33">
-        <v>12.31</v>
-      </c>
-      <c r="G33">
-        <v>3.4129999999999998</v>
-      </c>
-      <c r="H33">
-        <v>9.0299999999999994</v>
-      </c>
-    </row>
-    <row r="34" spans="5:8">
-      <c r="E34">
-        <v>1.1419999999999999</v>
-      </c>
-      <c r="F34">
-        <v>12.37</v>
-      </c>
-      <c r="G34">
-        <v>3.4079999999999999</v>
-      </c>
-      <c r="H34">
-        <v>8.58</v>
-      </c>
-    </row>
-    <row r="35" spans="5:8">
-      <c r="E35">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="F35">
-        <v>12.42</v>
-      </c>
-      <c r="G35">
-        <v>3.403</v>
-      </c>
-      <c r="H35">
-        <v>8.1300000000000008</v>
-      </c>
-    </row>
-    <row r="36" spans="5:8">
-      <c r="E36">
-        <v>0.79700000000000004</v>
-      </c>
-      <c r="F36">
-        <v>12.77</v>
-      </c>
-      <c r="G36">
-        <v>3.399</v>
-      </c>
-      <c r="H36">
-        <v>7.67</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8">
-      <c r="E37">
-        <v>0.751</v>
-      </c>
-      <c r="F37">
-        <v>12.91</v>
-      </c>
-      <c r="G37">
-        <v>3.3940000000000001</v>
-      </c>
-      <c r="H37">
-        <v>7.07</v>
-      </c>
-    </row>
-    <row r="38" spans="5:8">
-      <c r="E38">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="F38">
-        <v>13.24</v>
-      </c>
-      <c r="G38">
-        <v>3.3879999999999999</v>
-      </c>
-      <c r="H38">
-        <v>6.54</v>
-      </c>
-    </row>
-    <row r="39" spans="5:8">
-      <c r="E39">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="F39">
-        <v>13.4</v>
-      </c>
-      <c r="G39">
-        <v>3.3849999999999998</v>
-      </c>
-      <c r="H39">
-        <v>5.89</v>
-      </c>
-    </row>
-    <row r="40" spans="5:8">
-      <c r="E40">
-        <v>0.2</v>
-      </c>
-      <c r="F40">
-        <v>13.49</v>
-      </c>
-      <c r="G40">
-        <v>3.3809999999999998</v>
-      </c>
-      <c r="H40">
-        <v>5.24</v>
-      </c>
-    </row>
-    <row r="41" spans="5:8">
-      <c r="E41">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F41">
-        <v>13.56</v>
-      </c>
-      <c r="G41">
-        <v>3.3769999999999998</v>
-      </c>
-      <c r="H41">
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="42" spans="5:8">
-      <c r="G42">
-        <v>3.3730000000000002</v>
-      </c>
-      <c r="H42">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="43" spans="5:8">
-      <c r="G43">
-        <v>3.3690000000000002</v>
-      </c>
-      <c r="H43">
-        <v>4.08</v>
-      </c>
-    </row>
-    <row r="44" spans="5:8">
-      <c r="G44">
-        <v>3.3639999999999999</v>
-      </c>
-      <c r="H44">
-        <v>3.78</v>
-      </c>
-    </row>
-    <row r="45" spans="5:8">
-      <c r="G45">
-        <v>3.3580000000000001</v>
-      </c>
-      <c r="H45">
-        <v>3.52</v>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1.077</v>
+      </c>
+      <c r="B29">
+        <v>7.46</v>
+      </c>
+      <c r="C29">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="D29">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>0.999</v>
+      </c>
+      <c r="B30">
+        <v>8.17</v>
+      </c>
+      <c r="C30">
+        <v>1.411</v>
+      </c>
+      <c r="D30">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>0.873</v>
+      </c>
+      <c r="B31">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="C31">
+        <v>1.331</v>
+      </c>
+      <c r="D31">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="B32">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="C32">
+        <v>1.246</v>
+      </c>
+      <c r="D32">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="B33">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="C33">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D33">
+        <v>16.649999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="B34">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="C34">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D34">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="B35">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2.4E-2</v>
+      </c>
+      <c r="B36">
+        <v>9.83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2.3E-2</v>
+      </c>
+      <c r="B37">
+        <v>9.84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2.3E-2</v>
+      </c>
+      <c r="B38">
+        <v>9.85</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227491E2-4243-FE44-ACAF-7DA0D3D74BD1}">
+  <dimension ref="A1:R45"/>
+  <sheetViews>
+    <sheetView topLeftCell="E11" zoomScale="78" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="11.84375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3.7829999999999999</v>
+      </c>
+      <c r="B3">
+        <v>3.96</v>
+      </c>
+      <c r="C3">
+        <v>3.6709999999999998</v>
+      </c>
+      <c r="D3">
+        <v>3.84</v>
+      </c>
+      <c r="E3">
+        <v>3.2589999999999999</v>
+      </c>
+      <c r="F3">
+        <v>3.41</v>
+      </c>
+      <c r="G3">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="H3">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <f>2.7*57</f>
+        <v>153.9</v>
+      </c>
+      <c r="R3">
+        <f>Q3/(A3*B23)</f>
+        <v>0.59303204685068789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3.7650000000000001</v>
+      </c>
+      <c r="B4">
+        <v>3.94</v>
+      </c>
+      <c r="C4">
+        <v>3.669</v>
+      </c>
+      <c r="D4">
+        <v>3.84</v>
+      </c>
+      <c r="E4">
+        <v>3.2450000000000001</v>
+      </c>
+      <c r="F4">
+        <v>3.39</v>
+      </c>
+      <c r="G4">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="H4">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3.734</v>
+      </c>
+      <c r="B5">
+        <v>3.97</v>
+      </c>
+      <c r="C5">
+        <v>3.665</v>
+      </c>
+      <c r="D5">
+        <v>4.04</v>
+      </c>
+      <c r="E5">
+        <v>3.2440000000000002</v>
+      </c>
+      <c r="F5">
+        <v>3.39</v>
+      </c>
+      <c r="G5">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="H5">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="O5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q5">
+        <f>3*25</f>
+        <v>75</v>
+      </c>
+      <c r="R5">
+        <f>Q5/(C3*D28)</f>
+        <v>0.63487882025632514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>3.6859999999999999</v>
+      </c>
+      <c r="B6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C6">
+        <v>3.6619999999999999</v>
+      </c>
+      <c r="D6">
+        <v>4.25</v>
+      </c>
+      <c r="E6">
+        <v>3.2040000000000002</v>
+      </c>
+      <c r="F6">
+        <v>3.81</v>
+      </c>
+      <c r="G6">
+        <v>1.202</v>
+      </c>
+      <c r="H6">
+        <v>69.3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>3.6640000000000001</v>
+      </c>
+      <c r="B7">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="C7">
+        <v>3.66</v>
+      </c>
+      <c r="D7">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="E7">
+        <v>3.2050000000000001</v>
+      </c>
+      <c r="F7">
+        <v>3.81</v>
+      </c>
+      <c r="G7">
+        <v>1.5069999999999999</v>
+      </c>
+      <c r="H7">
+        <v>69.3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>2.6</v>
+      </c>
+      <c r="Q7">
+        <f>P7*P8</f>
+        <v>158.6</v>
+      </c>
+      <c r="R7">
+        <f>Q7/(H3*A3)</f>
+        <v>0.58965398910590094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>3.65</v>
+      </c>
+      <c r="B8">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C8">
+        <v>3.6549999999999998</v>
+      </c>
+      <c r="D8">
+        <v>4.84</v>
+      </c>
+      <c r="E8">
+        <v>3.1850000000000001</v>
+      </c>
+      <c r="F8">
+        <v>3.96</v>
+      </c>
+      <c r="G8">
+        <v>1.653</v>
+      </c>
+      <c r="H8">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="P8">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3.633</v>
+      </c>
+      <c r="B9">
+        <v>5.13</v>
+      </c>
+      <c r="C9">
+        <v>3.649</v>
+      </c>
+      <c r="D9">
+        <v>5.24</v>
+      </c>
+      <c r="E9">
+        <v>3.1850000000000001</v>
+      </c>
+      <c r="F9">
+        <v>3.96</v>
+      </c>
+      <c r="G9">
+        <v>2.0430000000000001</v>
+      </c>
+      <c r="H9">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3.6160000000000001</v>
+      </c>
+      <c r="B10">
+        <v>5.42</v>
+      </c>
+      <c r="C10">
+        <v>3.645</v>
+      </c>
+      <c r="D10">
+        <v>5.47</v>
+      </c>
+      <c r="E10">
+        <v>3.1539999999999999</v>
+      </c>
+      <c r="F10">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="G10">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="H10">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3.593</v>
+      </c>
+      <c r="B11">
+        <v>6.15</v>
+      </c>
+      <c r="C11">
+        <v>3.6360000000000001</v>
+      </c>
+      <c r="D11">
+        <v>5.94</v>
+      </c>
+      <c r="E11">
+        <v>3.1539999999999999</v>
+      </c>
+      <c r="F11">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="G11">
+        <v>2.802</v>
+      </c>
+      <c r="H11">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3.5630000000000002</v>
+      </c>
+      <c r="B12">
+        <v>7.19</v>
+      </c>
+      <c r="C12">
+        <v>3.625</v>
+      </c>
+      <c r="D12">
+        <v>6.69</v>
+      </c>
+      <c r="E12">
+        <v>3.1230000000000002</v>
+      </c>
+      <c r="F12">
+        <v>4.67</v>
+      </c>
+      <c r="G12">
+        <v>2.9550000000000001</v>
+      </c>
+      <c r="H12">
+        <v>57.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3.536</v>
+      </c>
+      <c r="B13">
+        <v>8.09</v>
+      </c>
+      <c r="C13">
+        <v>3.62</v>
+      </c>
+      <c r="D13">
+        <v>7.07</v>
+      </c>
+      <c r="E13">
+        <v>3.1230000000000002</v>
+      </c>
+      <c r="F13">
+        <v>4.7</v>
+      </c>
+      <c r="G13">
+        <v>3.0150000000000001</v>
+      </c>
+      <c r="H13">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>3.5129999999999999</v>
+      </c>
+      <c r="B14">
+        <v>9.44</v>
+      </c>
+      <c r="C14">
+        <v>3.6080000000000001</v>
+      </c>
+      <c r="D14">
+        <v>7.75</v>
+      </c>
+      <c r="E14">
+        <v>3.0760000000000001</v>
+      </c>
+      <c r="F14">
+        <v>5.28</v>
+      </c>
+      <c r="G14">
+        <v>3.121</v>
+      </c>
+      <c r="H14">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>3.4849999999999999</v>
+      </c>
+      <c r="B15">
+        <v>11.66</v>
+      </c>
+      <c r="C15">
+        <v>3.6</v>
+      </c>
+      <c r="D15">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="E15">
+        <v>3.0350000000000001</v>
+      </c>
+      <c r="F15">
+        <v>5.77</v>
+      </c>
+      <c r="G15">
+        <v>3.16</v>
+      </c>
+      <c r="H15">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>3.4380000000000002</v>
+      </c>
+      <c r="B16">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="C16">
+        <v>3.5910000000000002</v>
+      </c>
+      <c r="D16">
+        <v>8.76</v>
+      </c>
+      <c r="E16">
+        <v>3.032</v>
+      </c>
+      <c r="F16">
+        <v>5.77</v>
+      </c>
+      <c r="G16">
+        <v>3.2480000000000002</v>
+      </c>
+      <c r="H16">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>3.3929999999999998</v>
+      </c>
+      <c r="B17">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="C17">
+        <v>3.5659999999999998</v>
+      </c>
+      <c r="D17">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="E17">
+        <v>2.9849999999999999</v>
+      </c>
+      <c r="F17">
+        <v>6.32</v>
+      </c>
+      <c r="G17">
+        <v>3.27</v>
+      </c>
+      <c r="H17">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>3.343</v>
+      </c>
+      <c r="B18">
+        <v>25.5</v>
+      </c>
+      <c r="C18">
+        <v>3.548</v>
+      </c>
+      <c r="D18">
+        <v>10.97</v>
+      </c>
+      <c r="E18">
+        <v>2.9830000000000001</v>
+      </c>
+      <c r="F18">
+        <v>6.32</v>
+      </c>
+      <c r="G18">
+        <v>3.347</v>
+      </c>
+      <c r="H18">
+        <v>33.07</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>3.2890000000000001</v>
+      </c>
+      <c r="B19">
+        <v>29.88</v>
+      </c>
+      <c r="C19">
+        <v>3.476</v>
+      </c>
+      <c r="D19">
+        <v>14.4</v>
+      </c>
+      <c r="E19">
+        <v>2.919</v>
+      </c>
+      <c r="F19">
+        <v>7.01</v>
+      </c>
+      <c r="G19">
+        <v>3.3639999999999999</v>
+      </c>
+      <c r="H19">
+        <v>30.58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>3.1469999999999998</v>
+      </c>
+      <c r="B20">
+        <v>41.3</v>
+      </c>
+      <c r="C20">
+        <v>3.3650000000000002</v>
+      </c>
+      <c r="D20">
+        <v>18.47</v>
+      </c>
+      <c r="E20">
+        <v>2.8370000000000002</v>
+      </c>
+      <c r="F20">
+        <v>7.79</v>
+      </c>
+      <c r="G20">
+        <v>3.395</v>
+      </c>
+      <c r="H20">
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2.4380000000000002</v>
+      </c>
+      <c r="B21">
+        <v>60.6</v>
+      </c>
+      <c r="C21">
+        <v>3.1120000000000001</v>
+      </c>
+      <c r="D21">
+        <v>24.3</v>
+      </c>
+      <c r="E21">
+        <v>2.8370000000000002</v>
+      </c>
+      <c r="F21">
+        <v>7.79</v>
+      </c>
+      <c r="G21">
+        <v>3.3940000000000001</v>
+      </c>
+      <c r="H21">
+        <v>25.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>0.159</v>
+      </c>
+      <c r="B22">
+        <v>68.5</v>
+      </c>
+      <c r="C22">
+        <v>2.952</v>
+      </c>
+      <c r="D22">
+        <v>26.72</v>
+      </c>
+      <c r="E22">
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="F22">
+        <v>8.66</v>
+      </c>
+      <c r="G22">
+        <v>3.41</v>
+      </c>
+      <c r="H22">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0.158</v>
+      </c>
+      <c r="B23">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="C23">
+        <v>2.7170000000000001</v>
+      </c>
+      <c r="D23">
+        <v>28.64</v>
+      </c>
+      <c r="E23">
+        <v>2.585</v>
+      </c>
+      <c r="F23">
+        <v>9.68</v>
+      </c>
+      <c r="G23">
+        <v>3.423</v>
+      </c>
+      <c r="H23">
+        <v>19.420000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>2.6309999999999998</v>
+      </c>
+      <c r="D24">
+        <v>29.37</v>
+      </c>
+      <c r="E24">
+        <v>2.585</v>
+      </c>
+      <c r="F24">
+        <v>9.67</v>
+      </c>
+      <c r="G24">
+        <v>3.4239999999999999</v>
+      </c>
+      <c r="H24">
+        <v>18.170000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>1.905</v>
+      </c>
+      <c r="D25">
+        <v>31.57</v>
+      </c>
+      <c r="E25">
+        <v>2.4649999999999999</v>
+      </c>
+      <c r="F25">
+        <v>10.33</v>
+      </c>
+      <c r="G25">
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="H25">
+        <v>16.13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="D26">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="E26">
+        <v>2.35</v>
+      </c>
+      <c r="F26">
+        <v>10.84</v>
+      </c>
+      <c r="G26">
+        <v>3.4329999999999998</v>
+      </c>
+      <c r="H26">
+        <v>14.43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>0.34</v>
+      </c>
+      <c r="D27">
+        <v>32.18</v>
+      </c>
+      <c r="E27">
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="F27">
+        <v>11.65</v>
+      </c>
+      <c r="G27">
+        <v>3.4319999999999999</v>
+      </c>
+      <c r="H27">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D28">
+        <v>32.18</v>
+      </c>
+      <c r="E28">
+        <v>1.794</v>
+      </c>
+      <c r="F28">
+        <v>12.12</v>
+      </c>
+      <c r="G28">
+        <v>3.431</v>
+      </c>
+      <c r="H28">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>1.7889999999999999</v>
+      </c>
+      <c r="F29">
+        <v>12.12</v>
+      </c>
+      <c r="G29">
+        <v>3.427</v>
+      </c>
+      <c r="H29">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="F30">
+        <v>12.12</v>
+      </c>
+      <c r="G30">
+        <v>3.4260000000000002</v>
+      </c>
+      <c r="H30">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>1.379</v>
+      </c>
+      <c r="F31">
+        <v>12.27</v>
+      </c>
+      <c r="G31">
+        <v>3.4169999999999998</v>
+      </c>
+      <c r="H31">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>1.383</v>
+      </c>
+      <c r="F32">
+        <v>12.27</v>
+      </c>
+      <c r="G32">
+        <v>3.4180000000000001</v>
+      </c>
+      <c r="H32">
+        <v>9.56</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>1.296</v>
+      </c>
+      <c r="F33">
+        <v>12.31</v>
+      </c>
+      <c r="G33">
+        <v>3.4129999999999998</v>
+      </c>
+      <c r="H33">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="F34">
+        <v>12.37</v>
+      </c>
+      <c r="G34">
+        <v>3.4079999999999999</v>
+      </c>
+      <c r="H34">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="F35">
+        <v>12.42</v>
+      </c>
+      <c r="G35">
+        <v>3.403</v>
+      </c>
+      <c r="H35">
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="F36">
+        <v>12.77</v>
+      </c>
+      <c r="G36">
+        <v>3.399</v>
+      </c>
+      <c r="H36">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <v>0.751</v>
+      </c>
+      <c r="F37">
+        <v>12.91</v>
+      </c>
+      <c r="G37">
+        <v>3.3940000000000001</v>
+      </c>
+      <c r="H37">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="F38">
+        <v>13.24</v>
+      </c>
+      <c r="G38">
+        <v>3.3879999999999999</v>
+      </c>
+      <c r="H38">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="F39">
+        <v>13.4</v>
+      </c>
+      <c r="G39">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="H39">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <v>0.2</v>
+      </c>
+      <c r="F40">
+        <v>13.49</v>
+      </c>
+      <c r="G40">
+        <v>3.3809999999999998</v>
+      </c>
+      <c r="H40">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F41">
+        <v>13.56</v>
+      </c>
+      <c r="G41">
+        <v>3.3769999999999998</v>
+      </c>
+      <c r="H41">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G42">
+        <v>3.3730000000000002</v>
+      </c>
+      <c r="H42">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G43">
+        <v>3.3690000000000002</v>
+      </c>
+      <c r="H43">
+        <v>4.08</v>
+      </c>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G44">
+        <v>3.3639999999999999</v>
+      </c>
+      <c r="H44">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G45">
+        <v>3.3580000000000001</v>
+      </c>
+      <c r="H45">
+        <v>3.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F683438D-407C-7340-A346-3984ACC80838}">
   <dimension ref="A1:R28"/>
   <sheetViews>
@@ -13997,9 +14740,9 @@
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -14009,7 +14752,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14032,7 +14775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3.843</v>
       </c>
@@ -14060,7 +14803,7 @@
         <v>0.58497580419044382</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.8050000000000002</v>
       </c>
@@ -14077,7 +14820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3.74</v>
       </c>
@@ -14105,7 +14848,7 @@
         <v>0.61594054120642217</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3.657</v>
       </c>
@@ -14122,7 +14865,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3.6019999999999999</v>
       </c>
@@ -14136,7 +14879,7 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3.5470000000000002</v>
       </c>
@@ -14150,7 +14893,7 @@
         <v>5.37</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3.492</v>
       </c>
@@ -14164,7 +14907,7 @@
         <v>5.95</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3.44</v>
       </c>
@@ -14178,7 +14921,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3.391</v>
       </c>
@@ -14192,7 +14935,7 @@
         <v>7.07</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3.35</v>
       </c>
@@ -14206,7 +14949,7 @@
         <v>8.23</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3.319</v>
       </c>
@@ -14220,7 +14963,7 @@
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3.2879999999999998</v>
       </c>
@@ -14234,7 +14977,7 @@
         <v>10.48</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3.2570000000000001</v>
       </c>
@@ -14248,7 +14991,7 @@
         <v>12.13</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3.2290000000000001</v>
       </c>
@@ -14262,7 +15005,7 @@
         <v>13.79</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3.2050000000000001</v>
       </c>
@@ -14276,7 +15019,7 @@
         <v>15.38</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3.18</v>
       </c>
@@ -14290,7 +15033,7 @@
         <v>17.670000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>3.1589999999999998</v>
       </c>
@@ -14304,7 +15047,7 @@
         <v>19.84</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3.133</v>
       </c>
@@ -14318,7 +15061,7 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3.11</v>
       </c>
@@ -14332,7 +15075,7 @@
         <v>22.31</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3.0779999999999998</v>
       </c>
@@ -14346,7 +15089,7 @@
         <v>22.49</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3.048</v>
       </c>
@@ -14360,7 +15103,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2.8679999999999999</v>
       </c>
@@ -14374,7 +15117,7 @@
         <v>27.85</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1.875</v>
       </c>
@@ -14388,7 +15131,7 @@
         <v>27.64</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.77</v>
       </c>
@@ -14402,7 +15145,7 @@
         <v>27.44</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0.245</v>
       </c>
@@ -14410,7 +15153,7 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.25700000000000001</v>
       </c>
@@ -14419,22 +15162,23 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E9BC25-24F3-D445-B436-0F9909050769}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" workbookViewId="0">
+    <sheetView topLeftCell="B41" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -14450,7 +15194,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14486,7 +15230,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3.9009999999999998</v>
       </c>
@@ -14526,7 +15270,7 @@
         <v>0.54137743076152833</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.871</v>
       </c>
@@ -14556,7 +15300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3.8380000000000001</v>
       </c>
@@ -14596,7 +15340,7 @@
         <v>0.68909616463999879</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3.81</v>
       </c>
@@ -14626,7 +15370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3.778</v>
       </c>
@@ -14652,7 +15396,7 @@
         <v>62.6</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3.7490000000000001</v>
       </c>
@@ -14678,7 +15422,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3.7170000000000001</v>
       </c>
@@ -14704,7 +15448,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3.6850000000000001</v>
       </c>
@@ -14730,7 +15474,7 @@
         <v>51.1</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3.6549999999999998</v>
       </c>
@@ -14756,7 +15500,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3.6219999999999999</v>
       </c>
@@ -14782,7 +15526,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3.597</v>
       </c>
@@ -14808,7 +15552,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3.5569999999999999</v>
       </c>
@@ -14834,7 +15578,7 @@
         <v>42.4</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3.516</v>
       </c>
@@ -14860,7 +15604,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3.456</v>
       </c>
@@ -14886,7 +15630,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3.387</v>
       </c>
@@ -14912,7 +15656,7 @@
         <v>30.97</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2.923</v>
       </c>
@@ -14938,7 +15682,7 @@
         <v>27.71</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2.036</v>
       </c>
@@ -14964,7 +15708,7 @@
         <v>25.28</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2.0190000000000001</v>
       </c>
@@ -14990,7 +15734,7 @@
         <v>22.51</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1.3660000000000001</v>
       </c>
@@ -15016,7 +15760,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0.252</v>
       </c>
@@ -15036,7 +15780,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0.249</v>
       </c>
@@ -15056,7 +15800,7 @@
         <v>15.29</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0.23699999999999999</v>
       </c>
@@ -15076,7 +15820,7 @@
         <v>13.97</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E25">
         <v>1.444</v>
       </c>
@@ -15090,7 +15834,7 @@
         <v>11.97</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E26">
         <v>1.373</v>
       </c>
@@ -15104,7 +15848,7 @@
         <v>11.29</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E27">
         <v>1.175</v>
       </c>
@@ -15118,7 +15862,7 @@
         <v>10.41</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E28">
         <v>0.98799999999999999</v>
       </c>
@@ -15132,7 +15876,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E29">
         <v>0.77400000000000002</v>
       </c>
@@ -15146,7 +15890,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E30">
         <v>0.60899999999999999</v>
       </c>
@@ -15160,7 +15904,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E31">
         <v>0.34200000000000003</v>
       </c>
@@ -15174,7 +15918,7 @@
         <v>6.98</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E32">
         <v>0.17299999999999999</v>
       </c>
@@ -15188,7 +15932,7 @@
         <v>6.65</v>
       </c>
     </row>
-    <row r="33" spans="5:8">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E33">
         <v>3.2000000000000001E-2</v>
       </c>
@@ -15202,7 +15946,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="34" spans="5:8">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E34">
         <v>0.03</v>
       </c>
@@ -15216,7 +15960,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="35" spans="5:8">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G35">
         <v>3.4620000000000002</v>
       </c>
@@ -15224,7 +15968,7 @@
         <v>5.59</v>
       </c>
     </row>
-    <row r="36" spans="5:8">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G36">
         <v>3.4590000000000001</v>
       </c>
@@ -15232,7 +15976,7 @@
         <v>5.22</v>
       </c>
     </row>
-    <row r="37" spans="5:8">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G37">
         <v>3.4529999999999998</v>
       </c>
@@ -15240,7 +15984,7 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="38" spans="5:8">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G38">
         <v>3.448</v>
       </c>
@@ -15248,7 +15992,7 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="39" spans="5:8">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G39">
         <v>3.4430000000000001</v>
       </c>
@@ -15256,7 +16000,7 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="40" spans="5:8">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G40">
         <v>3.4390000000000001</v>
       </c>
@@ -15264,7 +16008,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="41" spans="5:8">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G41">
         <v>3.4329999999999998</v>
       </c>
@@ -15272,7 +16016,7 @@
         <v>4.17</v>
       </c>
     </row>
-    <row r="42" spans="5:8">
+    <row r="42" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G42">
         <v>3.4239999999999999</v>
       </c>
@@ -15280,7 +16024,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="43" spans="5:8">
+    <row r="43" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G43">
         <v>3.419</v>
       </c>
@@ -15289,7 +16033,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>